--- a/My_Budget.xlsx
+++ b/My_Budget.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wfahme\Desktop\"/>
@@ -30,7 +30,7 @@
     <author>Wafic Fahme</author>
   </authors>
   <commentList>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mom car roof</t>
+Mom car roof
+AUDIT KAMAL</t>
         </r>
       </text>
     </comment>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>April</t>
   </si>
@@ -114,9 +115,6 @@
     <t>Motor</t>
   </si>
   <si>
-    <t>Online Learning</t>
-  </si>
-  <si>
     <t>Salary</t>
   </si>
   <si>
@@ -220,6 +218,21 @@
   </si>
   <si>
     <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Grace old</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -374,11 +387,11 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,20 +673,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.28515625" customWidth="1"/>
+    <col min="2" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -684,57 +700,93 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="E1" s="16"/>
       <c r="F1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>1400</v>
       </c>
       <c r="C2" s="22">
         <v>1000</v>
       </c>
       <c r="D2" s="22">
-        <v>2300</v>
-      </c>
-      <c r="E2" s="22">
-        <v>2300</v>
-      </c>
+        <v>2050</v>
+      </c>
+      <c r="E2" s="22"/>
       <c r="F2" s="22">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+      <c r="G2" s="22">
+        <v>1500</v>
+      </c>
+      <c r="H2" s="22">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="22">
+        <v>1500</v>
+      </c>
+      <c r="J2" s="22">
+        <v>1500</v>
+      </c>
+      <c r="K2" s="22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="24">
+        <v>38</v>
+      </c>
+      <c r="B3" s="23">
         <v>0</v>
       </c>
       <c r="C3" s="22">
         <v>0</v>
       </c>
       <c r="D3" s="22">
-        <v>500</v>
-      </c>
-      <c r="E3" s="22">
-        <v>500</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="E3" s="22"/>
       <c r="F3" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="G3" s="22">
+        <v>150</v>
+      </c>
+      <c r="H3" s="22">
+        <v>600</v>
+      </c>
+      <c r="I3" s="22">
+        <v>150</v>
+      </c>
+      <c r="J3" s="22">
+        <v>150</v>
+      </c>
+      <c r="K3" s="22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -747,14 +799,27 @@
       <c r="D4" s="18">
         <v>31</v>
       </c>
-      <c r="E4" s="18">
-        <v>31</v>
-      </c>
+      <c r="E4" s="18"/>
       <c r="F4" s="18">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="18">
+        <v>31</v>
+      </c>
+      <c r="H4" s="18">
+        <v>31</v>
+      </c>
+      <c r="I4" s="18">
+        <v>31</v>
+      </c>
+      <c r="J4" s="18">
+        <v>31</v>
+      </c>
+      <c r="K4" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -767,16 +832,29 @@
       <c r="D5" s="18">
         <v>25</v>
       </c>
-      <c r="E5" s="18">
-        <v>25</v>
-      </c>
+      <c r="E5" s="18"/>
       <c r="F5" s="18">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="18">
+        <v>25</v>
+      </c>
+      <c r="H5" s="18">
+        <v>25</v>
+      </c>
+      <c r="I5" s="18">
+        <v>25</v>
+      </c>
+      <c r="J5" s="18">
+        <v>25</v>
+      </c>
+      <c r="K5" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="18">
         <f>144+23+13+12</f>
@@ -786,18 +864,31 @@
         <v>142</v>
       </c>
       <c r="D6" s="18">
-        <v>150</v>
-      </c>
-      <c r="E6" s="18">
-        <v>150</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E6" s="18"/>
       <c r="F6" s="18">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="18">
+        <v>150</v>
+      </c>
+      <c r="H6" s="18">
+        <v>150</v>
+      </c>
+      <c r="I6" s="18">
+        <v>150</v>
+      </c>
+      <c r="J6" s="18">
+        <v>150</v>
+      </c>
+      <c r="K6" s="18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="18">
         <f>30+56+13</f>
@@ -808,16 +899,29 @@
         <v>100</v>
       </c>
       <c r="D7" s="18">
-        <v>130</v>
-      </c>
-      <c r="E7" s="18">
-        <v>120</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E7" s="18"/>
       <c r="F7" s="18">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="18">
+        <v>120</v>
+      </c>
+      <c r="H7" s="18">
+        <v>120</v>
+      </c>
+      <c r="I7" s="18">
+        <v>120</v>
+      </c>
+      <c r="J7" s="18">
+        <v>120</v>
+      </c>
+      <c r="K7" s="18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -828,18 +932,31 @@
         <v>23</v>
       </c>
       <c r="D8" s="18">
-        <v>60</v>
-      </c>
-      <c r="E8" s="18">
-        <v>60</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G8" s="18">
+        <v>40</v>
+      </c>
+      <c r="H8" s="18">
+        <v>40</v>
+      </c>
+      <c r="I8" s="18">
+        <v>40</v>
+      </c>
+      <c r="J8" s="18">
+        <v>40</v>
+      </c>
+      <c r="K8" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="18">
         <v>10</v>
@@ -851,16 +968,29 @@
       <c r="D9" s="18">
         <v>10</v>
       </c>
-      <c r="E9" s="18">
-        <v>10</v>
-      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="18">
+        <v>10</v>
+      </c>
+      <c r="H9" s="18">
+        <v>10</v>
+      </c>
+      <c r="I9" s="18">
+        <v>10</v>
+      </c>
+      <c r="J9" s="18">
+        <v>10</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="18">
         <v>0</v>
@@ -871,14 +1001,27 @@
       <c r="D10" s="18">
         <v>100</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
+      <c r="E10" s="18"/>
       <c r="F10" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -891,16 +1034,29 @@
       <c r="D11" s="18">
         <v>100</v>
       </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="22">
         <f>180+13</f>
@@ -910,16 +1066,29 @@
         <v>160</v>
       </c>
       <c r="D12" s="22">
-        <v>160</v>
-      </c>
-      <c r="E12" s="22">
-        <v>160</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E12" s="22"/>
       <c r="F12" s="22">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="G12" s="22">
+        <v>150</v>
+      </c>
+      <c r="H12" s="22">
+        <v>150</v>
+      </c>
+      <c r="I12" s="22">
+        <v>150</v>
+      </c>
+      <c r="J12" s="22">
+        <v>150</v>
+      </c>
+      <c r="K12" s="22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>6</v>
       </c>
@@ -931,18 +1100,31 @@
         <v>33</v>
       </c>
       <c r="D13" s="22">
-        <v>40</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E13" s="22"/>
       <c r="F13" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="22">
         <v>0</v>
@@ -953,16 +1135,29 @@
       <c r="D14" s="22">
         <v>150</v>
       </c>
-      <c r="E14" s="22">
-        <v>200</v>
-      </c>
+      <c r="E14" s="22"/>
       <c r="F14" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="22">
         <v>0</v>
@@ -973,16 +1168,29 @@
       <c r="D15" s="22">
         <v>6</v>
       </c>
-      <c r="E15" s="22">
-        <v>6</v>
-      </c>
+      <c r="E15" s="22"/>
       <c r="F15" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="22">
+        <v>6</v>
+      </c>
+      <c r="H15" s="22">
+        <v>6</v>
+      </c>
+      <c r="I15" s="22">
+        <v>6</v>
+      </c>
+      <c r="J15" s="22">
+        <v>6</v>
+      </c>
+      <c r="K15" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="22">
         <v>0</v>
@@ -993,16 +1201,29 @@
       <c r="D16" s="22">
         <v>25</v>
       </c>
-      <c r="E16" s="22">
-        <v>0</v>
-      </c>
+      <c r="E16" s="22"/>
       <c r="F16" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="22">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22">
+        <v>90</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="18">
         <v>0</v>
@@ -1011,355 +1232,557 @@
         <v>10</v>
       </c>
       <c r="D17" s="18">
-        <f>40+40</f>
-        <v>80</v>
-      </c>
-      <c r="E17" s="18">
-        <v>40</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E17" s="18"/>
       <c r="F17" s="18">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="18">
+        <v>40</v>
+      </c>
+      <c r="H17" s="18">
+        <v>40</v>
+      </c>
+      <c r="I17" s="18">
+        <v>40</v>
+      </c>
+      <c r="J17" s="18">
+        <v>40</v>
+      </c>
+      <c r="K17" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B18" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18" s="18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D18" s="18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E18" s="18"/>
       <c r="F18" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G18" s="18">
+        <v>40</v>
+      </c>
+      <c r="H18" s="18">
+        <v>40</v>
+      </c>
+      <c r="I18" s="18">
+        <v>40</v>
+      </c>
+      <c r="J18" s="18">
+        <v>40</v>
+      </c>
+      <c r="K18" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B19" s="18">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C19" s="18">
-        <v>20</v>
-      </c>
-      <c r="D19" s="18">
-        <v>20</v>
-      </c>
-      <c r="E19" s="18">
-        <v>44</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="18">
-        <v>80</v>
-      </c>
-      <c r="C20" s="18">
         <f>245+65</f>
         <v>310</v>
       </c>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="18">
+        <v>10</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0</v>
+      </c>
       <c r="D20" s="18">
         <v>0</v>
       </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
+      <c r="E20" s="18"/>
       <c r="F20" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B21" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" s="18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E21" s="18"/>
       <c r="F21" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G21" s="18">
+        <v>7</v>
+      </c>
+      <c r="H21" s="18">
+        <v>7</v>
+      </c>
+      <c r="I21" s="18">
+        <v>7</v>
+      </c>
+      <c r="J21" s="18">
+        <v>7</v>
+      </c>
+      <c r="K21" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B22" s="18">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="C22" s="18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D22" s="18">
-        <v>7</v>
-      </c>
-      <c r="E22" s="18">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E22" s="18"/>
       <c r="F22" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="18">
-        <v>150</v>
-      </c>
-      <c r="C23" s="18">
-        <v>0</v>
-      </c>
-      <c r="D23" s="18">
-        <v>0</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="22">
         <f>17+10+13</f>
         <v>40</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C23" s="22">
         <f>20+7+12+22+7+5</f>
         <v>73</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D23" s="22">
+        <v>22</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22">
         <v>30</v>
       </c>
-      <c r="E24" s="22">
+      <c r="G23" s="22">
         <v>30</v>
       </c>
-      <c r="F24" s="22">
+      <c r="H23" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="22">
-        <v>0</v>
-      </c>
-      <c r="C25" s="22">
+      <c r="I23" s="22">
+        <v>30</v>
+      </c>
+      <c r="J23" s="22">
+        <v>30</v>
+      </c>
+      <c r="K23" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="22">
+        <v>0</v>
+      </c>
+      <c r="C24" s="22">
         <f>720/2</f>
         <v>360</v>
       </c>
+      <c r="D24" s="22">
+        <f>310+41</f>
+        <v>351</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22">
+        <f>310</f>
+        <v>310</v>
+      </c>
+      <c r="G24" s="22">
+        <v>0</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0</v>
+      </c>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <v>0</v>
+      </c>
+      <c r="K24" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="22">
+        <v>0</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
       <c r="D25" s="22">
-        <v>200</v>
-      </c>
-      <c r="E25" s="22">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E25" s="22"/>
       <c r="F25" s="22">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="22">
-        <v>0</v>
-      </c>
-      <c r="C26" s="22">
-        <v>0</v>
-      </c>
-      <c r="D26" s="22">
-        <v>125</v>
-      </c>
-      <c r="E26" s="22">
-        <v>125</v>
-      </c>
-      <c r="F26" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="22">
+        <v>0</v>
+      </c>
+      <c r="H25" s="22">
+        <v>0</v>
+      </c>
+      <c r="I25" s="22">
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
+        <v>0</v>
+      </c>
+      <c r="K25" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="18">
+        <v>15</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B27" s="18">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C27" s="18">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D27" s="18">
-        <v>0</v>
-      </c>
-      <c r="E27" s="18">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E27" s="18"/>
       <c r="F27" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G27" s="18">
+        <v>7</v>
+      </c>
+      <c r="H27" s="18">
+        <v>7</v>
+      </c>
+      <c r="I27" s="18">
+        <v>7</v>
+      </c>
+      <c r="J27" s="18">
+        <v>7</v>
+      </c>
+      <c r="K27" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B28" s="18">
-        <v>7</v>
-      </c>
-      <c r="C28" s="18">
-        <v>12</v>
-      </c>
-      <c r="D28" s="18">
-        <v>7</v>
-      </c>
-      <c r="E28" s="18">
-        <v>7</v>
-      </c>
-      <c r="F28" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="18">
         <f>22+3+3+7</f>
         <v>35</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C28" s="18">
         <v>3</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D28" s="18">
         <v>3</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18">
         <v>3</v>
       </c>
-      <c r="F29" s="18">
+      <c r="G28" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="18">
+      <c r="H28" s="18">
+        <v>3</v>
+      </c>
+      <c r="I28" s="18">
+        <v>3</v>
+      </c>
+      <c r="J28" s="18">
+        <v>3</v>
+      </c>
+      <c r="K28" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="18">
         <f>23+10</f>
         <v>33</v>
       </c>
-      <c r="C30" s="18">
-        <v>0</v>
-      </c>
-      <c r="D30" s="18">
-        <v>75</v>
-      </c>
-      <c r="E30" s="18">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="18">
+        <v>0</v>
+      </c>
+      <c r="D29" s="18">
+        <f>75+200</f>
+        <v>275</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="19">
+        <f>SUM(B2:B29)</f>
+        <v>2354</v>
+      </c>
+      <c r="C30" s="19">
+        <f>SUM(C2:C29)</f>
+        <v>2338</v>
+      </c>
+      <c r="D30" s="19">
+        <f>SUM(D2:D29)</f>
+        <v>4411</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19">
+        <f>SUM(F2:F29)</f>
+        <v>4323</v>
+      </c>
+      <c r="G30" s="19">
+        <f>SUM(G2:G29)</f>
+        <v>2309</v>
+      </c>
+      <c r="H30" s="19">
+        <f>SUM(H2:H29)</f>
+        <v>4349</v>
+      </c>
+      <c r="I30" s="19">
+        <f>SUM(I2:I29)</f>
+        <v>2309</v>
+      </c>
+      <c r="J30" s="19">
+        <f>SUM(J2:J29)</f>
+        <v>2309</v>
+      </c>
+      <c r="K30" s="19">
+        <f>SUM(K2:K29)</f>
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" s="19">
-        <f>SUM(B2:B30)</f>
-        <v>2354</v>
-      </c>
-      <c r="C31" s="19">
-        <f>SUM(C2:C30)</f>
-        <v>2338</v>
-      </c>
-      <c r="D31" s="19">
-        <f>SUM(D2:D30)</f>
-        <v>4334</v>
-      </c>
-      <c r="E31" s="19">
-        <f>SUM(E2:E30)</f>
-        <v>4318</v>
-      </c>
-      <c r="F31" s="19">
-        <f>SUM(F2:F30)</f>
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="19">
         <f>3541125/1500</f>
         <v>2360.75</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C31" s="19">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D31" s="19">
         <f>6537605/1500</f>
         <v>4358.4033333333336</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19">
         <f>6537605/1500</f>
         <v>4358.4033333333336</v>
       </c>
-      <c r="F32" s="19">
+      <c r="G31" s="19">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="19">
-        <f>(B32-B31)</f>
+      <c r="H31" s="19">
+        <f>6537605/1500</f>
+        <v>4358.4033333333336</v>
+      </c>
+      <c r="I31" s="19">
+        <f>3537605/1500</f>
+        <v>2358.4033333333332</v>
+      </c>
+      <c r="J31" s="19">
+        <f>3537605/1500</f>
+        <v>2358.4033333333332</v>
+      </c>
+      <c r="K31" s="19">
+        <f>6537605/1500</f>
+        <v>4358.4033333333336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="19">
+        <f>(B31-B30)</f>
         <v>6.75</v>
       </c>
-      <c r="C33" s="19">
-        <f t="shared" ref="C33:F33" si="0">(C32-C31)</f>
+      <c r="C32" s="19">
+        <f t="shared" ref="C32:G32" si="0">(C31-C30)</f>
         <v>20.403333333333194</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D32" s="19">
         <f t="shared" si="0"/>
-        <v>24.403333333333649</v>
-      </c>
-      <c r="E33" s="19">
+        <v>-52.596666666666351</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19">
         <f t="shared" si="0"/>
-        <v>40.403333333333649</v>
-      </c>
-      <c r="F33" s="19">
+        <v>35.403333333333649</v>
+      </c>
+      <c r="G32" s="19">
         <f t="shared" si="0"/>
-        <v>-90.596666666666806</v>
+        <v>49.403333333333194</v>
+      </c>
+      <c r="H32" s="19">
+        <f t="shared" ref="H32:J32" si="1">(H31-H30)</f>
+        <v>9.4033333333336486</v>
+      </c>
+      <c r="I32" s="19">
+        <f t="shared" si="1"/>
+        <v>49.403333333333194</v>
+      </c>
+      <c r="J32" s="19">
+        <f t="shared" si="1"/>
+        <v>49.403333333333194</v>
+      </c>
+      <c r="K32" s="19">
+        <f t="shared" ref="K32" si="2">(K31-K30)</f>
+        <v>9.4033333333336486</v>
       </c>
     </row>
   </sheetData>
@@ -1371,10 +1794,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F22"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,72 +1807,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="23">
+      <c r="A1" s="24">
         <v>2018</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="D1" s="23">
+      <c r="B1" s="24"/>
+      <c r="D1" s="24">
         <v>2019</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="I1" s="23">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="I1" s="24">
         <v>2020</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="N1" s="23">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="N1" s="24">
         <v>2021</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="14"/>
     </row>
@@ -1482,7 +1906,7 @@
         <v>500</v>
       </c>
       <c r="L3" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N3" s="5">
         <v>44197</v>
@@ -1494,7 +1918,7 @@
         <v>500</v>
       </c>
       <c r="Q3" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R3" s="14"/>
     </row>
@@ -1528,7 +1952,7 @@
         <v>500</v>
       </c>
       <c r="L4" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N4" s="5">
         <v>44228</v>
@@ -1540,7 +1964,7 @@
         <v>500</v>
       </c>
       <c r="Q4" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R4" s="14"/>
     </row>
@@ -1574,7 +1998,7 @@
         <v>500</v>
       </c>
       <c r="L5" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N5" s="5">
         <v>44256</v>
@@ -1586,7 +2010,7 @@
         <v>500</v>
       </c>
       <c r="Q5" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R5" s="14"/>
     </row>
@@ -1620,7 +2044,7 @@
         <v>500</v>
       </c>
       <c r="L6" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N6" s="5">
         <v>44287</v>
@@ -1632,7 +2056,7 @@
         <v>500</v>
       </c>
       <c r="Q6" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R6" s="14"/>
     </row>
@@ -1665,7 +2089,7 @@
         <v>500</v>
       </c>
       <c r="L7" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N7" s="5">
         <v>44317</v>
@@ -1677,7 +2101,7 @@
         <v>500</v>
       </c>
       <c r="Q7" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R7" s="6"/>
     </row>
@@ -1693,13 +2117,13 @@
         <v>43617</v>
       </c>
       <c r="E8" s="6">
-        <v>2200</v>
+        <v>2050</v>
       </c>
       <c r="F8" s="6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I8" s="5">
         <v>43983</v>
@@ -1711,7 +2135,7 @@
         <v>500</v>
       </c>
       <c r="L8" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N8" s="5">
         <v>44348</v>
@@ -1723,7 +2147,7 @@
         <v>500</v>
       </c>
       <c r="Q8" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R8" s="6"/>
     </row>
@@ -1739,13 +2163,13 @@
         <v>43647</v>
       </c>
       <c r="E9" s="6">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="F9" s="6">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G9" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I9" s="5">
         <v>44013</v>
@@ -1757,7 +2181,7 @@
         <v>500</v>
       </c>
       <c r="L9" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N9" s="5">
         <v>44378</v>
@@ -1769,7 +2193,7 @@
         <v>500</v>
       </c>
       <c r="Q9" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R9" s="6"/>
     </row>
@@ -1788,7 +2212,7 @@
         <v>1500</v>
       </c>
       <c r="F10" s="6">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G10" s="6">
         <v>500</v>
@@ -1803,7 +2227,7 @@
         <v>500</v>
       </c>
       <c r="L10" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N10" s="5">
         <v>44409</v>
@@ -1815,7 +2239,7 @@
         <v>500</v>
       </c>
       <c r="Q10" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R10" s="6"/>
     </row>
@@ -1831,13 +2255,13 @@
         <v>43709</v>
       </c>
       <c r="E11" s="6">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="F11" s="6">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G11" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I11" s="5">
         <v>44075</v>
@@ -1849,7 +2273,7 @@
         <v>500</v>
       </c>
       <c r="L11" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N11" s="5">
         <v>44440</v>
@@ -1861,7 +2285,7 @@
         <v>500</v>
       </c>
       <c r="Q11" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R11" s="6"/>
     </row>
@@ -1880,7 +2304,7 @@
         <v>1500</v>
       </c>
       <c r="F12" s="6">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G12" s="6">
         <v>500</v>
@@ -1895,7 +2319,7 @@
         <v>500</v>
       </c>
       <c r="L12" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N12" s="5">
         <v>44470</v>
@@ -1907,7 +2331,7 @@
         <v>500</v>
       </c>
       <c r="Q12" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R12" s="6"/>
     </row>
@@ -1926,10 +2350,10 @@
         <v>1500</v>
       </c>
       <c r="F13" s="6">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G13" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I13" s="5">
         <v>44136</v>
@@ -1941,7 +2365,7 @@
         <v>500</v>
       </c>
       <c r="L13" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N13" s="5">
         <v>44501</v>
@@ -1953,13 +2377,13 @@
         <v>500</v>
       </c>
       <c r="Q13" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8">
         <f>SUM(B3:B13)</f>
@@ -1970,13 +2394,13 @@
         <v>43800</v>
       </c>
       <c r="E14" s="6">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="F14" s="6">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G14" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I14" s="5">
         <v>44166</v>
@@ -1988,7 +2412,7 @@
         <v>500</v>
       </c>
       <c r="L14" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N14" s="5">
         <v>44531</v>
@@ -2000,7 +2424,7 @@
         <v>500</v>
       </c>
       <c r="Q14" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R14" s="6"/>
     </row>
@@ -2008,15 +2432,15 @@
       <c r="C15" s="6"/>
       <c r="E15" s="10">
         <f>SUM(E3:E14)</f>
-        <v>20200</v>
+        <v>21450</v>
       </c>
       <c r="F15" s="10">
         <f>SUM(F3:F14)</f>
-        <v>4550</v>
+        <v>5350</v>
       </c>
       <c r="G15" s="10">
         <f>SUM(G3:G14)</f>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="J15" s="10">
         <f>SUM(J3:J14)</f>
@@ -2028,7 +2452,7 @@
       </c>
       <c r="L15" s="10">
         <f>SUM(L3:L14)</f>
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="O15" s="10">
         <f>SUM(O3:O14)</f>
@@ -2040,7 +2464,7 @@
       </c>
       <c r="Q15" s="10">
         <f>SUM(Q3:Q14)</f>
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="R15" s="6"/>
     </row>
@@ -2049,19 +2473,19 @@
       <c r="E16" s="13"/>
       <c r="F16" s="10">
         <f>E15+F15+G15</f>
-        <v>28250</v>
+        <v>29800</v>
       </c>
       <c r="G16" s="15"/>
       <c r="J16" s="13"/>
       <c r="K16" s="10">
         <f>J15+K15+L15</f>
-        <v>32800</v>
+        <v>31600</v>
       </c>
       <c r="L16" s="15"/>
       <c r="O16" s="13"/>
       <c r="P16" s="10">
         <f>O15+P15+Q15</f>
-        <v>32800</v>
+        <v>31600</v>
       </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="6"/>
@@ -2076,7 +2500,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6">
         <f>B14+SUM(E3:G7)</f>
@@ -2090,32 +2514,38 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
+      <c r="G21" t="s">
+        <v>45</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="C22">
-        <v>2200</v>
+        <v>2050</v>
       </c>
       <c r="D22">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F22">
         <v>450</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>

--- a/My_Budget.xlsx
+++ b/My_Budget.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wfahme\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wafic/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB6C9D5-00C6-9D40-9A50-E60EBA82BD9C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXPENSE" sheetId="1" r:id="rId1"/>
     <sheet name="APARTMENT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,45 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Wafic Fahme</author>
   </authors>
   <commentList>
-    <comment ref="B29" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{0A324835-3D0A-464C-8645-7A923D0E7E93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2 months + water pipe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,13 +90,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -71,13 +105,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mom car roof
-AUDIT KAMAL</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Mom car roof
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AUDIT KAMAL</t>
         </r>
       </text>
     </comment>
@@ -238,8 +290,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +317,32 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -347,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,6 +466,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -672,24 +753,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="12.28515625" customWidth="1"/>
+    <col min="2" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -720,7 +801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -731,7 +812,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="22">
-        <v>2050</v>
+        <v>2000</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22">
@@ -753,7 +834,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>38</v>
       </c>
@@ -786,7 +867,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -799,7 +880,9 @@
       <c r="D4" s="18">
         <v>31</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="18">
+        <v>31</v>
+      </c>
       <c r="F4" s="18">
         <v>31</v>
       </c>
@@ -818,8 +901,9 @@
       <c r="K4" s="18">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -832,7 +916,9 @@
       <c r="D5" s="18">
         <v>25</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="18">
+        <v>25</v>
+      </c>
       <c r="F5" s="18">
         <v>25</v>
       </c>
@@ -852,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -866,7 +952,9 @@
       <c r="D6" s="18">
         <v>120</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18">
+        <v>120</v>
+      </c>
       <c r="F6" s="18">
         <v>150</v>
       </c>
@@ -886,7 +974,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -901,7 +989,9 @@
       <c r="D7" s="18">
         <v>125</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="18">
+        <v>125</v>
+      </c>
       <c r="F7" s="18">
         <v>120</v>
       </c>
@@ -921,7 +1011,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -934,7 +1024,9 @@
       <c r="D8" s="18">
         <v>30</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="18">
+        <v>66</v>
+      </c>
       <c r="F8" s="18">
         <v>40</v>
       </c>
@@ -954,7 +1046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -966,9 +1058,12 @@
         <v>23</v>
       </c>
       <c r="D9" s="18">
-        <v>10</v>
-      </c>
-      <c r="E9" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="E9" s="18">
+        <f>20+40</f>
+        <v>60</v>
+      </c>
       <c r="F9" s="18">
         <v>10</v>
       </c>
@@ -988,7 +1083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1096,9 @@
       <c r="D10" s="18">
         <v>100</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="18">
+        <v>100</v>
+      </c>
       <c r="F10" s="18">
         <v>0</v>
       </c>
@@ -1021,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1131,9 @@
       <c r="D11" s="18">
         <v>100</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="18">
+        <v>100</v>
+      </c>
       <c r="F11" s="18">
         <v>0</v>
       </c>
@@ -1054,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>12</v>
       </c>
@@ -1068,7 +1167,9 @@
       <c r="D12" s="22">
         <v>150</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="22">
+        <v>150</v>
+      </c>
       <c r="F12" s="22">
         <v>150</v>
       </c>
@@ -1088,7 +1189,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1203,9 @@
       <c r="D13" s="22">
         <v>0</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
       <c r="F13" s="22">
         <v>54</v>
       </c>
@@ -1122,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>26</v>
       </c>
@@ -1135,7 +1238,9 @@
       <c r="D14" s="22">
         <v>150</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="22">
+        <v>150</v>
+      </c>
       <c r="F14" s="22">
         <v>0</v>
       </c>
@@ -1155,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>29</v>
       </c>
@@ -1188,7 +1293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>39</v>
       </c>
@@ -1196,12 +1301,14 @@
         <v>0</v>
       </c>
       <c r="C16" s="22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D16" s="22">
-        <v>25</v>
-      </c>
-      <c r="E16" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
       <c r="F16" s="22">
         <v>0</v>
       </c>
@@ -1221,7 +1328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
@@ -1234,7 +1341,9 @@
       <c r="D17" s="18">
         <v>86</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="18">
+        <v>86</v>
+      </c>
       <c r="F17" s="18">
         <v>40</v>
       </c>
@@ -1254,7 +1363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1267,7 +1376,9 @@
       <c r="D18" s="18">
         <v>38</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="18">
+        <v>38</v>
+      </c>
       <c r="F18" s="18">
         <v>40</v>
       </c>
@@ -1287,7 +1398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1412,9 @@
       <c r="D19" s="18">
         <v>0</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
       <c r="F19" s="18">
         <v>0</v>
       </c>
@@ -1321,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1334,7 +1447,9 @@
       <c r="D20" s="18">
         <v>0</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
       <c r="F20" s="18">
         <v>0</v>
       </c>
@@ -1354,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1365,9 +1480,11 @@
         <v>7</v>
       </c>
       <c r="D21" s="18">
-        <v>7</v>
-      </c>
-      <c r="E21" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
       <c r="F21" s="18">
         <v>7</v>
       </c>
@@ -1387,7 +1504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -1400,7 +1517,9 @@
       <c r="D22" s="18">
         <v>0</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
       <c r="F22" s="18">
         <v>0</v>
       </c>
@@ -1420,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>35</v>
       </c>
@@ -1435,7 +1554,9 @@
       <c r="D23" s="22">
         <v>22</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="22">
+        <v>22</v>
+      </c>
       <c r="F23" s="22">
         <v>30</v>
       </c>
@@ -1455,7 +1576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>32</v>
       </c>
@@ -1470,7 +1591,9 @@
         <f>310+41</f>
         <v>351</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="22">
+        <v>351</v>
+      </c>
       <c r="F24" s="22">
         <f>310</f>
         <v>310</v>
@@ -1491,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
@@ -1504,7 +1627,9 @@
       <c r="D25" s="22">
         <v>0</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="22">
+        <v>0</v>
+      </c>
       <c r="F25" s="22">
         <v>200</v>
       </c>
@@ -1524,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -1537,7 +1662,9 @@
       <c r="D26" s="18">
         <v>0</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
       <c r="F26" s="18">
         <v>0</v>
       </c>
@@ -1557,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1570,7 +1697,9 @@
       <c r="D27" s="18">
         <v>7</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
       <c r="F27" s="18">
         <v>7</v>
       </c>
@@ -1590,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -1639,7 +1768,9 @@
         <f>75+200</f>
         <v>275</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="18">
+        <v>275</v>
+      </c>
       <c r="F29" s="18">
         <v>0</v>
       </c>
@@ -1659,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -1669,39 +1800,42 @@
       </c>
       <c r="C30" s="19">
         <f>SUM(C2:C29)</f>
-        <v>2338</v>
+        <v>2363</v>
       </c>
       <c r="D30" s="19">
         <f>SUM(D2:D29)</f>
-        <v>4411</v>
-      </c>
-      <c r="E30" s="19"/>
+        <v>4379</v>
+      </c>
+      <c r="E30" s="19">
+        <f>SUM(E2:E29)</f>
+        <v>1699</v>
+      </c>
       <c r="F30" s="19">
-        <f>SUM(F2:F29)</f>
+        <f t="shared" ref="F30:K30" si="0">SUM(F2:F29)</f>
         <v>4323</v>
       </c>
       <c r="G30" s="19">
-        <f>SUM(G2:G29)</f>
+        <f t="shared" si="0"/>
         <v>2309</v>
       </c>
       <c r="H30" s="19">
-        <f>SUM(H2:H29)</f>
+        <f t="shared" si="0"/>
         <v>4349</v>
       </c>
       <c r="I30" s="19">
-        <f>SUM(I2:I29)</f>
+        <f t="shared" si="0"/>
         <v>2309</v>
       </c>
       <c r="J30" s="19">
-        <f>SUM(J2:J29)</f>
+        <f t="shared" si="0"/>
         <v>2309</v>
       </c>
       <c r="K30" s="19">
-        <f>SUM(K2:K29)</f>
+        <f t="shared" si="0"/>
         <v>4349</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -1743,7 +1877,7 @@
         <v>4358.4033333333336</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -1752,36 +1886,36 @@
         <v>6.75</v>
       </c>
       <c r="C32" s="19">
-        <f t="shared" ref="C32:G32" si="0">(C31-C30)</f>
-        <v>20.403333333333194</v>
+        <f t="shared" ref="C32:G32" si="1">(C31-C30)</f>
+        <v>-4.5966666666668061</v>
       </c>
       <c r="D32" s="19">
-        <f t="shared" si="0"/>
-        <v>-52.596666666666351</v>
+        <f t="shared" si="1"/>
+        <v>-20.596666666666351</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.403333333333649</v>
       </c>
       <c r="G32" s="19">
-        <f t="shared" si="0"/>
-        <v>49.403333333333194</v>
-      </c>
-      <c r="H32" s="19">
-        <f t="shared" ref="H32:J32" si="1">(H31-H30)</f>
-        <v>9.4033333333336486</v>
-      </c>
-      <c r="I32" s="19">
         <f t="shared" si="1"/>
         <v>49.403333333333194</v>
       </c>
+      <c r="H32" s="19">
+        <f t="shared" ref="H32:J32" si="2">(H31-H30)</f>
+        <v>9.4033333333336486</v>
+      </c>
+      <c r="I32" s="19">
+        <f t="shared" si="2"/>
+        <v>49.403333333333194</v>
+      </c>
       <c r="J32" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49.403333333333194</v>
       </c>
       <c r="K32" s="19">
-        <f t="shared" ref="K32" si="2">(K31-K30)</f>
+        <f t="shared" ref="K32" si="3">(K31-K30)</f>
         <v>9.4033333333336486</v>
       </c>
     </row>
@@ -1793,44 +1927,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="24">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="25">
         <v>2018</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="D1" s="24">
+      <c r="B1" s="25"/>
+      <c r="D1" s="25">
         <v>2019</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="I1" s="24">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="25">
         <v>2020</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="N1" s="24">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="N1" s="25">
         <v>2021</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -1876,7 +2010,7 @@
       </c>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43132</v>
       </c>
@@ -1922,7 +2056,7 @@
       </c>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43160</v>
       </c>
@@ -1968,7 +2102,7 @@
       </c>
       <c r="R4" s="14"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43191</v>
       </c>
@@ -2014,7 +2148,7 @@
       </c>
       <c r="R5" s="14"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43221</v>
       </c>
@@ -2060,7 +2194,7 @@
       </c>
       <c r="R6" s="14"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43252</v>
       </c>
@@ -2074,7 +2208,7 @@
         <v>1000</v>
       </c>
       <c r="F7" s="9">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
@@ -2105,7 +2239,7 @@
       </c>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43282</v>
       </c>
@@ -2116,13 +2250,13 @@
       <c r="D8" s="5">
         <v>43617</v>
       </c>
-      <c r="E8" s="6">
-        <v>2050</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="E8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="9">
+        <v>600</v>
+      </c>
+      <c r="G8" s="9">
         <v>400</v>
       </c>
       <c r="I8" s="5">
@@ -2151,7 +2285,7 @@
       </c>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43313</v>
       </c>
@@ -2197,7 +2331,7 @@
       </c>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43344</v>
       </c>
@@ -2243,7 +2377,7 @@
       </c>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43374</v>
       </c>
@@ -2289,7 +2423,7 @@
       </c>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43405</v>
       </c>
@@ -2335,7 +2469,7 @@
       </c>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43435</v>
       </c>
@@ -2381,7 +2515,7 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -2428,15 +2562,15 @@
       </c>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="6"/>
       <c r="E15" s="10">
         <f>SUM(E3:E14)</f>
-        <v>21450</v>
+        <v>21400</v>
       </c>
       <c r="F15" s="10">
         <f>SUM(F3:F14)</f>
-        <v>5350</v>
+        <v>5500</v>
       </c>
       <c r="G15" s="10">
         <f>SUM(G3:G14)</f>
@@ -2468,12 +2602,12 @@
       </c>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="10">
         <f>E15+F15+G15</f>
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="G16" s="15"/>
       <c r="J16" s="13"/>
@@ -2490,28 +2624,28 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="6">
-        <f>B14+SUM(E3:G7)</f>
-        <v>42950</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <f>B14+SUM(E3:G8)</f>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="C21" t="s">
         <v>40</v>
@@ -2530,10 +2664,10 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="C22">
-        <v>2050</v>
+        <v>2000</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2542,7 +2676,7 @@
         <v>400</v>
       </c>
       <c r="F22">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G22">
         <v>100</v>
@@ -2550,12 +2684,12 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>

--- a/My_Budget.xlsx
+++ b/My_Budget.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wafic/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wfahme\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB6C9D5-00C6-9D40-9A50-E60EBA82BD9C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10725"/>
   </bookViews>
   <sheets>
     <sheet name="EXPENSE" sheetId="1" r:id="rId1"/>
     <sheet name="APARTMENT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Wafic Fahme</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{0A324835-3D0A-464C-8645-7A923D0E7E93}">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mom Travel
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,12 +157,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="E30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Kamal Audit
+Amazon Prime Video</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>April</t>
   </si>
@@ -260,12 +309,6 @@
     <t>Car Tax</t>
   </si>
   <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>UD last</t>
-  </si>
-  <si>
     <t>Gym &amp; Equipment</t>
   </si>
   <si>
@@ -275,9 +318,6 @@
     <t>September</t>
   </si>
   <si>
-    <t>Grace old</t>
-  </si>
-  <si>
     <t>October</t>
   </si>
   <si>
@@ -285,13 +325,19 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>Home appliances</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +391,32 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -422,10 +494,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,11 +544,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -753,24 +833,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="4" width="12.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="12.33203125" customWidth="1"/>
+    <col min="2" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -781,27 +861,26 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="F1" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="J1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -814,27 +893,26 @@
       <c r="D2" s="22">
         <v>2000</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="22">
+        <v>2500</v>
+      </c>
       <c r="F2" s="22">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="G2" s="22">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="H2" s="22">
+        <v>1500</v>
+      </c>
+      <c r="I2" s="22">
+        <v>1500</v>
+      </c>
+      <c r="J2" s="22">
         <v>3000</v>
       </c>
-      <c r="I2" s="22">
-        <v>1500</v>
-      </c>
-      <c r="J2" s="22">
-        <v>1500</v>
-      </c>
-      <c r="K2" s="22">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>38</v>
       </c>
@@ -847,27 +925,26 @@
       <c r="D3" s="22">
         <v>700</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="22">
+        <v>600</v>
+      </c>
       <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
         <v>600</v>
       </c>
-      <c r="G3" s="22">
+      <c r="H3" s="22">
         <v>150</v>
-      </c>
-      <c r="H3" s="22">
-        <v>600</v>
       </c>
       <c r="I3" s="22">
         <v>150</v>
       </c>
       <c r="J3" s="22">
-        <v>150</v>
-      </c>
-      <c r="K3" s="22">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -898,12 +975,9 @@
       <c r="J4" s="18">
         <v>31</v>
       </c>
-      <c r="K4" s="18">
-        <v>31</v>
-      </c>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -934,11 +1008,8 @@
       <c r="J5" s="18">
         <v>25</v>
       </c>
-      <c r="K5" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -953,13 +1024,14 @@
         <v>120</v>
       </c>
       <c r="E6" s="18">
-        <v>120</v>
+        <f>120+7</f>
+        <v>127</v>
       </c>
       <c r="F6" s="18">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="G6" s="18">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H6" s="18">
         <v>150</v>
@@ -970,11 +1042,8 @@
       <c r="J6" s="18">
         <v>150</v>
       </c>
-      <c r="K6" s="18">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -990,10 +1059,10 @@
         <v>125</v>
       </c>
       <c r="E7" s="18">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="F7" s="18">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G7" s="18">
         <v>120</v>
@@ -1007,11 +1076,8 @@
       <c r="J7" s="18">
         <v>120</v>
       </c>
-      <c r="K7" s="18">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1021,14 +1087,14 @@
       <c r="C8" s="18">
         <v>23</v>
       </c>
-      <c r="D8" s="18">
-        <v>30</v>
-      </c>
-      <c r="E8" s="18">
-        <v>66</v>
+      <c r="D8" s="25">
+        <v>40</v>
+      </c>
+      <c r="E8" s="17">
+        <v>80</v>
       </c>
       <c r="F8" s="18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8" s="18">
         <v>40</v>
@@ -1042,11 +1108,8 @@
       <c r="J8" s="18">
         <v>40</v>
       </c>
-      <c r="K8" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1060,9 +1123,8 @@
       <c r="D9" s="18">
         <v>60</v>
       </c>
-      <c r="E9" s="18">
-        <f>20+40</f>
-        <v>60</v>
+      <c r="E9" s="17">
+        <v>10</v>
       </c>
       <c r="F9" s="18">
         <v>10</v>
@@ -1079,11 +1141,8 @@
       <c r="J9" s="18">
         <v>10</v>
       </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1094,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="18">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E10" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="18">
         <v>0</v>
@@ -1114,11 +1173,8 @@
       <c r="J10" s="18">
         <v>0</v>
       </c>
-      <c r="K10" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1128,11 +1184,12 @@
       <c r="C11" s="18">
         <v>0</v>
       </c>
-      <c r="D11" s="18">
-        <v>100</v>
+      <c r="D11" s="17">
+        <f>275000/1500</f>
+        <v>183.33333333333334</v>
       </c>
       <c r="E11" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F11" s="18">
         <v>0</v>
@@ -1149,235 +1206,221 @@
       <c r="J11" s="18">
         <v>0</v>
       </c>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>60</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B13" s="22">
         <f>180+13</f>
         <v>193</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C13" s="22">
         <v>160</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D13" s="22">
         <v>150</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E13" s="22">
+        <v>180</v>
+      </c>
+      <c r="F13" s="22">
+        <v>120</v>
+      </c>
+      <c r="G13" s="22">
         <v>150</v>
       </c>
-      <c r="F12" s="22">
+      <c r="H13" s="22">
         <v>150</v>
       </c>
-      <c r="G12" s="22">
+      <c r="I13" s="22">
         <v>150</v>
       </c>
-      <c r="H12" s="22">
+      <c r="J13" s="22">
         <v>150</v>
       </c>
-      <c r="I12" s="22">
-        <v>150</v>
-      </c>
-      <c r="J12" s="22">
-        <v>150</v>
-      </c>
-      <c r="K12" s="22">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="22">
-        <v>0</v>
-      </c>
-      <c r="C13" s="22">
+      <c r="B14" s="22">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22">
         <f>18+15</f>
         <v>33</v>
       </c>
-      <c r="D13" s="22">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
-      <c r="F13" s="22">
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
         <v>54</v>
       </c>
-      <c r="G13" s="22">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <v>0</v>
-      </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="22">
-        <v>0</v>
-      </c>
-      <c r="C14" s="22">
-        <v>0</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="B15" s="22">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="22">
         <v>150</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
         <v>150</v>
       </c>
-      <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <v>0</v>
-      </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="H15" s="22">
+        <v>100</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="22">
-        <v>0</v>
-      </c>
-      <c r="C15" s="22">
+      <c r="B16" s="22">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
         <v>6</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
         <v>6</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22">
+      <c r="F16" s="22">
         <v>6</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G16" s="22">
         <v>6</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H16" s="22">
         <v>6</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I16" s="22">
         <v>6</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J16" s="22">
         <v>6</v>
       </c>
-      <c r="K15" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="22">
-        <v>0</v>
-      </c>
-      <c r="C16" s="22">
+      <c r="B17" s="22">
+        <v>0</v>
+      </c>
+      <c r="C17" s="22">
         <v>25</v>
       </c>
-      <c r="D16" s="22">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
         <v>90</v>
       </c>
-      <c r="I16" s="22">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22">
-        <v>0</v>
-      </c>
-      <c r="K16" s="22">
+      <c r="H17" s="22">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="18">
-        <v>0</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18">
         <v>10</v>
       </c>
-      <c r="D17" s="18">
-        <v>86</v>
-      </c>
-      <c r="E17" s="18">
-        <v>86</v>
-      </c>
-      <c r="F17" s="18">
+      <c r="D18" s="18">
+        <v>93</v>
+      </c>
+      <c r="E18" s="17">
         <v>40</v>
-      </c>
-      <c r="G17" s="18">
-        <v>40</v>
-      </c>
-      <c r="H17" s="18">
-        <v>40</v>
-      </c>
-      <c r="I17" s="18">
-        <v>40</v>
-      </c>
-      <c r="J17" s="18">
-        <v>40</v>
-      </c>
-      <c r="K17" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="18">
-        <v>20</v>
-      </c>
-      <c r="D18" s="18">
-        <v>38</v>
-      </c>
-      <c r="E18" s="18">
-        <v>38</v>
       </c>
       <c r="F18" s="18">
         <v>40</v>
@@ -1394,529 +1437,523 @@
       <c r="J18" s="18">
         <v>40</v>
       </c>
-      <c r="K18" s="18">
+      <c r="N18" s="26"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="18">
+        <v>5</v>
+      </c>
+      <c r="C19" s="18">
+        <v>20</v>
+      </c>
+      <c r="D19" s="18">
+        <v>38</v>
+      </c>
+      <c r="E19" s="18">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="F19" s="18">
+        <v>20</v>
+      </c>
+      <c r="G19" s="18">
+        <v>40</v>
+      </c>
+      <c r="H19" s="18">
+        <v>40</v>
+      </c>
+      <c r="I19" s="18">
+        <v>40</v>
+      </c>
+      <c r="J19" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B20" s="18">
         <v>80</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C20" s="18">
         <f>245+65</f>
         <v>310</v>
       </c>
-      <c r="D19" s="18">
-        <v>0</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18">
-        <v>0</v>
-      </c>
-      <c r="J19" s="18">
-        <v>0</v>
-      </c>
-      <c r="K19" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>200</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
+      <c r="N20" s="27"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B21" s="18">
         <v>10</v>
       </c>
-      <c r="C20" s="18">
-        <v>0</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0</v>
-      </c>
-      <c r="J20" s="18">
-        <v>0</v>
-      </c>
-      <c r="K20" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="C21" s="18">
+        <v>0</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B22" s="18">
         <v>7</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C22" s="18">
         <v>7</v>
       </c>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="D22" s="18">
+        <v>14</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
         <v>7</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G22" s="18">
         <v>7</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H22" s="18">
         <v>7</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I22" s="18">
         <v>7</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J22" s="18">
         <v>7</v>
       </c>
-      <c r="K21" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B23" s="18">
         <v>150</v>
       </c>
-      <c r="C22" s="18">
-        <v>0</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0</v>
-      </c>
-      <c r="J22" s="18">
-        <v>0</v>
-      </c>
-      <c r="K22" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="C23" s="18">
+        <v>0</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B24" s="22">
         <f>17+10+13</f>
         <v>40</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C24" s="22">
         <f>20+7+12+22+7+5</f>
         <v>73</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D24" s="22">
         <v>22</v>
       </c>
-      <c r="E23" s="22">
-        <v>22</v>
-      </c>
-      <c r="F23" s="22">
+      <c r="E24" s="22">
+        <v>64</v>
+      </c>
+      <c r="F24" s="22">
+        <v>0</v>
+      </c>
+      <c r="G24" s="22">
         <v>30</v>
       </c>
-      <c r="G23" s="22">
+      <c r="H24" s="22">
         <v>30</v>
       </c>
-      <c r="H23" s="22">
+      <c r="I24" s="22">
         <v>30</v>
       </c>
-      <c r="I23" s="22">
+      <c r="J24" s="22">
         <v>30</v>
       </c>
-      <c r="J23" s="22">
-        <v>30</v>
-      </c>
-      <c r="K23" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="22">
-        <v>0</v>
-      </c>
-      <c r="C24" s="22">
+      <c r="B25" s="22">
+        <v>0</v>
+      </c>
+      <c r="C25" s="22">
         <f>720/2</f>
         <v>360</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D25" s="22">
         <f>310+41</f>
         <v>351</v>
       </c>
-      <c r="E24" s="22">
-        <v>351</v>
-      </c>
-      <c r="F24" s="22">
+      <c r="E25" s="22">
         <f>310</f>
         <v>310</v>
       </c>
-      <c r="G24" s="22">
-        <v>0</v>
-      </c>
-      <c r="H24" s="22">
-        <v>0</v>
-      </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
-      <c r="J24" s="22">
-        <v>0</v>
-      </c>
-      <c r="K24" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="F25" s="22">
+        <v>26</v>
+      </c>
+      <c r="G25" s="22">
+        <v>0</v>
+      </c>
+      <c r="H25" s="22">
+        <v>0</v>
+      </c>
+      <c r="I25" s="22">
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="22">
-        <v>0</v>
-      </c>
-      <c r="C25" s="22">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22">
-        <v>0</v>
-      </c>
-      <c r="E25" s="22">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22">
+      <c r="B26" s="22">
+        <v>0</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="22">
         <v>200</v>
       </c>
-      <c r="G25" s="22">
-        <v>0</v>
-      </c>
-      <c r="H25" s="22">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22">
-        <v>0</v>
-      </c>
-      <c r="J25" s="22">
-        <v>0</v>
-      </c>
-      <c r="K25" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="F26" s="22">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22">
+        <v>0</v>
+      </c>
+      <c r="H26" s="22">
+        <v>0</v>
+      </c>
+      <c r="I26" s="22">
+        <v>0</v>
+      </c>
+      <c r="J26" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B27" s="18">
         <v>15</v>
       </c>
-      <c r="C26" s="18">
-        <v>0</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0</v>
-      </c>
-      <c r="E26" s="18">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>0</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0</v>
-      </c>
-      <c r="I26" s="18">
-        <v>0</v>
-      </c>
-      <c r="J26" s="18">
-        <v>0</v>
-      </c>
-      <c r="K26" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B28" s="18">
         <v>7</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C28" s="18">
         <v>12</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D28" s="18">
         <v>7</v>
       </c>
-      <c r="E27" s="18">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="E28" s="18">
         <v>7</v>
       </c>
-      <c r="G27" s="18">
+      <c r="F28" s="18">
         <v>7</v>
       </c>
-      <c r="H27" s="18">
+      <c r="G28" s="18">
         <v>7</v>
       </c>
-      <c r="I27" s="18">
+      <c r="H28" s="18">
         <v>7</v>
       </c>
-      <c r="J27" s="18">
+      <c r="I28" s="18">
         <v>7</v>
       </c>
-      <c r="K27" s="18">
+      <c r="J28" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B29" s="18">
         <f>22+3+3+7</f>
         <v>35</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C29" s="18">
         <v>3</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D29" s="18">
         <v>3</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18">
+      <c r="E29" s="18">
         <v>3</v>
       </c>
-      <c r="G28" s="18">
+      <c r="F29" s="18">
         <v>3</v>
       </c>
-      <c r="H28" s="18">
+      <c r="G29" s="18">
         <v>3</v>
       </c>
-      <c r="I28" s="18">
+      <c r="H29" s="18">
         <v>3</v>
       </c>
-      <c r="J28" s="18">
+      <c r="I29" s="18">
         <v>3</v>
       </c>
-      <c r="K28" s="18">
+      <c r="J29" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B30" s="18">
         <f>23+10</f>
         <v>33</v>
       </c>
-      <c r="C29" s="18">
-        <v>0</v>
-      </c>
-      <c r="D29" s="18">
-        <f>75+200</f>
-        <v>275</v>
-      </c>
-      <c r="E29" s="18">
-        <v>275</v>
-      </c>
-      <c r="F29" s="18">
-        <v>0</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0</v>
-      </c>
-      <c r="H29" s="18">
-        <v>0</v>
-      </c>
-      <c r="I29" s="18">
-        <v>0</v>
-      </c>
-      <c r="J29" s="18">
-        <v>0</v>
-      </c>
-      <c r="K29" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="C30" s="18">
+        <v>0</v>
+      </c>
+      <c r="D30" s="17">
+        <f>75+100</f>
+        <v>175</v>
+      </c>
+      <c r="E30" s="17">
+        <f>100+3</f>
+        <v>103</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="19">
-        <f>SUM(B2:B29)</f>
+      <c r="B31" s="19">
+        <f>SUM(B2:B30)</f>
         <v>2354</v>
       </c>
-      <c r="C30" s="19">
-        <f>SUM(C2:C29)</f>
+      <c r="C31" s="19">
+        <f>SUM(C2:C30)</f>
         <v>2363</v>
       </c>
-      <c r="D30" s="19">
-        <f>SUM(D2:D29)</f>
-        <v>4379</v>
-      </c>
-      <c r="E30" s="19">
-        <f>SUM(E2:E29)</f>
-        <v>1699</v>
-      </c>
-      <c r="F30" s="19">
-        <f t="shared" ref="F30:K30" si="0">SUM(F2:F29)</f>
-        <v>4323</v>
-      </c>
-      <c r="G30" s="19">
+      <c r="D31" s="19">
+        <f>SUM(D2:D30)</f>
+        <v>4438.3333333333339</v>
+      </c>
+      <c r="E31" s="19">
+        <f t="shared" ref="E31:J31" si="0">SUM(E2:E30)</f>
+        <v>4606</v>
+      </c>
+      <c r="F31" s="19">
+        <f>SUM(F2:F30)</f>
+        <v>2282</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" si="0"/>
+        <v>4479</v>
+      </c>
+      <c r="H31" s="19">
+        <f t="shared" si="0"/>
+        <v>2409</v>
+      </c>
+      <c r="I31" s="19">
         <f t="shared" si="0"/>
         <v>2309</v>
       </c>
-      <c r="H30" s="19">
+      <c r="J31" s="19">
         <f t="shared" si="0"/>
-        <v>4349</v>
-      </c>
-      <c r="I30" s="19">
-        <f t="shared" si="0"/>
-        <v>2309</v>
-      </c>
-      <c r="J30" s="19">
-        <f t="shared" si="0"/>
-        <v>2309</v>
-      </c>
-      <c r="K30" s="19">
-        <f t="shared" si="0"/>
-        <v>4349</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B32" s="19">
         <f>3541125/1500</f>
         <v>2360.75</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C32" s="19">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="D31" s="19">
-        <f>6537605/1500</f>
-        <v>4358.4033333333336</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19">
-        <f>6537605/1500</f>
-        <v>4358.4033333333336</v>
-      </c>
-      <c r="G31" s="19">
+      <c r="D32" s="19">
+        <f>2352+2100</f>
+        <v>4452</v>
+      </c>
+      <c r="E32" s="19">
+        <v>4622</v>
+      </c>
+      <c r="F32" s="19">
+        <f>3437605/1500</f>
+        <v>2291.7366666666667</v>
+      </c>
+      <c r="G32" s="19">
+        <f>2352+2100</f>
+        <v>4452</v>
+      </c>
+      <c r="H32" s="19">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="H31" s="19">
-        <f>6537605/1500</f>
-        <v>4358.4033333333336</v>
-      </c>
-      <c r="I31" s="19">
+      <c r="I32" s="19">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="J31" s="19">
-        <f>3537605/1500</f>
-        <v>2358.4033333333332</v>
-      </c>
-      <c r="K31" s="19">
-        <f>6537605/1500</f>
-        <v>4358.4033333333336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="J32" s="19">
+        <f>2352+2100</f>
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="19">
-        <f>(B31-B30)</f>
+      <c r="B33" s="19">
+        <f>(B32-B31)</f>
         <v>6.75</v>
       </c>
-      <c r="C32" s="19">
-        <f t="shared" ref="C32:G32" si="1">(C31-C30)</f>
+      <c r="C33" s="19">
+        <f t="shared" ref="C33:F33" si="1">(C32-C31)</f>
         <v>-4.5966666666668061</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D33" s="19">
         <f t="shared" si="1"/>
-        <v>-20.596666666666351</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19">
+        <v>13.66666666666606</v>
+      </c>
+      <c r="E33" s="19">
         <f t="shared" si="1"/>
-        <v>35.403333333333649</v>
-      </c>
-      <c r="G32" s="19">
+        <v>16</v>
+      </c>
+      <c r="F33" s="19">
         <f t="shared" si="1"/>
-        <v>49.403333333333194</v>
-      </c>
-      <c r="H32" s="19">
-        <f t="shared" ref="H32:J32" si="2">(H31-H30)</f>
-        <v>9.4033333333336486</v>
-      </c>
-      <c r="I32" s="19">
+        <v>9.7366666666666788</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" ref="G33:I33" si="2">(G32-G31)</f>
+        <v>-27</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="2"/>
+        <v>-50.596666666666806</v>
+      </c>
+      <c r="I33" s="19">
         <f t="shared" si="2"/>
         <v>49.403333333333194</v>
       </c>
-      <c r="J32" s="19">
-        <f t="shared" si="2"/>
-        <v>49.403333333333194</v>
-      </c>
-      <c r="K32" s="19">
-        <f t="shared" ref="K32" si="3">(K31-K30)</f>
-        <v>9.4033333333336486</v>
+      <c r="J33" s="19">
+        <f t="shared" ref="J33" si="3">(J32-J31)</f>
+        <v>-55</v>
       </c>
     </row>
   </sheetData>
@@ -1927,44 +1964,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="29">
         <v>2018</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="D1" s="25">
+      <c r="B1" s="29"/>
+      <c r="D1" s="29">
         <v>2019</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="I1" s="25">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="I1" s="29">
         <v>2020</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="N1" s="25">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="N1" s="29">
         <v>2021</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -2010,7 +2047,7 @@
       </c>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43132</v>
       </c>
@@ -2056,7 +2093,7 @@
       </c>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43160</v>
       </c>
@@ -2102,7 +2139,7 @@
       </c>
       <c r="R4" s="14"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43191</v>
       </c>
@@ -2126,7 +2163,7 @@
         <v>43891</v>
       </c>
       <c r="J5" s="6">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="K5" s="6">
         <v>500</v>
@@ -2148,7 +2185,7 @@
       </c>
       <c r="R5" s="14"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43221</v>
       </c>
@@ -2194,7 +2231,7 @@
       </c>
       <c r="R6" s="14"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43252</v>
       </c>
@@ -2239,7 +2276,7 @@
       </c>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43282</v>
       </c>
@@ -2254,7 +2291,7 @@
         <v>2000</v>
       </c>
       <c r="F8" s="9">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G8" s="9">
         <v>400</v>
@@ -2263,7 +2300,7 @@
         <v>43983</v>
       </c>
       <c r="J8" s="6">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="K8" s="6">
         <v>500</v>
@@ -2285,7 +2322,7 @@
       </c>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43313</v>
       </c>
@@ -2296,14 +2333,14 @@
       <c r="D9" s="5">
         <v>43647</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <v>2500</v>
       </c>
-      <c r="F9" s="6">
-        <v>800</v>
-      </c>
-      <c r="G9" s="6">
-        <v>400</v>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>100</v>
       </c>
       <c r="I9" s="5">
         <v>44013</v>
@@ -2331,7 +2368,7 @@
       </c>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43344</v>
       </c>
@@ -2345,8 +2382,8 @@
       <c r="E10" s="6">
         <v>1500</v>
       </c>
-      <c r="F10" s="6">
-        <v>700</v>
+      <c r="F10" s="28">
+        <v>0</v>
       </c>
       <c r="G10" s="6">
         <v>500</v>
@@ -2377,7 +2414,7 @@
       </c>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43374</v>
       </c>
@@ -2391,8 +2428,9 @@
       <c r="E11" s="6">
         <v>3000</v>
       </c>
-      <c r="F11" s="6">
-        <v>700</v>
+      <c r="F11" s="28">
+        <f>550+300+500</f>
+        <v>1350</v>
       </c>
       <c r="G11" s="6">
         <v>400</v>
@@ -2401,7 +2439,7 @@
         <v>44075</v>
       </c>
       <c r="J11" s="6">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="K11" s="6">
         <v>500</v>
@@ -2423,7 +2461,7 @@
       </c>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43405</v>
       </c>
@@ -2437,8 +2475,8 @@
       <c r="E12" s="6">
         <v>1500</v>
       </c>
-      <c r="F12" s="6">
-        <v>700</v>
+      <c r="F12" s="28">
+        <v>500</v>
       </c>
       <c r="G12" s="6">
         <v>500</v>
@@ -2469,7 +2507,7 @@
       </c>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43435</v>
       </c>
@@ -2483,8 +2521,8 @@
       <c r="E13" s="6">
         <v>1500</v>
       </c>
-      <c r="F13" s="6">
-        <v>700</v>
+      <c r="F13" s="28">
+        <v>500</v>
       </c>
       <c r="G13" s="6">
         <v>400</v>
@@ -2515,7 +2553,7 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -2530,8 +2568,8 @@
       <c r="E14" s="6">
         <v>2500</v>
       </c>
-      <c r="F14" s="6">
-        <v>700</v>
+      <c r="F14" s="28">
+        <v>500</v>
       </c>
       <c r="G14" s="6">
         <v>400</v>
@@ -2540,7 +2578,7 @@
         <v>44166</v>
       </c>
       <c r="J14" s="6">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="K14" s="6">
         <v>500</v>
@@ -2562,7 +2600,7 @@
       </c>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
       <c r="E15" s="10">
         <f>SUM(E3:E14)</f>
@@ -2570,15 +2608,15 @@
       </c>
       <c r="F15" s="10">
         <f>SUM(F3:F14)</f>
-        <v>5500</v>
+        <v>3950</v>
       </c>
       <c r="G15" s="10">
         <f>SUM(G3:G14)</f>
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="J15" s="10">
         <f>SUM(J3:J14)</f>
-        <v>20800</v>
+        <v>22000</v>
       </c>
       <c r="K15" s="10">
         <f>SUM(K3:K14)</f>
@@ -2602,18 +2640,18 @@
       </c>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="10">
         <f>E15+F15+G15</f>
-        <v>29900</v>
+        <v>28050</v>
       </c>
       <c r="G16" s="15"/>
       <c r="J16" s="13"/>
       <c r="K16" s="10">
         <f>J15+K15+L15</f>
-        <v>31600</v>
+        <v>32800</v>
       </c>
       <c r="L16" s="15"/>
       <c r="O16" s="13"/>
@@ -2624,72 +2662,42 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="6">
-        <f>B14+SUM(E3:G8)</f>
-        <v>45500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <f>B14+SUM(E3:G9)</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="C22">
-        <v>2000</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>400</v>
-      </c>
-      <c r="F22">
-        <v>500</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>

--- a/My_Budget.xlsx
+++ b/My_Budget.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EXPENSE" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>April</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Home appliances</t>
+  </si>
+  <si>
+    <t>Parent Support</t>
   </si>
 </sst>
 </file>
@@ -835,10 +838,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,10 +894,12 @@
         <v>1000</v>
       </c>
       <c r="D2" s="22">
-        <v>2000</v>
+        <f>2000+700</f>
+        <v>2700</v>
       </c>
       <c r="E2" s="22">
-        <v>2500</v>
+        <f>2500+600</f>
+        <v>3100</v>
       </c>
       <c r="F2" s="22">
         <v>1500</v>
@@ -923,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="22">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E3" s="22">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F3" s="22">
         <v>0</v>
@@ -1028,10 +1033,10 @@
         <v>127</v>
       </c>
       <c r="F6" s="18">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G6" s="18">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H6" s="18">
         <v>150</v>
@@ -1065,7 +1070,7 @@
         <v>112</v>
       </c>
       <c r="G7" s="18">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H7" s="18">
         <v>120</v>
@@ -1091,10 +1096,10 @@
         <v>40</v>
       </c>
       <c r="E8" s="17">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F8" s="18">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G8" s="18">
         <v>40</v>
@@ -1258,7 +1263,7 @@
         <v>180</v>
       </c>
       <c r="F13" s="22">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G13" s="22">
         <v>150</v>
@@ -1456,7 +1461,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="18">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G19" s="18">
         <v>40</v>
@@ -1489,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G20" s="18">
         <v>0</v>
@@ -1655,7 +1660,7 @@
         <v>310</v>
       </c>
       <c r="F25" s="22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" s="22">
         <v>0</v>
@@ -1835,124 +1840,138 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="19">
-        <f>SUM(B2:B30)</f>
+      <c r="B32" s="19">
+        <f>SUM(B2:B31)</f>
         <v>2354</v>
       </c>
-      <c r="C31" s="19">
-        <f>SUM(C2:C30)</f>
+      <c r="C32" s="19">
+        <f t="shared" ref="C32:J32" si="0">SUM(C2:C31)</f>
         <v>2363</v>
       </c>
-      <c r="D31" s="19">
-        <f>SUM(D2:D30)</f>
+      <c r="D32" s="19">
+        <f t="shared" si="0"/>
         <v>4438.3333333333339</v>
       </c>
-      <c r="E31" s="19">
-        <f t="shared" ref="E31:J31" si="0">SUM(E2:E30)</f>
-        <v>4606</v>
-      </c>
-      <c r="F31" s="19">
-        <f>SUM(F2:F30)</f>
-        <v>2282</v>
-      </c>
-      <c r="G31" s="19">
+      <c r="E32" s="19">
         <f t="shared" si="0"/>
-        <v>4479</v>
-      </c>
-      <c r="H31" s="19">
+        <v>4611</v>
+      </c>
+      <c r="F32" s="19">
+        <f t="shared" si="0"/>
+        <v>2295</v>
+      </c>
+      <c r="G32" s="19">
+        <f t="shared" si="0"/>
+        <v>4449</v>
+      </c>
+      <c r="H32" s="19">
         <f t="shared" si="0"/>
         <v>2409</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I32" s="19">
         <f t="shared" si="0"/>
         <v>2309</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J32" s="19">
         <f t="shared" si="0"/>
         <v>4507</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B33" s="19">
         <f>3541125/1500</f>
         <v>2360.75</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C33" s="19">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D33" s="19">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E33" s="19">
         <v>4622</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F33" s="19">
         <f>3437605/1500</f>
         <v>2291.7366666666667</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G33" s="19">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H33" s="19">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I33" s="19">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J33" s="19">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="19">
-        <f>(B32-B31)</f>
+      <c r="B34" s="19">
+        <f>(B33-B32)</f>
         <v>6.75</v>
       </c>
-      <c r="C33" s="19">
-        <f t="shared" ref="C33:F33" si="1">(C32-C31)</f>
+      <c r="C34" s="19">
+        <f t="shared" ref="C34:F34" si="1">(C33-C32)</f>
         <v>-4.5966666666668061</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D34" s="19">
         <f t="shared" si="1"/>
         <v>13.66666666666606</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E34" s="19">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F33" s="19">
+        <v>11</v>
+      </c>
+      <c r="F34" s="19">
         <f t="shared" si="1"/>
-        <v>9.7366666666666788</v>
-      </c>
-      <c r="G33" s="19">
-        <f t="shared" ref="G33:I33" si="2">(G32-G31)</f>
-        <v>-27</v>
-      </c>
-      <c r="H33" s="19">
+        <v>-3.2633333333333212</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" ref="G34:I34" si="2">(G33-G32)</f>
+        <v>3</v>
+      </c>
+      <c r="H34" s="19">
         <f t="shared" si="2"/>
         <v>-50.596666666666806</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I34" s="19">
         <f t="shared" si="2"/>
         <v>49.403333333333194</v>
       </c>
-      <c r="J33" s="19">
-        <f t="shared" ref="J33" si="3">(J32-J31)</f>
+      <c r="J34" s="19">
+        <f t="shared" ref="J34" si="3">(J33-J32)</f>
         <v>-55</v>
       </c>
     </row>
@@ -1968,8 +1987,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,7 +2353,7 @@
         <v>43647</v>
       </c>
       <c r="E9" s="9">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
@@ -2379,14 +2398,14 @@
       <c r="D10" s="5">
         <v>43678</v>
       </c>
-      <c r="E10" s="6">
-        <v>1500</v>
-      </c>
-      <c r="F10" s="28">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>500</v>
+      <c r="E10" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>400</v>
       </c>
       <c r="I10" s="5">
         <v>44044</v>
@@ -2479,7 +2498,7 @@
         <v>500</v>
       </c>
       <c r="G12" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I12" s="5">
         <v>44105</v>
@@ -2604,7 +2623,7 @@
       <c r="C15" s="6"/>
       <c r="E15" s="10">
         <f>SUM(E3:E14)</f>
-        <v>21400</v>
+        <v>22650</v>
       </c>
       <c r="F15" s="10">
         <f>SUM(F3:F14)</f>
@@ -2612,7 +2631,7 @@
       </c>
       <c r="G15" s="10">
         <f>SUM(G3:G14)</f>
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="J15" s="10">
         <f>SUM(J3:J14)</f>
@@ -2645,7 +2664,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="10">
         <f>E15+F15+G15</f>
-        <v>28050</v>
+        <v>29100</v>
       </c>
       <c r="G16" s="15"/>
       <c r="J16" s="13"/>
@@ -2675,12 +2694,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="6">
-        <f>B14+SUM(E3:G9)</f>
-        <v>48000</v>
+        <f>B14+SUM(E3:G10)</f>
+        <v>51150</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
+      <c r="B20" s="6">
+        <f>195000-B19</f>
+        <v>143850</v>
+      </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">

--- a/My_Budget.xlsx
+++ b/My_Budget.xlsx
@@ -60,31 +60,6 @@
             <family val="2"/>
           </rPr>
           <t>2 months + water pipe</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Wafic Fahme:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Mom Travel
-</t>
         </r>
       </text>
     </comment>
@@ -340,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,19 +382,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -841,7 +803,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +864,7 @@
         <v>3100</v>
       </c>
       <c r="F2" s="22">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="G2" s="22">
         <v>3000</v>
@@ -1494,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G20" s="18">
         <v>0</v>
@@ -1988,7 +1950,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,7 +2361,7 @@
         <v>43678</v>
       </c>
       <c r="E10" s="9">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -2623,7 +2585,7 @@
       <c r="C15" s="6"/>
       <c r="E15" s="10">
         <f>SUM(E3:E14)</f>
-        <v>22650</v>
+        <v>22800</v>
       </c>
       <c r="F15" s="10">
         <f>SUM(F3:F14)</f>
@@ -2664,7 +2626,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="10">
         <f>E15+F15+G15</f>
-        <v>29100</v>
+        <v>29250</v>
       </c>
       <c r="G16" s="15"/>
       <c r="J16" s="13"/>
@@ -2695,14 +2657,14 @@
       </c>
       <c r="B19" s="6">
         <f>B14+SUM(E3:G10)</f>
-        <v>51150</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="6">
         <f>195000-B19</f>
-        <v>143850</v>
+        <v>143700</v>
       </c>
       <c r="I20" s="6"/>
     </row>

--- a/My_Budget.xlsx
+++ b/My_Budget.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wfahme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wafic/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF45A30-7387-C34B-A791-97B7571E6059}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXPENSE" sheetId="1" r:id="rId1"/>
     <sheet name="APARTMENT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Wafic Fahme</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -132,13 +133,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0">
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -147,13 +148,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Kamal Audit
-Amazon Prime Video</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Kamal Audit
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amazon Prime Video</t>
         </r>
       </text>
     </comment>
@@ -311,7 +330,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -798,24 +817,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -845,7 +864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -864,7 +883,7 @@
         <v>3100</v>
       </c>
       <c r="F2" s="22">
-        <v>1650</v>
+        <v>1600</v>
       </c>
       <c r="G2" s="22">
         <v>3000</v>
@@ -879,7 +898,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>38</v>
       </c>
@@ -911,7 +930,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -944,7 +963,7 @@
       </c>
       <c r="L4" s="24"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -976,7 +995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1010,7 +1029,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1044,7 +1063,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1109,7 +1128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1141,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1207,7 +1226,7 @@
       </c>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
@@ -1225,7 +1244,7 @@
         <v>180</v>
       </c>
       <c r="F13" s="22">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G13" s="22">
         <v>150</v>
@@ -1241,7 +1260,7 @@
       </c>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1294,7 @@
       </c>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
@@ -1307,7 +1326,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>29</v>
       </c>
@@ -1340,7 +1359,7 @@
       </c>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
@@ -1373,7 +1392,7 @@
       </c>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1406,7 +1425,7 @@
       </c>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1438,7 +1457,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1472,7 +1491,7 @@
       </c>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1504,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1536,7 +1555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1568,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>35</v>
       </c>
@@ -1602,7 +1621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>32</v>
       </c>
@@ -1637,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>37</v>
       </c>
@@ -1669,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -1701,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -1733,7 +1752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -1766,7 +1785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
@@ -1801,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>47</v>
       </c>
@@ -1815,7 +1834,7 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -1837,7 +1856,7 @@
       </c>
       <c r="F32" s="19">
         <f t="shared" si="0"/>
-        <v>2295</v>
+        <v>2275</v>
       </c>
       <c r="G32" s="19">
         <f t="shared" si="0"/>
@@ -1856,7 +1875,7 @@
         <v>4507</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
@@ -1896,7 +1915,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
@@ -1918,7 +1937,7 @@
       </c>
       <c r="F34" s="19">
         <f t="shared" si="1"/>
-        <v>-3.2633333333333212</v>
+        <v>16.736666666666679</v>
       </c>
       <c r="G34" s="19">
         <f t="shared" ref="G34:I34" si="2">(G33-G32)</f>
@@ -1945,20 +1964,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="29">
         <v>2018</v>
       </c>
@@ -1982,7 +2001,7 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -2028,7 +2047,7 @@
       </c>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43132</v>
       </c>
@@ -2074,7 +2093,7 @@
       </c>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43160</v>
       </c>
@@ -2120,7 +2139,7 @@
       </c>
       <c r="R4" s="14"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43191</v>
       </c>
@@ -2166,7 +2185,7 @@
       </c>
       <c r="R5" s="14"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43221</v>
       </c>
@@ -2212,7 +2231,7 @@
       </c>
       <c r="R6" s="14"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>43252</v>
       </c>
@@ -2257,7 +2276,7 @@
       </c>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43282</v>
       </c>
@@ -2303,7 +2322,7 @@
       </c>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>43313</v>
       </c>
@@ -2349,7 +2368,7 @@
       </c>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>43344</v>
       </c>
@@ -2361,7 +2380,7 @@
         <v>43678</v>
       </c>
       <c r="E10" s="9">
-        <v>1650</v>
+        <v>1600</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -2395,7 +2414,7 @@
       </c>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43374</v>
       </c>
@@ -2442,7 +2461,7 @@
       </c>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>43405</v>
       </c>
@@ -2488,7 +2507,7 @@
       </c>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>43435</v>
       </c>
@@ -2534,7 +2553,7 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -2581,11 +2600,11 @@
       </c>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="6"/>
       <c r="E15" s="10">
         <f>SUM(E3:E14)</f>
-        <v>22800</v>
+        <v>22750</v>
       </c>
       <c r="F15" s="10">
         <f>SUM(F3:F14)</f>
@@ -2621,12 +2640,12 @@
       </c>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="10">
         <f>E15+F15+G15</f>
-        <v>29250</v>
+        <v>29200</v>
       </c>
       <c r="G16" s="15"/>
       <c r="J16" s="13"/>
@@ -2643,46 +2662,46 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="6">
         <f>B14+SUM(E3:G10)</f>
-        <v>51300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>51250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="6">
         <f>195000-B19</f>
-        <v>143700</v>
+        <v>143750</v>
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>

--- a/My_Budget.xlsx
+++ b/My_Budget.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wafic/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wfahme\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF45A30-7387-C34B-A791-97B7571E6059}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EXPENSE" sheetId="1" r:id="rId1"/>
     <sheet name="APARTMENT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Wafic Fahme</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sami
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,13 +157,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -148,31 +172,13 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Kamal Audit
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Amazon Prime Video</t>
+Kamal Audit
+Amazon Prime Video</t>
         </r>
       </text>
     </comment>
@@ -330,9 +336,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -403,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,12 +426,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,14 +493,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -518,11 +515,11 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,6 +531,8 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,1143 +816,1146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>1400</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>1000</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <f>2000+700</f>
         <v>2700</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <f>2500+600</f>
         <v>3100</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
+        <v>1700</v>
+      </c>
+      <c r="G2" s="20">
+        <v>3300</v>
+      </c>
+      <c r="H2" s="20">
         <v>1600</v>
       </c>
-      <c r="G2" s="22">
-        <v>3000</v>
-      </c>
-      <c r="H2" s="22">
-        <v>1500</v>
-      </c>
-      <c r="I2" s="22">
-        <v>1500</v>
-      </c>
-      <c r="J2" s="22">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="I2" s="20">
+        <v>1650</v>
+      </c>
+      <c r="J2" s="20">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-      <c r="G3" s="22">
-        <v>600</v>
-      </c>
-      <c r="H3" s="22">
-        <v>150</v>
-      </c>
-      <c r="I3" s="22">
-        <v>150</v>
-      </c>
-      <c r="J3" s="22">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>30</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>31</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>31</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>31</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <v>31</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>31</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <v>31</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>31</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="16">
         <v>31</v>
       </c>
-      <c r="L4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>25</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>25</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>25</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>25</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>25</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>25</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>25</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>25</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="16">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="16">
         <f>144+23+13+12</f>
         <v>192</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>142</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>120</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <f>120+7</f>
         <v>127</v>
       </c>
-      <c r="F6" s="18">
-        <v>130</v>
-      </c>
-      <c r="G6" s="18">
-        <v>140</v>
-      </c>
-      <c r="H6" s="18">
+      <c r="F6" s="16">
+        <f>130+13</f>
+        <v>143</v>
+      </c>
+      <c r="G6" s="16">
+        <v>250</v>
+      </c>
+      <c r="H6" s="16">
         <v>150</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <v>150</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="16">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <f>30+56+13</f>
         <v>99</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <f>22+26+31+21</f>
         <v>100</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>125</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>166</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>112</v>
       </c>
-      <c r="G7" s="18">
-        <v>80</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="G7" s="16">
         <v>120</v>
       </c>
-      <c r="I7" s="18">
+      <c r="H7" s="16">
         <v>120</v>
       </c>
-      <c r="J7" s="18">
+      <c r="I7" s="16">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J7" s="16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>23</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>23</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>40</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>85</v>
       </c>
-      <c r="F8" s="18">
-        <v>85</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="F8" s="16">
+        <v>66</v>
+      </c>
+      <c r="G8" s="16">
+        <v>66</v>
+      </c>
+      <c r="H8" s="16">
         <v>40</v>
       </c>
-      <c r="H8" s="18">
+      <c r="I8" s="16">
         <v>40</v>
       </c>
-      <c r="I8" s="18">
+      <c r="J8" s="16">
         <v>40</v>
       </c>
-      <c r="J8" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="16">
         <v>10</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <f>13+10</f>
         <v>23</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>60</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>10</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>10</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>10</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <v>10</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <v>10</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="18">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18">
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
         <v>150</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="18">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
         <f>275000/1500</f>
         <v>183.33333333333334</v>
       </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="18">
-        <v>0</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="B12" s="16">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
         <v>60</v>
       </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0</v>
-      </c>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="20">
         <f>180+13</f>
         <v>193</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="20">
         <v>160</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="20">
         <v>150</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="20">
         <v>180</v>
       </c>
-      <c r="F13" s="22">
-        <v>180</v>
-      </c>
-      <c r="G13" s="22">
+      <c r="F13" s="20">
         <v>150</v>
       </c>
-      <c r="H13" s="22">
+      <c r="G13" s="20">
+        <v>320</v>
+      </c>
+      <c r="H13" s="20">
         <v>150</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="20">
         <v>150</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="20">
         <v>150</v>
       </c>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="22">
-        <v>0</v>
-      </c>
-      <c r="C14" s="22">
+      <c r="B14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
         <f>18+15</f>
         <v>33</v>
       </c>
-      <c r="D14" s="22">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
         <v>54</v>
       </c>
-      <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <v>0</v>
-      </c>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0</v>
+      </c>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="22">
-        <v>0</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="B15" s="20">
+        <v>0</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20">
         <v>150</v>
       </c>
-      <c r="E15" s="22">
-        <v>0</v>
-      </c>
-      <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22">
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
         <v>150</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="20">
         <v>100</v>
       </c>
-      <c r="I15" s="22">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
+      <c r="I15" s="20">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="22">
-        <v>0</v>
-      </c>
-      <c r="C16" s="22">
+      <c r="B16" s="20">
+        <v>0</v>
+      </c>
+      <c r="C16" s="20">
         <v>6</v>
       </c>
-      <c r="D16" s="22">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20">
         <v>6</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="20">
         <v>6</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="20">
         <v>6</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="20">
         <v>6</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="20">
         <v>6</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="20">
         <v>6</v>
       </c>
-      <c r="N16" s="26"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="22">
-        <v>0</v>
-      </c>
-      <c r="C17" s="22">
+      <c r="B17" s="20">
+        <v>0</v>
+      </c>
+      <c r="C17" s="20">
         <v>25</v>
       </c>
-      <c r="D17" s="22">
-        <v>0</v>
-      </c>
-      <c r="E17" s="22">
-        <v>0</v>
-      </c>
-      <c r="F17" s="22">
-        <v>0</v>
-      </c>
-      <c r="G17" s="22">
+      <c r="D17" s="20">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
         <v>90</v>
       </c>
-      <c r="H17" s="22">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22">
+      <c r="H17" s="20">
+        <v>0</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
         <v>90</v>
       </c>
-      <c r="N17" s="26"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="16">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
         <v>10</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="16">
         <v>93</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>40</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <v>40</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="16">
         <v>40</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="16">
         <v>40</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <v>40</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="16">
         <v>40</v>
       </c>
-      <c r="N18" s="26"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="16">
         <v>5</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>20</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>38</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>40</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <v>12</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
         <v>40</v>
       </c>
-      <c r="H19" s="18">
+      <c r="I19" s="16">
         <v>40</v>
       </c>
-      <c r="I19" s="18">
+      <c r="J19" s="16">
         <v>40</v>
       </c>
-      <c r="J19" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="16">
         <v>80</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <f>245+65</f>
         <v>310</v>
       </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0</v>
-      </c>
-      <c r="J20" s="18">
-        <v>0</v>
-      </c>
-      <c r="N20" s="27"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>66</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <v>195</v>
+      </c>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="16">
         <v>10</v>
       </c>
-      <c r="C21" s="18">
-        <v>0</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0</v>
-      </c>
-      <c r="H21" s="18">
-        <v>0</v>
-      </c>
-      <c r="I21" s="18">
-        <v>0</v>
-      </c>
-      <c r="J21" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>3</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="16">
         <v>7</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="16">
         <v>7</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="16">
         <v>14</v>
       </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
         <v>7</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="16">
         <v>7</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="16">
         <v>7</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="16">
         <v>7</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="16">
         <v>150</v>
       </c>
-      <c r="C23" s="18">
-        <v>0</v>
-      </c>
-      <c r="D23" s="18">
-        <v>0</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
-      <c r="J23" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <f>17+10+13</f>
         <v>40</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="20">
         <f>20+7+12+22+7+5</f>
         <v>73</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="20">
         <v>22</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="20">
         <v>64</v>
       </c>
-      <c r="F24" s="22">
-        <v>0</v>
-      </c>
-      <c r="G24" s="22">
+      <c r="F24" s="20">
+        <v>0</v>
+      </c>
+      <c r="G24" s="20">
         <v>30</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="20">
         <v>30</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="20">
         <v>30</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="22">
-        <v>0</v>
-      </c>
-      <c r="C25" s="22">
+      <c r="B25" s="20">
+        <v>0</v>
+      </c>
+      <c r="C25" s="20">
         <f>720/2</f>
         <v>360</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="20">
         <f>310+41</f>
         <v>351</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="20">
         <f>310</f>
         <v>310</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="20">
         <v>27</v>
       </c>
-      <c r="G25" s="22">
-        <v>0</v>
-      </c>
-      <c r="H25" s="22">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22">
-        <v>0</v>
-      </c>
-      <c r="J25" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
+      <c r="H25" s="20">
+        <v>0</v>
+      </c>
+      <c r="I25" s="20">
+        <v>0</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="22">
-        <v>0</v>
-      </c>
-      <c r="C26" s="22">
-        <v>0</v>
-      </c>
-      <c r="D26" s="22">
-        <v>0</v>
-      </c>
-      <c r="E26" s="22">
+      <c r="B26" s="20">
+        <v>0</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20">
         <v>200</v>
       </c>
-      <c r="F26" s="22">
-        <v>0</v>
-      </c>
-      <c r="G26" s="22">
-        <v>0</v>
-      </c>
-      <c r="H26" s="22">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
-      <c r="J26" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F26" s="20">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="16">
         <v>15</v>
       </c>
-      <c r="C27" s="18">
-        <v>0</v>
-      </c>
-      <c r="D27" s="18">
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
         <v>1</v>
       </c>
-      <c r="E27" s="18">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0</v>
-      </c>
-      <c r="H27" s="18">
-        <v>0</v>
-      </c>
-      <c r="I27" s="18">
-        <v>0</v>
-      </c>
-      <c r="J27" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="16">
         <v>7</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="16">
         <v>12</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="16">
         <v>7</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>7</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <v>7</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="16">
         <v>7</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="16">
         <v>7</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="16">
         <v>7</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="16">
         <f>22+3+3+7</f>
         <v>35</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="16">
         <v>3</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="16">
         <v>3</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>3</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <v>3</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="16">
         <v>3</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="16">
         <v>3</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="16">
         <v>3</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="16">
         <f>23+10</f>
         <v>33</v>
       </c>
-      <c r="C30" s="18">
-        <v>0</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="15">
         <f>75+100</f>
         <v>175</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="15">
         <f>100+3</f>
         <v>103</v>
       </c>
-      <c r="F30" s="18">
-        <v>0</v>
-      </c>
-      <c r="G30" s="18">
-        <v>0</v>
-      </c>
-      <c r="H30" s="18">
-        <v>0</v>
-      </c>
-      <c r="I30" s="18">
-        <v>0</v>
-      </c>
-      <c r="J30" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="17">
         <f>SUM(B2:B31)</f>
         <v>2354</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="17">
         <f t="shared" ref="C32:J32" si="0">SUM(C2:C31)</f>
         <v>2363</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="17">
         <f t="shared" si="0"/>
         <v>4438.3333333333339</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="17">
         <f t="shared" si="0"/>
         <v>4611</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="17">
         <f t="shared" si="0"/>
-        <v>2275</v>
-      </c>
-      <c r="G32" s="19">
+        <v>2342</v>
+      </c>
+      <c r="G32" s="17">
         <f t="shared" si="0"/>
-        <v>4449</v>
-      </c>
-      <c r="H32" s="19">
+        <v>4521</v>
+      </c>
+      <c r="H32" s="17">
         <f t="shared" si="0"/>
-        <v>2409</v>
-      </c>
-      <c r="I32" s="19">
+        <v>2359</v>
+      </c>
+      <c r="I32" s="17">
         <f t="shared" si="0"/>
         <v>2309</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="17">
         <f t="shared" si="0"/>
-        <v>4507</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="17">
         <f>3541125/1500</f>
         <v>2360.75</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="17">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="17">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="17">
         <v>4622</v>
       </c>
-      <c r="F33" s="19">
-        <f>3437605/1500</f>
-        <v>2291.7366666666667</v>
-      </c>
-      <c r="G33" s="19">
+      <c r="F33" s="17">
+        <f>3522620/1500</f>
+        <v>2348.4133333333334</v>
+      </c>
+      <c r="G33" s="17">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="17">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="17">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="17">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="17">
         <f>(B33-B32)</f>
         <v>6.75</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="17">
         <f t="shared" ref="C34:F34" si="1">(C33-C32)</f>
         <v>-4.5966666666668061</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="17">
         <f t="shared" si="1"/>
         <v>13.66666666666606</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="17">
         <f t="shared" si="1"/>
-        <v>16.736666666666679</v>
-      </c>
-      <c r="G34" s="19">
+        <v>6.4133333333334122</v>
+      </c>
+      <c r="G34" s="17">
         <f t="shared" ref="G34:I34" si="2">(G33-G32)</f>
-        <v>3</v>
-      </c>
-      <c r="H34" s="19">
+        <v>-69</v>
+      </c>
+      <c r="H34" s="17">
         <f t="shared" si="2"/>
-        <v>-50.596666666666806</v>
-      </c>
-      <c r="I34" s="19">
+        <v>-0.59666666666680612</v>
+      </c>
+      <c r="I34" s="17">
         <f t="shared" si="2"/>
         <v>49.403333333333194</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="17">
         <f t="shared" ref="J34" si="3">(J33-J32)</f>
-        <v>-55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1964,20 +1966,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="29">
         <v>2018</v>
       </c>
@@ -2001,63 +2005,63 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43132</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>20000</v>
       </c>
       <c r="D3" s="5">
         <v>43466</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>1500</v>
       </c>
       <c r="F3" s="6">
@@ -2091,19 +2095,19 @@
       <c r="Q3" s="6">
         <v>400</v>
       </c>
-      <c r="R3" s="14"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43160</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>1500</v>
       </c>
       <c r="D4" s="5">
         <v>43497</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>1500</v>
       </c>
       <c r="F4" s="6">
@@ -2137,19 +2141,19 @@
       <c r="Q4" s="6">
         <v>400</v>
       </c>
-      <c r="R4" s="14"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43191</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>1500</v>
       </c>
       <c r="D5" s="5">
         <v>43525</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>1500</v>
       </c>
       <c r="F5" s="6">
@@ -2183,22 +2187,22 @@
       <c r="Q5" s="6">
         <v>400</v>
       </c>
-      <c r="R5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43221</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>1500</v>
       </c>
       <c r="D6" s="5">
         <v>43556</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>1400</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>100</v>
       </c>
       <c r="G6" s="6">
@@ -2229,25 +2233,25 @@
       <c r="Q6" s="6">
         <v>400</v>
       </c>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43252</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>1500</v>
       </c>
       <c r="D7" s="5">
         <v>43586</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>1000</v>
       </c>
-      <c r="F7" s="9">
-        <v>500</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="7">
+        <v>500</v>
+      </c>
+      <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="5">
@@ -2276,24 +2280,24 @@
       </c>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43282</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>1500</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5">
         <v>43617</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>2000</v>
       </c>
-      <c r="F8" s="9">
-        <v>500</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="7">
+        <v>500</v>
+      </c>
+      <c r="G8" s="7">
         <v>400</v>
       </c>
       <c r="I8" s="5">
@@ -2322,24 +2326,24 @@
       </c>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43313</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>1500</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5">
         <v>43647</v>
       </c>
-      <c r="E9" s="9">
-        <v>3750</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="E9" s="7">
+        <v>3770</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>100</v>
       </c>
       <c r="I9" s="5">
@@ -2368,24 +2372,24 @@
       </c>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43344</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>1500</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5">
         <v>43678</v>
       </c>
-      <c r="E10" s="9">
-        <v>1600</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="E10" s="7">
+        <v>1700</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
         <v>400</v>
       </c>
       <c r="I10" s="5">
@@ -2414,11 +2418,11 @@
       </c>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43374</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>1500</v>
       </c>
       <c r="C11" s="6"/>
@@ -2426,11 +2430,10 @@
         <v>43709</v>
       </c>
       <c r="E11" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F11" s="28">
-        <f>550+300+500</f>
-        <v>1350</v>
+        <v>3300</v>
+      </c>
+      <c r="F11" s="26">
+        <v>800</v>
       </c>
       <c r="G11" s="6">
         <v>400</v>
@@ -2461,11 +2464,11 @@
       </c>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43405</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>1500</v>
       </c>
       <c r="C12" s="6"/>
@@ -2473,9 +2476,9 @@
         <v>43739</v>
       </c>
       <c r="E12" s="6">
-        <v>1500</v>
-      </c>
-      <c r="F12" s="28">
+        <v>1600</v>
+      </c>
+      <c r="F12" s="26">
         <v>500</v>
       </c>
       <c r="G12" s="6">
@@ -2507,11 +2510,11 @@
       </c>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43435</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>1500</v>
       </c>
       <c r="C13" s="6"/>
@@ -2521,7 +2524,7 @@
       <c r="E13" s="6">
         <v>1500</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <v>500</v>
       </c>
       <c r="G13" s="6">
@@ -2553,8 +2556,8 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="8">
@@ -2566,9 +2569,9 @@
         <v>43800</v>
       </c>
       <c r="E14" s="6">
-        <v>2500</v>
-      </c>
-      <c r="F14" s="28">
+        <v>3350</v>
+      </c>
+      <c r="F14" s="26">
         <v>500</v>
       </c>
       <c r="G14" s="6">
@@ -2600,110 +2603,123 @@
       </c>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <f>SUM(E3:E14)</f>
-        <v>22750</v>
-      </c>
-      <c r="F15" s="10">
-        <f>SUM(F3:F14)</f>
-        <v>3950</v>
-      </c>
-      <c r="G15" s="10">
-        <f>SUM(G3:G14)</f>
+        <v>24120</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ref="F15:G15" si="0">SUM(F3:F14)</f>
+        <v>3400</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="8">
         <f>SUM(J3:J14)</f>
         <v>22000</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="8">
         <f>SUM(K3:K14)</f>
         <v>6000</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="8">
         <f>SUM(L3:L14)</f>
         <v>4800</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="8">
         <f>SUM(O3:O14)</f>
         <v>20800</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="8">
         <f>SUM(P3:P14)</f>
         <v>6000</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="8">
         <f>SUM(Q3:Q14)</f>
         <v>4800</v>
       </c>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="10">
+      <c r="E16" s="11"/>
+      <c r="F16" s="8">
         <f>E15+F15+G15</f>
-        <v>29200</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="10">
+        <v>30020</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="8">
         <f>J15+K15+L15</f>
         <v>32800</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="10">
+      <c r="L16" s="13"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="8">
         <f>O15+P15+Q15</f>
         <v>31600</v>
       </c>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="6">
         <f>B14+SUM(E3:G10)</f>
-        <v>51250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
+        <v>51370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
       <c r="B20" s="6">
         <f>195000-B19</f>
-        <v>143750</v>
+        <v>143630</v>
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="27"/>
+      <c r="P22" s="27"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K26" s="28"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/My_Budget.xlsx
+++ b/My_Budget.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10725"/>
   </bookViews>
   <sheets>
     <sheet name="EXPENSE" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,55 @@
     <author>Wafic Fahme</author>
   </authors>
   <commentList>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+173 from August
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+90 From August</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
@@ -63,6 +112,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+150 From August</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
@@ -88,7 +161,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="G24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+75 From August
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0">
+    <comment ref="E31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,12 +280,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="G31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Uber
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>April</t>
   </si>
@@ -331,6 +454,9 @@
   </si>
   <si>
     <t>Parent Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby </t>
   </si>
 </sst>
 </file>
@@ -341,7 +467,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +534,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -818,10 +957,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,8 +968,8 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="6" width="12.28515625" style="1" customWidth="1"/>
     <col min="7" max="10" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -885,13 +1024,13 @@
         <v>1700</v>
       </c>
       <c r="G2" s="20">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="H2" s="20">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I2" s="20">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="J2" s="20">
         <v>3350</v>
@@ -1017,7 +1156,7 @@
         <v>143</v>
       </c>
       <c r="G6" s="16">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H6" s="16">
         <v>150</v>
@@ -1051,7 +1190,7 @@
         <v>112</v>
       </c>
       <c r="G7" s="16">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H7" s="16">
         <v>120</v>
@@ -1379,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="20">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H17" s="20">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I17" s="20">
         <v>0</v>
@@ -1445,7 +1584,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="16">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H19" s="16">
         <v>40</v>
@@ -1609,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="20">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H24" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I24" s="20">
         <v>30</v>
@@ -1689,272 +1828,286 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="16">
-        <v>15</v>
-      </c>
-      <c r="C27" s="16">
-        <v>0</v>
-      </c>
-      <c r="D27" s="16">
-        <v>1</v>
-      </c>
-      <c r="E27" s="16">
-        <v>0</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <v>0</v>
-      </c>
-      <c r="I27" s="16">
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
-        <v>0</v>
-      </c>
+      <c r="A27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B28" s="16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C28" s="16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D28" s="16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E28" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F28" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G28" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H28" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I28" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J28" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="16">
+        <v>7</v>
+      </c>
+      <c r="C29" s="16">
+        <v>12</v>
+      </c>
+      <c r="D29" s="16">
+        <v>7</v>
+      </c>
+      <c r="E29" s="16">
+        <v>7</v>
+      </c>
+      <c r="F29" s="16">
+        <v>7</v>
+      </c>
+      <c r="G29" s="16">
+        <v>7</v>
+      </c>
+      <c r="H29" s="16">
+        <v>7</v>
+      </c>
+      <c r="I29" s="16">
+        <v>7</v>
+      </c>
+      <c r="J29" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B30" s="16">
         <f>22+3+3+7</f>
         <v>35</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C30" s="16">
         <v>3</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="16">
         <v>3</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E30" s="16">
         <v>3</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F30" s="16">
         <v>3</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G30" s="16">
         <v>3</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H30" s="16">
         <v>3</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I30" s="16">
         <v>3</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J30" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B31" s="16">
         <f>23+10</f>
         <v>33</v>
       </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-      <c r="D30" s="15">
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="15">
         <f>75+100</f>
         <v>175</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="15">
         <f>100+3</f>
         <v>103</v>
       </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0</v>
-      </c>
-      <c r="I30" s="16">
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20">
-        <v>0</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="17">
-        <f>SUM(B2:B31)</f>
+      <c r="B33" s="17">
+        <f>SUM(B2:B32)</f>
         <v>2354</v>
       </c>
-      <c r="C32" s="17">
-        <f t="shared" ref="C32:J32" si="0">SUM(C2:C31)</f>
+      <c r="C33" s="17">
+        <f t="shared" ref="C33:F33" si="0">SUM(C2:C32)</f>
         <v>2363</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="17">
         <f t="shared" si="0"/>
         <v>4438.3333333333339</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <f t="shared" si="0"/>
         <v>4611</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <f t="shared" si="0"/>
         <v>2342</v>
       </c>
-      <c r="G32" s="17">
-        <f t="shared" si="0"/>
-        <v>4521</v>
-      </c>
-      <c r="H32" s="17">
-        <f t="shared" si="0"/>
+      <c r="G33" s="17">
+        <f>SUM(G2:G32)</f>
+        <v>4421.5</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" ref="H33:J33" si="1">SUM(H2:H32)</f>
+        <v>2384</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" si="1"/>
         <v>2359</v>
       </c>
-      <c r="I32" s="17">
-        <f t="shared" si="0"/>
-        <v>2309</v>
-      </c>
-      <c r="J32" s="17">
-        <f t="shared" si="0"/>
+      <c r="J33" s="17">
+        <f t="shared" si="1"/>
         <v>4452</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B34" s="17">
         <f>3541125/1500</f>
         <v>2360.75</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C34" s="17">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D34" s="17">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E34" s="17">
         <v>4622</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="17">
         <f>3522620/1500</f>
         <v>2348.4133333333334</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G34" s="17">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H34" s="17">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I34" s="17">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J34" s="17">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="17">
-        <f>(B33-B32)</f>
+      <c r="B35" s="17">
+        <f>(B34-B33)</f>
         <v>6.75</v>
       </c>
-      <c r="C34" s="17">
-        <f t="shared" ref="C34:F34" si="1">(C33-C32)</f>
+      <c r="C35" s="17">
+        <f t="shared" ref="C35:F35" si="2">(C34-C33)</f>
         <v>-4.5966666666668061</v>
       </c>
-      <c r="D34" s="17">
-        <f t="shared" si="1"/>
+      <c r="D35" s="17">
+        <f t="shared" si="2"/>
         <v>13.66666666666606</v>
       </c>
-      <c r="E34" s="17">
-        <f t="shared" si="1"/>
+      <c r="E35" s="17">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F34" s="17">
-        <f t="shared" si="1"/>
+      <c r="F35" s="17">
+        <f t="shared" si="2"/>
         <v>6.4133333333334122</v>
       </c>
-      <c r="G34" s="17">
-        <f t="shared" ref="G34:I34" si="2">(G33-G32)</f>
-        <v>-69</v>
-      </c>
-      <c r="H34" s="17">
-        <f t="shared" si="2"/>
+      <c r="G35" s="17">
+        <f t="shared" ref="G35:I35" si="3">(G34-G33)</f>
+        <v>30.5</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="3"/>
+        <v>-25.596666666666806</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="3"/>
         <v>-0.59666666666680612</v>
       </c>
-      <c r="I34" s="17">
-        <f t="shared" si="2"/>
-        <v>49.403333333333194</v>
-      </c>
-      <c r="J34" s="17">
-        <f t="shared" ref="J34" si="3">(J33-J32)</f>
+      <c r="J35" s="17">
+        <f t="shared" ref="J35" si="4">(J34-J33)</f>
         <v>0</v>
       </c>
     </row>
@@ -1970,8 +2123,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,10 +2583,11 @@
         <v>43709</v>
       </c>
       <c r="E11" s="6">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="F11" s="26">
-        <v>800</v>
+        <f>(927+520)-15</f>
+        <v>1432</v>
       </c>
       <c r="G11" s="6">
         <v>400</v>
@@ -2476,7 +2630,7 @@
         <v>43739</v>
       </c>
       <c r="E12" s="6">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F12" s="26">
         <v>500</v>
@@ -2522,7 +2676,7 @@
         <v>43770</v>
       </c>
       <c r="E13" s="6">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="F13" s="26">
         <v>500</v>
@@ -2607,11 +2761,11 @@
       <c r="C15" s="6"/>
       <c r="E15" s="8">
         <f>SUM(E3:E14)</f>
-        <v>24120</v>
+        <v>23920</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ref="F15:G15" si="0">SUM(F3:F14)</f>
-        <v>3400</v>
+        <v>4032</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
@@ -2648,7 +2802,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="8">
         <f>E15+F15+G15</f>
-        <v>30020</v>
+        <v>30452</v>
       </c>
       <c r="G16" s="13"/>
       <c r="J16" s="11"/>

--- a/My_Budget.xlsx
+++ b/My_Budget.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wfahme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wafic/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E17FBD5-A47E-2448-973E-57AD7ACDC839}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10725"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXPENSE" sheetId="1" r:id="rId1"/>
-    <sheet name="APARTMENT" sheetId="2" r:id="rId2"/>
+    <sheet name="APARTMENT V3" sheetId="4" r:id="rId2"/>
+    <sheet name="APARTMENT V2" sheetId="3" r:id="rId3"/>
+    <sheet name="APARTMENT" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,18 +28,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Wafic Fahme</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{4112EB72-A331-104E-AD68-8FDA221D7A62}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -45,17 +48,26 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-173 from August
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">173 from August
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{9C2ED804-A315-F64C-BFA8-7E283BB7D6DD}">
       <text>
         <r>
           <rPr>
@@ -79,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -112,13 +124,181 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{9127A68D-4FF4-714C-8FBA-0643D51F74FE}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>150 From August</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{7BF4C509-66CA-CE47-A99A-09370547B539}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Oil Change Corrolla
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{E03D088D-17FE-1A4D-AF2E-D31ED9C5A289}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Car Tyres
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="0" shapeId="0" xr:uid="{334B14CB-9DDD-2546-94AD-53632D916B3F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Change papers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{C74CA0BD-2CCA-BF41-8C8C-D274B4BD0C6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sami
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{488722F0-D3D8-5F4D-83E3-CECE0BC75B1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -127,22 +307,86 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-150 From August</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">75 From August
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{C05C91FF-E288-9E48-9E10-77BDBB1A98D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Bike maintenance+
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Trek Bike Savings
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -151,68 +395,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Sami
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Wafic Fahme:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-75 From August
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Wafic Fahme:</t>
+          <t xml:space="preserve">- Car Tyre
+</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-- Car Tyre
-- 20 USD paid to card
-- Nestle Water</t>
+          <t xml:space="preserve">- 20 USD paid to card
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Nestle Water</t>
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -255,13 +476,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0" shapeId="0">
+    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -270,17 +491,35 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Kamal Audit
-Amazon Prime Video</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Kamal Audit
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amazon Prime Video</t>
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0" shapeId="0">
+    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{1B13C6CC-69E1-4140-83BC-BA38AA43E1A1}">
       <text>
         <r>
           <rPr>
@@ -305,19 +544,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{43A4D29B-A624-5644-AEB5-B540D61F4374}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wafic Fahme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Lorent internet + Uber
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>April</t>
   </si>
   <si>
-    <t>Mortgage</t>
-  </si>
-  <si>
     <t>May</t>
   </si>
   <si>
@@ -363,9 +623,6 @@
     <t>Office</t>
   </si>
   <si>
-    <t>Reward</t>
-  </si>
-  <si>
     <t>Clothes Shopping</t>
   </si>
   <si>
@@ -453,21 +710,96 @@
     <t>Home appliances</t>
   </si>
   <si>
-    <t>Parent Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hobby </t>
+    <t>Ain Alak</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t>Third House</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Online Courses</t>
+  </si>
+  <si>
+    <t>Goal end 2019</t>
+  </si>
+  <si>
+    <t>Scenario 1:</t>
+  </si>
+  <si>
+    <t>Scenario 2:</t>
+  </si>
+  <si>
+    <t>Iskan + third house</t>
+  </si>
+  <si>
+    <t>45,000 per year for 2 yrs</t>
+  </si>
+  <si>
+    <t>for 2020 &amp; 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then 40k final payment </t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Accumulated</t>
+  </si>
+  <si>
+    <t>New Plan</t>
+  </si>
+  <si>
+    <t>Current USD</t>
+  </si>
+  <si>
+    <t>Current LBP</t>
+  </si>
+  <si>
+    <t>Payoneer</t>
+  </si>
+  <si>
+    <t>Cash USD</t>
+  </si>
+  <si>
+    <t>Salary Card</t>
+  </si>
+  <si>
+    <t>Cash LBP</t>
+  </si>
+  <si>
+    <t>Grace LBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom </t>
+  </si>
+  <si>
+    <t>Carpet</t>
+  </si>
+  <si>
+    <t>January</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,19 +814,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -536,6 +855,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -544,12 +878,33 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +920,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,9 +981,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,10 +993,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -654,24 +1019,28 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,1160 +1324,1315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="2" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="11" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="3"/>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
+      <c r="B2" s="23">
         <v>1400</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="22">
         <v>1000</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="22">
         <f>2000+700</f>
         <v>2700</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="22">
         <f>2500+600</f>
         <v>3100</v>
       </c>
-      <c r="F2" s="20">
-        <v>1700</v>
-      </c>
-      <c r="G2" s="20">
+      <c r="F2" s="22">
+        <v>1600</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22">
+        <v>0</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22">
+        <v>0</v>
+      </c>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="23">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
         <v>3000</v>
       </c>
-      <c r="H2" s="20">
-        <v>1500</v>
-      </c>
-      <c r="I2" s="20">
-        <v>1700</v>
-      </c>
-      <c r="J2" s="20">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20">
-        <v>0</v>
-      </c>
-      <c r="E3" s="20">
-        <v>0</v>
-      </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="20">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="H4" s="22">
+        <v>1500</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1500</v>
+      </c>
+      <c r="J4" s="22">
+        <v>3000</v>
+      </c>
+      <c r="K4" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18">
+        <v>30</v>
+      </c>
+      <c r="C5" s="18">
+        <v>31</v>
+      </c>
+      <c r="D5" s="18">
+        <v>31</v>
+      </c>
+      <c r="E5" s="18">
+        <v>31</v>
+      </c>
+      <c r="F5" s="18">
+        <v>31</v>
+      </c>
+      <c r="G5" s="18">
+        <v>31</v>
+      </c>
+      <c r="H5" s="18">
+        <v>31</v>
+      </c>
+      <c r="I5" s="18">
+        <v>31</v>
+      </c>
+      <c r="J5" s="18">
+        <v>31</v>
+      </c>
+      <c r="K5" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16">
-        <v>30</v>
-      </c>
-      <c r="C4" s="16">
-        <v>31</v>
-      </c>
-      <c r="D4" s="16">
-        <v>31</v>
-      </c>
-      <c r="E4" s="16">
-        <v>31</v>
-      </c>
-      <c r="F4" s="16">
-        <v>31</v>
-      </c>
-      <c r="G4" s="16">
-        <v>31</v>
-      </c>
-      <c r="H4" s="16">
-        <v>31</v>
-      </c>
-      <c r="I4" s="16">
-        <v>31</v>
-      </c>
-      <c r="J4" s="16">
-        <v>31</v>
-      </c>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="B6" s="18">
         <v>25</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C6" s="18">
         <v>25</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D6" s="18">
         <v>25</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E6" s="18">
         <v>25</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F6" s="18">
         <v>25</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G6" s="18">
         <v>25</v>
       </c>
-      <c r="H5" s="16">
-        <v>25</v>
-      </c>
-      <c r="I5" s="16">
-        <v>25</v>
-      </c>
-      <c r="J5" s="16">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="H6" s="18">
+        <v>50</v>
+      </c>
+      <c r="I6" s="18">
+        <f>25+14</f>
+        <v>39</v>
+      </c>
+      <c r="J6" s="18">
+        <v>50</v>
+      </c>
+      <c r="K6" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18">
+        <v>66</v>
+      </c>
+      <c r="K7" s="18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18">
         <f>144+23+13+12</f>
         <v>192</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C8" s="18">
         <v>142</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D8" s="18">
         <v>120</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E8" s="18">
         <f>120+7</f>
         <v>127</v>
       </c>
-      <c r="F6" s="16">
-        <f>130+13</f>
-        <v>143</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="F8" s="18">
+        <v>130</v>
+      </c>
+      <c r="G8" s="18">
         <v>300</v>
       </c>
-      <c r="H6" s="16">
-        <v>150</v>
-      </c>
-      <c r="I6" s="16">
-        <v>150</v>
-      </c>
-      <c r="J6" s="16">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="H8" s="18">
+        <v>200</v>
+      </c>
+      <c r="I8" s="18">
+        <v>133</v>
+      </c>
+      <c r="J8" s="18">
+        <v>200</v>
+      </c>
+      <c r="K8" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="18">
         <f>30+56+13</f>
         <v>99</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C9" s="18">
         <f>22+26+31+21</f>
         <v>100</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D9" s="18">
         <v>125</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E9" s="18">
         <v>166</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F9" s="18">
         <v>112</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G9" s="18">
         <v>180</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H9" s="18">
+        <v>80</v>
+      </c>
+      <c r="I9" s="18">
         <v>120</v>
       </c>
-      <c r="I7" s="16">
-        <v>120</v>
-      </c>
-      <c r="J7" s="16">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="J9" s="17">
+        <v>80</v>
+      </c>
+      <c r="K9" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17">
         <v>23</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C10" s="18">
         <v>23</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D10" s="24">
         <v>40</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E10" s="17">
         <v>85</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F10" s="18">
+        <v>85</v>
+      </c>
+      <c r="G10" s="18">
+        <v>80</v>
+      </c>
+      <c r="H10" s="18">
+        <v>80</v>
+      </c>
+      <c r="I10" s="18">
+        <v>80</v>
+      </c>
+      <c r="J10" s="18">
         <v>66</v>
       </c>
-      <c r="G8" s="16">
+      <c r="K10" s="18">
         <v>66</v>
       </c>
-      <c r="H8" s="16">
-        <v>40</v>
-      </c>
-      <c r="I8" s="16">
-        <v>40</v>
-      </c>
-      <c r="J8" s="16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="16">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="18">
         <v>10</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C11" s="17">
         <f>13+10</f>
         <v>23</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D11" s="18">
         <v>60</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E11" s="17">
         <v>10</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F11" s="18">
         <v>10</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G11" s="18">
         <v>10</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H11" s="18">
         <v>10</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I11" s="18">
         <v>10</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J11" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="16">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="K11" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
         <v>150</v>
       </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="16">
-        <v>0</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
         <f>275000/1500</f>
         <v>183.33333333333334</v>
       </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="16">
-        <v>0</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
         <v>60</v>
       </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20">
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>133</v>
+      </c>
+      <c r="K14" s="18">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="22">
         <f>180+13</f>
         <v>193</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C15" s="22">
         <v>160</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D15" s="22">
         <v>150</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E15" s="22">
         <v>180</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F15" s="22">
+        <v>180</v>
+      </c>
+      <c r="G15" s="22">
+        <f>320-66</f>
+        <v>254</v>
+      </c>
+      <c r="H15" s="22">
+        <v>220</v>
+      </c>
+      <c r="I15" s="22">
         <v>150</v>
       </c>
-      <c r="G13" s="20">
-        <v>320</v>
-      </c>
-      <c r="H13" s="20">
+      <c r="J15" s="22">
         <v>150</v>
       </c>
-      <c r="I13" s="20">
+      <c r="K15" s="22">
         <v>150</v>
       </c>
-      <c r="J13" s="20">
-        <v>150</v>
-      </c>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="20">
-        <v>0</v>
-      </c>
-      <c r="C14" s="20">
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="22">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
         <f>18+15</f>
         <v>33</v>
       </c>
-      <c r="D14" s="20">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
         <v>54</v>
       </c>
-      <c r="F14" s="20">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0</v>
-      </c>
-      <c r="I14" s="20">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="20">
-        <v>0</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20">
+      <c r="F16" s="22">
+        <v>0</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
+        <v>60</v>
+      </c>
+      <c r="J16" s="22">
         <v>150</v>
       </c>
-      <c r="E15" s="20">
-        <v>0</v>
-      </c>
-      <c r="F15" s="20">
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="22">
+        <v>0</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0</v>
+      </c>
+      <c r="D17" s="22">
         <v>150</v>
       </c>
-      <c r="H15" s="20">
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
+        <v>150</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
+      <c r="J17" s="23">
+        <v>200</v>
+      </c>
+      <c r="K17" s="22">
         <v>100</v>
       </c>
-      <c r="I15" s="20">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="20">
-        <v>0</v>
-      </c>
-      <c r="C16" s="20">
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="22">
+        <v>0</v>
+      </c>
+      <c r="C18" s="22">
         <v>6</v>
       </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
         <v>6</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F18" s="22">
         <v>6</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G18" s="22">
         <v>6</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H18" s="22">
         <v>6</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I18" s="22">
         <v>6</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J18" s="22">
         <v>6</v>
       </c>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="20">
-        <v>0</v>
-      </c>
-      <c r="C17" s="20">
+      <c r="K18" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22">
         <v>25</v>
       </c>
-      <c r="D17" s="20">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0</v>
-      </c>
-      <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <v>110</v>
+      </c>
+      <c r="H19" s="22">
+        <v>95</v>
+      </c>
+      <c r="I19" s="22">
+        <v>0</v>
+      </c>
+      <c r="J19" s="22">
+        <v>0</v>
+      </c>
+      <c r="K19" s="22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="18">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18">
+        <v>10</v>
+      </c>
+      <c r="D20" s="18">
+        <v>93</v>
+      </c>
+      <c r="E20" s="17">
+        <v>40</v>
+      </c>
+      <c r="F20" s="18">
+        <v>40</v>
+      </c>
+      <c r="G20" s="18">
+        <v>40</v>
+      </c>
+      <c r="H20" s="18">
+        <v>40</v>
+      </c>
+      <c r="I20" s="18">
+        <v>40</v>
+      </c>
+      <c r="J20" s="18">
+        <v>40</v>
+      </c>
+      <c r="K20" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="18">
+        <v>5</v>
+      </c>
+      <c r="C21" s="18">
+        <v>20</v>
+      </c>
+      <c r="D21" s="18">
+        <v>38</v>
+      </c>
+      <c r="E21" s="18">
+        <v>40</v>
+      </c>
+      <c r="F21" s="18">
+        <v>12</v>
+      </c>
+      <c r="G21" s="18">
+        <v>27</v>
+      </c>
+      <c r="H21" s="18">
+        <v>40</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="18">
+        <v>0</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="18">
         <v>80</v>
       </c>
-      <c r="H17" s="20">
-        <v>105</v>
-      </c>
-      <c r="I17" s="20">
-        <v>0</v>
-      </c>
-      <c r="J17" s="20">
-        <v>90</v>
-      </c>
-      <c r="N17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="16">
-        <v>0</v>
-      </c>
-      <c r="C18" s="16">
-        <v>10</v>
-      </c>
-      <c r="D18" s="16">
-        <v>93</v>
-      </c>
-      <c r="E18" s="15">
-        <v>40</v>
-      </c>
-      <c r="F18" s="16">
-        <v>40</v>
-      </c>
-      <c r="G18" s="16">
-        <v>40</v>
-      </c>
-      <c r="H18" s="16">
-        <v>40</v>
-      </c>
-      <c r="I18" s="16">
-        <v>40</v>
-      </c>
-      <c r="J18" s="16">
-        <v>40</v>
-      </c>
-      <c r="N18" s="24"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="16">
-        <v>5</v>
-      </c>
-      <c r="C19" s="16">
-        <v>20</v>
-      </c>
-      <c r="D19" s="16">
-        <v>38</v>
-      </c>
-      <c r="E19" s="16">
-        <v>40</v>
-      </c>
-      <c r="F19" s="16">
-        <v>12</v>
-      </c>
-      <c r="G19" s="16">
-        <v>27</v>
-      </c>
-      <c r="H19" s="16">
-        <v>40</v>
-      </c>
-      <c r="I19" s="16">
-        <v>40</v>
-      </c>
-      <c r="J19" s="16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="16">
-        <v>80</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="C23" s="18">
         <f>245+65</f>
         <v>310</v>
       </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
         <v>66</v>
       </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
-        <v>195</v>
-      </c>
-      <c r="N20" s="25"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="H23" s="18">
+        <v>85</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>100</v>
+      </c>
+      <c r="K23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="18">
+        <v>10</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0</v>
+      </c>
+      <c r="K24" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="18">
+        <v>7</v>
+      </c>
+      <c r="C25" s="18">
+        <v>7</v>
+      </c>
+      <c r="D25" s="18">
         <v>14</v>
       </c>
-      <c r="B21" s="16">
-        <v>10</v>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>3</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="16">
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
         <v>7</v>
       </c>
-      <c r="C22" s="16">
+      <c r="G25" s="18">
         <v>7</v>
       </c>
-      <c r="D22" s="16">
-        <v>14</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
+      <c r="H25" s="18">
         <v>7</v>
       </c>
-      <c r="G22" s="16">
+      <c r="I25" s="18">
         <v>7</v>
       </c>
-      <c r="H22" s="16">
+      <c r="J25" s="18">
         <v>7</v>
       </c>
-      <c r="I22" s="16">
+      <c r="K25" s="18">
         <v>7</v>
       </c>
-      <c r="J22" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="16">
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="18">
         <v>150</v>
       </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
-        <v>0</v>
-      </c>
-      <c r="I23" s="16">
-        <v>0</v>
-      </c>
-      <c r="J23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="20">
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="22">
         <f>17+10+13</f>
         <v>40</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C27" s="22">
         <f>20+7+12+22+7+5</f>
         <v>73</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D27" s="22">
         <v>22</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E27" s="22">
         <v>64</v>
       </c>
-      <c r="F24" s="20">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
-        <v>100</v>
-      </c>
-      <c r="H24" s="20">
-        <v>50</v>
-      </c>
-      <c r="I24" s="20">
+      <c r="F27" s="22">
+        <v>0</v>
+      </c>
+      <c r="G27" s="22">
+        <f>100+66</f>
+        <v>166</v>
+      </c>
+      <c r="H27" s="22">
+        <v>20</v>
+      </c>
+      <c r="I27" s="22">
+        <v>0</v>
+      </c>
+      <c r="J27" s="22">
         <v>30</v>
       </c>
-      <c r="J24" s="20">
+      <c r="K27" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="20">
-        <v>0</v>
-      </c>
-      <c r="C25" s="20">
+    <row r="28" spans="1:11">
+      <c r="A28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="22">
+        <v>0</v>
+      </c>
+      <c r="C28" s="22">
         <f>720/2</f>
         <v>360</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D28" s="22">
         <f>310+41</f>
         <v>351</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E28" s="22">
         <f>310</f>
         <v>310</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F28" s="22">
         <v>27</v>
       </c>
-      <c r="G25" s="20">
-        <v>0</v>
-      </c>
-      <c r="H25" s="20">
-        <v>0</v>
-      </c>
-      <c r="I25" s="20">
-        <v>0</v>
-      </c>
-      <c r="J25" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="20">
-        <v>0</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0</v>
-      </c>
-      <c r="E26" s="20">
+      <c r="G28" s="22">
+        <v>0</v>
+      </c>
+      <c r="H28" s="22">
+        <v>0</v>
+      </c>
+      <c r="I28" s="22">
+        <v>0</v>
+      </c>
+      <c r="J28" s="22">
+        <v>0</v>
+      </c>
+      <c r="K28" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="22">
+        <v>0</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0</v>
+      </c>
+      <c r="D29" s="22">
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
         <v>200</v>
       </c>
-      <c r="F26" s="20">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <v>0</v>
-      </c>
-      <c r="H26" s="20">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20">
-        <v>0</v>
-      </c>
-      <c r="J26" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="16">
+      <c r="F29" s="22">
+        <v>0</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0</v>
+      </c>
+      <c r="H29" s="22">
+        <v>0</v>
+      </c>
+      <c r="I29" s="22">
+        <v>0</v>
+      </c>
+      <c r="J29" s="22">
+        <v>0</v>
+      </c>
+      <c r="K29" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="22">
+        <v>0</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0</v>
+      </c>
+      <c r="D30" s="22">
+        <v>0</v>
+      </c>
+      <c r="E30" s="22">
+        <v>0</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0</v>
+      </c>
+      <c r="G30" s="22">
+        <v>0</v>
+      </c>
+      <c r="H30" s="22">
+        <v>28</v>
+      </c>
+      <c r="I30" s="22">
+        <f>20+66</f>
+        <v>86</v>
+      </c>
+      <c r="J30" s="22">
+        <v>100</v>
+      </c>
+      <c r="K30" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18">
+        <v>7</v>
+      </c>
+      <c r="C31" s="18">
+        <v>12</v>
+      </c>
+      <c r="D31" s="18">
+        <v>7</v>
+      </c>
+      <c r="E31" s="18">
+        <v>7</v>
+      </c>
+      <c r="F31" s="18">
+        <v>7</v>
+      </c>
+      <c r="G31" s="18">
+        <v>2</v>
+      </c>
+      <c r="H31" s="18">
+        <v>3</v>
+      </c>
+      <c r="I31" s="18">
+        <v>7</v>
+      </c>
+      <c r="J31" s="18">
+        <v>7</v>
+      </c>
+      <c r="K31" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="16">
-        <v>0</v>
-      </c>
-      <c r="D28" s="16">
-        <v>1</v>
-      </c>
-      <c r="E28" s="16">
-        <v>0</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
-        <v>0</v>
-      </c>
-      <c r="I28" s="16">
-        <v>0</v>
-      </c>
-      <c r="J28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="16">
-        <v>7</v>
-      </c>
-      <c r="C29" s="16">
-        <v>12</v>
-      </c>
-      <c r="D29" s="16">
-        <v>7</v>
-      </c>
-      <c r="E29" s="16">
-        <v>7</v>
-      </c>
-      <c r="F29" s="16">
-        <v>7</v>
-      </c>
-      <c r="G29" s="16">
-        <v>7</v>
-      </c>
-      <c r="H29" s="16">
-        <v>7</v>
-      </c>
-      <c r="I29" s="16">
-        <v>7</v>
-      </c>
-      <c r="J29" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="16">
+      <c r="B32" s="18">
         <f>22+3+3+7</f>
         <v>35</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C32" s="18">
         <v>3</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D32" s="18">
         <v>3</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E32" s="18">
         <v>3</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F32" s="18">
         <v>3</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G32" s="18">
         <v>3</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H32" s="18">
         <v>3</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I32" s="18">
         <v>3</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J32" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="16">
-        <f>23+10</f>
-        <v>33</v>
-      </c>
-      <c r="C31" s="16">
-        <v>0</v>
-      </c>
-      <c r="D31" s="15">
+      <c r="K32" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="18">
+        <f>23+10+15</f>
+        <v>48</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
+      <c r="D33" s="17">
         <f>75+100</f>
         <v>175</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E33" s="17">
         <f>100+3</f>
         <v>103</v>
       </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16">
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18">
         <v>3.5</v>
       </c>
-      <c r="H31" s="16">
-        <v>0</v>
-      </c>
-      <c r="I31" s="16">
-        <v>0</v>
-      </c>
-      <c r="J31" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20">
-        <v>0</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="17">
-        <f>SUM(B2:B32)</f>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="18">
+        <f>22+9</f>
+        <v>31</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0</v>
+      </c>
+      <c r="K33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="19">
+        <f t="shared" ref="B34:H34" si="0">SUM(B2:B33)</f>
         <v>2354</v>
       </c>
-      <c r="C33" s="17">
-        <f t="shared" ref="C33:F33" si="0">SUM(C2:C32)</f>
+      <c r="C34" s="19">
+        <f t="shared" si="0"/>
         <v>2363</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D34" s="19">
         <f t="shared" si="0"/>
-        <v>4438.3333333333339</v>
-      </c>
-      <c r="E33" s="17">
+        <v>4437.3333333333339</v>
+      </c>
+      <c r="E34" s="19">
         <f t="shared" si="0"/>
         <v>4611</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="19">
         <f t="shared" si="0"/>
-        <v>2342</v>
-      </c>
-      <c r="G33" s="17">
-        <f>SUM(G2:G32)</f>
-        <v>4421.5</v>
-      </c>
-      <c r="H33" s="17">
-        <f t="shared" ref="H33:J33" si="1">SUM(H2:H32)</f>
-        <v>2384</v>
-      </c>
-      <c r="I33" s="17">
-        <f t="shared" si="1"/>
-        <v>2359</v>
-      </c>
-      <c r="J33" s="17">
-        <f t="shared" si="1"/>
-        <v>4452</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="17">
+        <v>2275</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="0"/>
+        <v>4460.5</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="0"/>
+        <v>2498</v>
+      </c>
+      <c r="I34" s="19">
+        <f>SUM(I2:I33)</f>
+        <v>2303</v>
+      </c>
+      <c r="J34" s="19">
+        <f>SUM(J2:J33)</f>
+        <v>4429</v>
+      </c>
+      <c r="K34" s="19">
+        <f>SUM(K2:K33)</f>
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="19">
         <f>3541125/1500</f>
         <v>2360.75</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C35" s="19">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="19">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="19">
         <v>4622</v>
       </c>
-      <c r="F34" s="17">
-        <f>3522620/1500</f>
-        <v>2348.4133333333334</v>
-      </c>
-      <c r="G34" s="17">
+      <c r="F35" s="19">
+        <f>3437605/1500</f>
+        <v>2291.7366666666667</v>
+      </c>
+      <c r="G35" s="19">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H35" s="19">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="I34" s="17">
-        <f>3537605/1500</f>
-        <v>2358.4033333333332</v>
-      </c>
-      <c r="J34" s="17">
-        <f>2352+2100</f>
-        <v>4452</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="17">
-        <f>(B34-B33)</f>
+      <c r="I35" s="19">
+        <f>3470000/1500</f>
+        <v>2313.3333333333335</v>
+      </c>
+      <c r="J35" s="19">
+        <f>(3570000/1500)+2100</f>
+        <v>4480</v>
+      </c>
+      <c r="K35" s="19">
+        <f>3470000/1500</f>
+        <v>2313.3333333333335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="19">
+        <f>(B35-B34)</f>
         <v>6.75</v>
       </c>
-      <c r="C35" s="17">
-        <f t="shared" ref="C35:F35" si="2">(C34-C33)</f>
+      <c r="C36" s="19">
+        <f t="shared" ref="C36:G36" si="1">(C35-C34)</f>
         <v>-4.5966666666668061</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D36" s="19">
+        <f t="shared" si="1"/>
+        <v>14.66666666666606</v>
+      </c>
+      <c r="E36" s="19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" si="1"/>
+        <v>16.736666666666679</v>
+      </c>
+      <c r="G36" s="19">
+        <f t="shared" si="1"/>
+        <v>-8.5</v>
+      </c>
+      <c r="H36" s="19">
+        <f t="shared" ref="H36:I36" si="2">(H35-H34)</f>
+        <v>-139.59666666666681</v>
+      </c>
+      <c r="I36" s="19">
         <f t="shared" si="2"/>
-        <v>13.66666666666606</v>
-      </c>
-      <c r="E35" s="17">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="F35" s="17">
-        <f t="shared" si="2"/>
-        <v>6.4133333333334122</v>
-      </c>
-      <c r="G35" s="17">
-        <f t="shared" ref="G35:I35" si="3">(G34-G33)</f>
-        <v>30.5</v>
-      </c>
-      <c r="H35" s="17">
+        <v>10.333333333333485</v>
+      </c>
+      <c r="J36" s="19">
+        <f t="shared" ref="J36:K36" si="3">(J35-J34)</f>
+        <v>51</v>
+      </c>
+      <c r="K36" s="19">
         <f t="shared" si="3"/>
-        <v>-25.596666666666806</v>
-      </c>
-      <c r="I35" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.59666666666680612</v>
-      </c>
-      <c r="J35" s="17">
-        <f t="shared" ref="J35" si="4">(J34-J33)</f>
-        <v>0</v>
+        <v>-304.66666666666652</v>
       </c>
     </row>
   </sheetData>
@@ -2119,102 +2643,1614 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A3F363-4D9E-1E41-ACA2-FFCC22519FED}">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="12" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="21">
+      <c r="A1" s="32">
+        <v>2018</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="D1" s="32">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="I1" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="27">
+        <v>43132</v>
+      </c>
+      <c r="B3" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="27">
+        <v>43466</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="9">
+        <v>51250</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="27">
+        <v>43709</v>
+      </c>
+      <c r="N3" s="9">
+        <v>3000</v>
+      </c>
+      <c r="O3" s="9">
+        <v>400</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="27">
+        <v>43160</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="27">
+        <v>43497</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5">
+        <v>43831</v>
+      </c>
+      <c r="J4" s="29">
+        <v>15000</v>
+      </c>
+      <c r="K4" s="29">
+        <f>SUM(N3:P6)</f>
+        <v>15300</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="27">
+        <v>43739</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1500</v>
+      </c>
+      <c r="O4" s="9">
+        <v>400</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="27">
+        <v>43191</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D5" s="27">
+        <v>43525</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5">
+        <v>43922</v>
+      </c>
+      <c r="J5" s="29">
+        <v>15000</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="27">
+        <v>43770</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1505</v>
+      </c>
+      <c r="O5" s="9">
+        <v>400</v>
+      </c>
+      <c r="P5" s="9">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="27">
+        <v>43221</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="27">
+        <v>43556</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1400</v>
+      </c>
+      <c r="F6" s="9">
+        <v>100</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5">
+        <v>44044</v>
+      </c>
+      <c r="J6" s="29">
+        <v>15000</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="27">
+        <v>43800</v>
+      </c>
+      <c r="N6" s="6">
+        <v>3000</v>
+      </c>
+      <c r="O6" s="6">
+        <v>400</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="27">
+        <v>43252</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D7" s="27">
+        <v>43586</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="9">
+        <v>500</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>44166</v>
+      </c>
+      <c r="J7" s="29">
+        <v>15000</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="27">
+        <v>43831</v>
+      </c>
+      <c r="N7" s="25">
+        <v>1500</v>
+      </c>
+      <c r="O7" s="6">
+        <v>400</v>
+      </c>
+      <c r="P7" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="27">
+        <v>43282</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="27">
+        <v>43617</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="9">
+        <v>500</v>
+      </c>
+      <c r="G8" s="9">
+        <v>400</v>
+      </c>
+      <c r="I8" s="5">
+        <v>44287</v>
+      </c>
+      <c r="J8" s="29">
+        <v>15000</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="27">
+        <v>43862</v>
+      </c>
+      <c r="N8" s="25">
+        <v>1500</v>
+      </c>
+      <c r="O8" s="6">
+        <v>400</v>
+      </c>
+      <c r="P8" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="27">
+        <v>43313</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="27">
+        <v>43647</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3750</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>100</v>
+      </c>
+      <c r="I9" s="5">
+        <v>44409</v>
+      </c>
+      <c r="J9" s="29">
+        <v>15000</v>
+      </c>
+      <c r="M9" s="27">
+        <v>43891</v>
+      </c>
+      <c r="N9" s="25">
+        <v>3000</v>
+      </c>
+      <c r="O9" s="6">
+        <v>400</v>
+      </c>
+      <c r="P9" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="27">
+        <v>43344</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="27">
+        <v>43678</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1600</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>400</v>
+      </c>
+      <c r="I10" s="5">
+        <v>44531</v>
+      </c>
+      <c r="J10" s="29">
+        <v>15000</v>
+      </c>
+      <c r="M10" s="27">
+        <v>43922</v>
+      </c>
+      <c r="N10" s="25">
+        <v>1500</v>
+      </c>
+      <c r="O10" s="6">
+        <v>400</v>
+      </c>
+      <c r="P10" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="27">
+        <v>43374</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="10">
+        <f>SUM(E3:E10)</f>
+        <v>14250</v>
+      </c>
+      <c r="F11" s="10">
+        <f>SUM(F3:F10)</f>
+        <v>1100</v>
+      </c>
+      <c r="G11" s="10">
+        <f>SUM(G3:G10)</f>
+        <v>900</v>
+      </c>
+      <c r="I11" s="5">
+        <v>44531</v>
+      </c>
+      <c r="J11" s="29">
+        <v>35000</v>
+      </c>
+      <c r="M11" s="27">
+        <v>43952</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O11" s="6">
+        <v>400</v>
+      </c>
+      <c r="P11" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="27">
+        <v>43405</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10">
+        <f>E11+F11+G11</f>
+        <v>16250</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="J12" s="10">
+        <f>SUM(J3:J11)</f>
+        <v>191250</v>
+      </c>
+      <c r="M12" s="27">
+        <v>43983</v>
+      </c>
+      <c r="N12" s="6">
+        <v>3000</v>
+      </c>
+      <c r="O12" s="6">
+        <v>400</v>
+      </c>
+      <c r="P12" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="27">
+        <v>43435</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="6"/>
+      <c r="M13" s="27">
+        <v>44013</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O13" s="6">
+        <v>400</v>
+      </c>
+      <c r="P13" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8">
+        <f>SUM(B3:B13)</f>
+        <v>35000</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="6"/>
+      <c r="M14" s="27">
+        <v>44044</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O14" s="6">
+        <v>400</v>
+      </c>
+      <c r="P14" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="6"/>
+      <c r="M15" s="27">
+        <v>44075</v>
+      </c>
+      <c r="N15" s="6">
+        <v>3000</v>
+      </c>
+      <c r="O15" s="6">
+        <v>400</v>
+      </c>
+      <c r="P15" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="6"/>
+      <c r="M16" s="27">
+        <v>44105</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O16" s="6">
+        <v>400</v>
+      </c>
+      <c r="P16" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="27">
+        <v>44136</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O17" s="6">
+        <v>400</v>
+      </c>
+      <c r="P17" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="6"/>
+      <c r="M18" s="27">
+        <v>44166</v>
+      </c>
+      <c r="N18" s="6">
+        <v>3000</v>
+      </c>
+      <c r="O18" s="6">
+        <v>400</v>
+      </c>
+      <c r="P18" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="C19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="N19" s="10">
+        <f>SUM(N3:N18)</f>
+        <v>33005</v>
+      </c>
+      <c r="O19" s="10">
+        <f>SUM(O3:O18)</f>
+        <v>6400</v>
+      </c>
+      <c r="P19" s="10">
+        <f>SUM(P3:P18)</f>
+        <v>14295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="C20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10">
+        <f>N19+P19+O19</f>
+        <v>53700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5350</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1244000</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1260000</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1300</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="6">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16">
+      <c r="A27" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="6">
+        <f>2725+895+1100</f>
+        <v>4720</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="6">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="B29" s="9">
+        <f>B21+B24+B27+(B22+B23+B25+B26+B28)/1515</f>
+        <v>13418.844884488448</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F365495B-CBBD-3644-A561-7677DF6020FF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I2" sqref="I2:L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" customWidth="1"/>
+    <col min="17" max="17" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="29">
+    <row r="1" spans="1:17" s="26" customFormat="1" ht="21">
+      <c r="A1" s="32">
         <v>2018</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="D1" s="29">
+      <c r="B1" s="32"/>
+      <c r="D1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="I1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="27">
+        <v>43132</v>
+      </c>
+      <c r="B3" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="27">
+        <v>43466</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="27">
+        <v>43709</v>
+      </c>
+      <c r="J3" s="9">
+        <v>3000</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1500</v>
+      </c>
+      <c r="L3" s="9">
+        <v>400</v>
+      </c>
+      <c r="P3" s="5">
+        <v>43831</v>
+      </c>
+      <c r="Q3" s="29">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="27">
+        <v>43160</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="27">
+        <v>43497</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="27">
+        <v>43739</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1400</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1200</v>
+      </c>
+      <c r="L4" s="9">
+        <v>400</v>
+      </c>
+      <c r="P4" s="5">
+        <v>43922</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="27">
+        <v>43191</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D5" s="27">
+        <v>43525</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="27">
+        <v>43770</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K5" s="25">
+        <v>800</v>
+      </c>
+      <c r="L5" s="6">
+        <v>400</v>
+      </c>
+      <c r="P5" s="5">
+        <v>44044</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="27">
+        <v>43221</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="27">
+        <v>43556</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1400</v>
+      </c>
+      <c r="F6" s="9">
+        <v>100</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="27">
+        <v>43800</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3000</v>
+      </c>
+      <c r="K6" s="25">
+        <v>800</v>
+      </c>
+      <c r="L6" s="6">
+        <v>400</v>
+      </c>
+      <c r="P6" s="5">
+        <v>44166</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="27">
+        <v>43252</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D7" s="27">
+        <v>43586</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="9">
+        <v>500</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>43831</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1500</v>
+      </c>
+      <c r="K7" s="25">
+        <v>800</v>
+      </c>
+      <c r="L7" s="6">
+        <v>400</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="30">
+        <f>SUM(Q3:Q6)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="27">
+        <v>43282</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="27">
+        <v>43617</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="9">
+        <v>500</v>
+      </c>
+      <c r="G8" s="9">
+        <v>400</v>
+      </c>
+      <c r="I8" s="27">
+        <v>43862</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="25">
+        <v>800</v>
+      </c>
+      <c r="L8" s="6">
+        <v>400</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="27">
+        <v>43313</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="27">
+        <v>43647</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3750</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>100</v>
+      </c>
+      <c r="I9" s="27">
+        <v>43891</v>
+      </c>
+      <c r="J9" s="25">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="25">
+        <v>800</v>
+      </c>
+      <c r="L9" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="27">
+        <v>43344</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="27">
+        <v>43678</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1600</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>400</v>
+      </c>
+      <c r="I10" s="27">
+        <v>43922</v>
+      </c>
+      <c r="J10" s="25">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="25">
+        <v>800</v>
+      </c>
+      <c r="L10" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="27">
+        <v>43374</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="10">
+        <f>SUM(E3:E10)</f>
+        <v>14250</v>
+      </c>
+      <c r="F11" s="10">
+        <f>SUM(F3:F10)</f>
+        <v>1100</v>
+      </c>
+      <c r="G11" s="10">
+        <f>SUM(G3:G10)</f>
+        <v>900</v>
+      </c>
+      <c r="I11" s="27">
+        <v>43952</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K11" s="25">
+        <v>800</v>
+      </c>
+      <c r="L11" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="27">
+        <v>43405</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10">
+        <f>E11+F11+G11</f>
+        <v>16250</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="I12" s="27">
+        <v>43983</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3000</v>
+      </c>
+      <c r="K12" s="25">
+        <v>800</v>
+      </c>
+      <c r="L12" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="27">
+        <v>43435</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="27">
+        <v>44013</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K13" s="25">
+        <v>800</v>
+      </c>
+      <c r="L13" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8">
+        <f>SUM(B3:B13)</f>
+        <v>35000</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="6"/>
+      <c r="I14" s="27">
+        <v>44044</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K14" s="25">
+        <v>800</v>
+      </c>
+      <c r="L14" s="6">
+        <v>400</v>
+      </c>
+      <c r="P14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="6"/>
+      <c r="I15" s="27">
+        <v>44075</v>
+      </c>
+      <c r="J15" s="6">
+        <v>3000</v>
+      </c>
+      <c r="K15" s="25">
+        <v>800</v>
+      </c>
+      <c r="L15" s="6">
+        <v>400</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="6"/>
+      <c r="I16" s="27">
+        <v>44105</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K16" s="25">
+        <v>800</v>
+      </c>
+      <c r="L16" s="6">
+        <v>400</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="6"/>
+      <c r="I17" s="27">
+        <v>44136</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K17" s="25">
+        <v>800</v>
+      </c>
+      <c r="L17" s="6">
+        <v>400</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="6"/>
+      <c r="I18" s="27">
+        <v>44166</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3000</v>
+      </c>
+      <c r="K18" s="25">
+        <v>800</v>
+      </c>
+      <c r="L18" s="6">
+        <v>400</v>
+      </c>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="C19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="I19" s="27">
+        <v>44197</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K19" s="25">
+        <v>800</v>
+      </c>
+      <c r="L19" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="C20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="27">
+        <v>44228</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K20" s="25">
+        <v>800</v>
+      </c>
+      <c r="L20" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="C21" s="6"/>
+      <c r="I21" s="27">
+        <v>44256</v>
+      </c>
+      <c r="J21" s="6">
+        <v>3000</v>
+      </c>
+      <c r="K21" s="25">
+        <v>800</v>
+      </c>
+      <c r="L21" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="I22" s="27">
+        <v>44287</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K22" s="25">
+        <v>800</v>
+      </c>
+      <c r="L22" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="6">
+        <f>B14+SUM(E3:G10)</f>
+        <v>51250</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="I23" s="27">
+        <v>44317</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K23" s="25">
+        <v>800</v>
+      </c>
+      <c r="L23" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16">
+      <c r="A24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6">
+        <f>SUM(J3:L4)</f>
+        <v>7900</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="I24" s="27">
+        <v>44348</v>
+      </c>
+      <c r="J24" s="6">
+        <v>3000</v>
+      </c>
+      <c r="K24" s="25">
+        <v>800</v>
+      </c>
+      <c r="L24" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="5"/>
+      <c r="I25" s="27">
+        <v>44378</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K25" s="25">
+        <v>800</v>
+      </c>
+      <c r="L25" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6">
+        <v>15000</v>
+      </c>
+      <c r="I26" s="27">
+        <v>44409</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1500</v>
+      </c>
+      <c r="K26" s="25">
+        <v>800</v>
+      </c>
+      <c r="L26" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="J27" s="10">
+        <f>SUM(J3:J26)</f>
+        <v>47900</v>
+      </c>
+      <c r="K27" s="10">
+        <f>SUM(K3:K26)</f>
+        <v>20300</v>
+      </c>
+      <c r="L27" s="10">
+        <f>SUM(L3:L26)</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="28">
+        <f>J27+K27+L27</f>
+        <v>77800</v>
+      </c>
+      <c r="L28" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="33">
+        <v>2018</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="D1" s="33">
         <v>2019</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="I1" s="29">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="I1" s="33">
         <v>2020</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="N1" s="29">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="N1" s="33">
         <v>2021</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="10" t="s">
+      <c r="L2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="5">
         <v>43132</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>20000</v>
       </c>
       <c r="D3" s="5">
         <v>43466</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>1500</v>
       </c>
       <c r="F3" s="6">
@@ -2248,19 +4284,19 @@
       <c r="Q3" s="6">
         <v>400</v>
       </c>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="5">
         <v>43160</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>1500</v>
       </c>
       <c r="D4" s="5">
         <v>43497</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>1500</v>
       </c>
       <c r="F4" s="6">
@@ -2294,19 +4330,19 @@
       <c r="Q4" s="6">
         <v>400</v>
       </c>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="5">
         <v>43191</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>1500</v>
       </c>
       <c r="D5" s="5">
         <v>43525</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
         <v>1500</v>
       </c>
       <c r="F5" s="6">
@@ -2340,22 +4376,22 @@
       <c r="Q5" s="6">
         <v>400</v>
       </c>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="5">
         <v>43221</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>1500</v>
       </c>
       <c r="D6" s="5">
         <v>43556</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="9">
         <v>1400</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="9">
         <v>100</v>
       </c>
       <c r="G6" s="6">
@@ -2386,25 +4422,25 @@
       <c r="Q6" s="6">
         <v>400</v>
       </c>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="5">
         <v>43252</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>1500</v>
       </c>
       <c r="D7" s="5">
         <v>43586</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="9">
         <v>1000</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="9">
         <v>500</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="9">
         <v>0</v>
       </c>
       <c r="I7" s="5">
@@ -2433,24 +4469,24 @@
       </c>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="5">
         <v>43282</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>1500</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5">
         <v>43617</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="9">
         <v>2000</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="9">
         <v>500</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="9">
         <v>400</v>
       </c>
       <c r="I8" s="5">
@@ -2479,24 +4515,24 @@
       </c>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="5">
         <v>43313</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>1500</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5">
         <v>43647</v>
       </c>
-      <c r="E9" s="7">
-        <v>3770</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="E9" s="9">
+        <v>3750</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
         <v>100</v>
       </c>
       <c r="I9" s="5">
@@ -2525,24 +4561,24 @@
       </c>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="5">
         <v>43344</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>1500</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5">
         <v>43678</v>
       </c>
-      <c r="E10" s="7">
-        <v>1700</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="E10" s="9">
+        <v>1600</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
         <v>400</v>
       </c>
       <c r="I10" s="5">
@@ -2571,11 +4607,11 @@
       </c>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="5">
         <v>43374</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>1500</v>
       </c>
       <c r="C11" s="6"/>
@@ -2585,9 +4621,9 @@
       <c r="E11" s="6">
         <v>3000</v>
       </c>
-      <c r="F11" s="26">
-        <f>(927+520)-15</f>
-        <v>1432</v>
+      <c r="F11" s="25">
+        <f>550+300+500</f>
+        <v>1350</v>
       </c>
       <c r="G11" s="6">
         <v>400</v>
@@ -2618,11 +4654,11 @@
       </c>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="5">
         <v>43405</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>1500</v>
       </c>
       <c r="C12" s="6"/>
@@ -2632,7 +4668,7 @@
       <c r="E12" s="6">
         <v>1500</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>500</v>
       </c>
       <c r="G12" s="6">
@@ -2664,11 +4700,11 @@
       </c>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="5">
         <v>43435</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>1500</v>
       </c>
       <c r="C13" s="6"/>
@@ -2676,9 +4712,9 @@
         <v>43770</v>
       </c>
       <c r="E13" s="6">
-        <v>1700</v>
-      </c>
-      <c r="F13" s="26">
+        <v>1500</v>
+      </c>
+      <c r="F13" s="25">
         <v>500</v>
       </c>
       <c r="G13" s="6">
@@ -2710,9 +4746,9 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>22</v>
+    <row r="14" spans="1:18">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="8">
         <f>SUM(B3:B13)</f>
@@ -2723,9 +4759,9 @@
         <v>43800</v>
       </c>
       <c r="E14" s="6">
-        <v>3350</v>
-      </c>
-      <c r="F14" s="26">
+        <v>2500</v>
+      </c>
+      <c r="F14" s="25">
         <v>500</v>
       </c>
       <c r="G14" s="6">
@@ -2757,123 +4793,110 @@
       </c>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="C15" s="6"/>
-      <c r="E15" s="8">
+      <c r="E15" s="10">
         <f>SUM(E3:E14)</f>
-        <v>23920</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" ref="F15:G15" si="0">SUM(F3:F14)</f>
-        <v>4032</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="0"/>
+        <v>22750</v>
+      </c>
+      <c r="F15" s="10">
+        <f>SUM(F3:F14)</f>
+        <v>3950</v>
+      </c>
+      <c r="G15" s="10">
+        <f>SUM(G3:G14)</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="10">
         <f>SUM(J3:J14)</f>
         <v>22000</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="10">
         <f>SUM(K3:K14)</f>
         <v>6000</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="10">
         <f>SUM(L3:L14)</f>
         <v>4800</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="10">
         <f>SUM(O3:O14)</f>
         <v>20800</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="10">
         <f>SUM(P3:P14)</f>
         <v>6000</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="10">
         <f>SUM(Q3:Q14)</f>
         <v>4800</v>
       </c>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="C16" s="6"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="8">
+      <c r="E16" s="13"/>
+      <c r="F16" s="10">
         <f>E15+F15+G15</f>
-        <v>30452</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="8">
+        <v>29200</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="10">
         <f>J15+K15+L15</f>
         <v>32800</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="8">
+      <c r="L16" s="15"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="10">
         <f>O15+P15+Q15</f>
         <v>31600</v>
       </c>
-      <c r="Q16" s="13"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="C17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="C18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6">
         <f>B14+SUM(E3:G10)</f>
-        <v>51370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+        <v>51250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="20"/>
       <c r="B20" s="6">
         <f>195000-B19</f>
-        <v>143630</v>
+        <v>143750</v>
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="5"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="5"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="27"/>
-      <c r="P22" s="27"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K26" s="28"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K27" s="25"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/My_Budget.xlsx
+++ b/My_Budget.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wafic/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wfahme\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E17FBD5-A47E-2448-973E-57AD7ACDC839}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="EXPENSE" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="APARTMENT V2" sheetId="3" r:id="rId3"/>
     <sheet name="APARTMENT" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Wafic Fahme</author>
   </authors>
   <commentList>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{4112EB72-A331-104E-AD68-8FDA221D7A62}">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +40,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Wafic Fahme:</t>
         </r>
@@ -50,7 +49,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -60,14 +59,14 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">173 from August
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{9C2ED804-A315-F64C-BFA8-7E283BB7D6DD}">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Wafic Fahme:</t>
         </r>
@@ -84,14 +83,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 90 From August</t>
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{9127A68D-4FF4-714C-8FBA-0643D51F74FE}">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{7BF4C509-66CA-CE47-A99A-09370547B539}">
+    <comment ref="I13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{E03D088D-17FE-1A4D-AF2E-D31ED9C5A289}">
+    <comment ref="J13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K19" authorId="0" shapeId="0" xr:uid="{334B14CB-9DDD-2546-94AD-53632D916B3F}">
+    <comment ref="N15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{C74CA0BD-2CCA-BF41-8C8C-D274B4BD0C6B}">
+    <comment ref="G18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{488722F0-D3D8-5F4D-83E3-CECE0BC75B1C}">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +299,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Wafic Fahme:</t>
         </r>
@@ -309,7 +308,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -319,14 +318,14 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">75 From August
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{C05C91FF-E288-9E48-9E10-77BDBB1A98D2}">
+    <comment ref="I23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -433,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -519,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{1B13C6CC-69E1-4140-83BC-BA38AA43E1A1}">
+    <comment ref="G25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -527,7 +526,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Wafic Fahme:</t>
         </r>
@@ -536,7 +535,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Uber
@@ -544,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{43A4D29B-A624-5644-AEB5-B540D61F4374}">
+    <comment ref="I25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +572,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>April</t>
   </si>
@@ -593,9 +592,6 @@
     <t>Car Maintenance</t>
   </si>
   <si>
-    <t>Water Meter</t>
-  </si>
-  <si>
     <t>Motor</t>
   </si>
   <si>
@@ -614,9 +610,6 @@
     <t>Pharmacy</t>
   </si>
   <si>
-    <t>Parking</t>
-  </si>
-  <si>
     <t>Gift</t>
   </si>
   <si>
@@ -629,9 +622,6 @@
     <t>Home Maintenance</t>
   </si>
   <si>
-    <t>Home Tax</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -653,18 +643,9 @@
     <t>July</t>
   </si>
   <si>
-    <t>Hair Cut</t>
-  </si>
-  <si>
-    <t>Car Wash</t>
-  </si>
-  <si>
     <t>Grace</t>
   </si>
   <si>
-    <t>Canteen Tax</t>
-  </si>
-  <si>
     <t>Travel</t>
   </si>
   <si>
@@ -674,18 +655,12 @@
     <t>Net</t>
   </si>
   <si>
-    <t>Eating Out + Coffee</t>
-  </si>
-  <si>
     <t>PAID</t>
   </si>
   <si>
     <t>Vacation</t>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
     <t>Car Tax</t>
   </si>
   <si>
@@ -707,9 +682,6 @@
     <t>December</t>
   </si>
   <si>
-    <t>Home appliances</t>
-  </si>
-  <si>
     <t>Ain Alak</t>
   </si>
   <si>
@@ -722,9 +694,6 @@
     <t>Paid</t>
   </si>
   <si>
-    <t>Online Courses</t>
-  </si>
-  <si>
     <t>Goal end 2019</t>
   </si>
   <si>
@@ -789,17 +758,35 @@
   </si>
   <si>
     <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eating Out </t>
+  </si>
+  <si>
+    <t>Home Furniture</t>
+  </si>
+  <si>
+    <t>Home Tax + Water Meter</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>March</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,26 +854,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -942,7 +916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -978,12 +952,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1030,7 +1028,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1038,7 +1036,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1324,22 +1333,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="11" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="13" customWidth="1"/>
+    <col min="12" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -1351,30 +1365,37 @@
         <v>2</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B2" s="23">
         <v>1400</v>
@@ -1394,1248 +1415,1168 @@
         <v>1600</v>
       </c>
       <c r="G2" s="22">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H2" s="22">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I2" s="22">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J2" s="22">
-        <v>0</v>
-      </c>
-      <c r="K2" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0</v>
-      </c>
-      <c r="G4" s="22">
         <v>3000</v>
       </c>
-      <c r="H4" s="22">
-        <v>1500</v>
-      </c>
-      <c r="I4" s="22">
-        <v>1500</v>
-      </c>
-      <c r="J4" s="22">
+      <c r="K2" s="35"/>
+      <c r="L2" s="22">
+        <v>1500</v>
+      </c>
+      <c r="M2" s="22">
+        <v>1500</v>
+      </c>
+      <c r="N2" s="22">
         <v>3000</v>
       </c>
-      <c r="K4" s="22">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B3" s="18">
         <v>30</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C3" s="18">
         <v>31</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D3" s="18">
         <v>31</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E3" s="18">
         <v>31</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F3" s="18">
         <v>31</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G3" s="18">
         <v>31</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H3" s="18">
         <v>31</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I3" s="18">
         <v>31</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J3" s="18">
         <v>31</v>
       </c>
-      <c r="K5" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
+      <c r="K3" s="35"/>
+      <c r="L3" s="18">
+        <v>22</v>
+      </c>
+      <c r="M3" s="18">
+        <v>22</v>
+      </c>
+      <c r="N3" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B4" s="18">
         <v>25</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C4" s="18">
         <v>25</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D4" s="18">
         <v>25</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E4" s="18">
         <v>25</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F4" s="18">
         <v>25</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G4" s="18">
         <v>25</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H4" s="18">
         <v>50</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I4" s="18">
         <f>25+14</f>
         <v>39</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J4" s="18">
         <v>50</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K4" s="35"/>
+      <c r="L4" s="18">
+        <v>25</v>
+      </c>
+      <c r="M4" s="18">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18">
+      <c r="N4" s="18">
+        <v>50</v>
+      </c>
+      <c r="R4" s="32"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
         <v>66</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K5" s="35"/>
+      <c r="L5" s="17">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="18">
+      <c r="M5" s="18">
+        <v>66</v>
+      </c>
+      <c r="N5" s="18">
+        <v>66</v>
+      </c>
+      <c r="R5" s="33"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="18">
         <f>144+23+13+12</f>
         <v>192</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C6" s="18">
         <v>142</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D6" s="18">
         <v>120</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E6" s="18">
         <f>120+7</f>
         <v>127</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F6" s="18">
         <v>130</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G6" s="18">
         <v>300</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H6" s="18">
         <v>200</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I6" s="18">
         <v>133</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J6" s="18">
+        <v>250</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="18">
+        <v>230</v>
+      </c>
+      <c r="M6" s="18">
         <v>200</v>
       </c>
-      <c r="K8" s="18">
+      <c r="N6" s="18">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="18">
         <f>30+56+13</f>
         <v>99</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C7" s="18">
         <f>22+26+31+21</f>
         <v>100</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D7" s="18">
         <v>125</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E7" s="18">
         <v>166</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F7" s="18">
         <v>112</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G7" s="18">
         <v>180</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H7" s="18">
         <v>80</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I7" s="18">
         <v>120</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J7" s="17">
         <v>80</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K7" s="35"/>
+      <c r="L7" s="17">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="17">
+      <c r="M7" s="18">
+        <v>40</v>
+      </c>
+      <c r="N7" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17">
         <v>23</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C8" s="18">
         <v>23</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D8" s="24">
         <v>40</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E8" s="17">
         <v>85</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F8" s="18">
         <v>85</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G8" s="18">
         <v>80</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H8" s="18">
         <v>80</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I8" s="18">
         <v>80</v>
       </c>
-      <c r="J10" s="18">
-        <v>66</v>
-      </c>
-      <c r="K10" s="18">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="J8" s="18">
+        <v>30</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="18">
+        <v>83</v>
+      </c>
+      <c r="M8" s="18">
+        <v>60</v>
+      </c>
+      <c r="N8" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="18">
         <v>10</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C9" s="17">
         <f>13+10</f>
         <v>23</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D9" s="18">
         <v>60</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E9" s="17">
         <v>10</v>
       </c>
+      <c r="F9" s="18">
+        <v>10</v>
+      </c>
+      <c r="G9" s="18">
+        <v>10</v>
+      </c>
+      <c r="H9" s="18">
+        <v>10</v>
+      </c>
+      <c r="I9" s="18">
+        <v>10</v>
+      </c>
+      <c r="J9" s="17">
+        <v>10</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="17">
+        <v>10</v>
+      </c>
+      <c r="M9" s="18">
+        <v>10</v>
+      </c>
+      <c r="N9" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <f>150+183</f>
+        <v>333</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="18">
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>60</v>
+      </c>
       <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>133</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="18">
+        <v>133</v>
+      </c>
+      <c r="M11" s="18">
+        <v>133</v>
+      </c>
+      <c r="N11" s="18">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="18">
-        <v>10</v>
-      </c>
-      <c r="H11" s="18">
-        <v>10</v>
-      </c>
-      <c r="I11" s="18">
-        <v>10</v>
-      </c>
-      <c r="J11" s="17">
-        <v>10</v>
-      </c>
-      <c r="K11" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="18">
-        <v>0</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18">
-        <v>150</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="18">
-        <v>0</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
-        <f>275000/1500</f>
-        <v>183.33333333333334</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0</v>
-      </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="18">
-        <v>0</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>60</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18">
-        <v>133</v>
-      </c>
-      <c r="K14" s="18">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="22">
+      <c r="B12" s="22">
         <f>180+13</f>
         <v>193</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C12" s="22">
         <v>160</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D12" s="22">
         <v>150</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E12" s="22">
         <v>180</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F12" s="22">
         <v>180</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G12" s="22">
         <f>320-66</f>
         <v>254</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H12" s="22">
         <v>220</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I12" s="22">
         <v>150</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J12" s="22">
         <v>150</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K12" s="35"/>
+      <c r="L12" s="22">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="21" t="s">
+      <c r="M12" s="22">
+        <v>150</v>
+      </c>
+      <c r="N12" s="22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="22">
-        <v>0</v>
-      </c>
-      <c r="C16" s="22">
+      <c r="B13" s="22">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
         <f>18+15</f>
         <v>33</v>
       </c>
-      <c r="D16" s="22">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
         <v>54</v>
       </c>
-      <c r="F16" s="22">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0</v>
-      </c>
-      <c r="I16" s="22">
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
         <v>60</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J13" s="22">
         <v>150</v>
       </c>
-      <c r="K16" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="22">
-        <v>0</v>
-      </c>
-      <c r="C17" s="22">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="K13" s="35"/>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
+        <v>0</v>
+      </c>
+      <c r="N13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="22">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
         <v>150</v>
       </c>
-      <c r="E17" s="22">
-        <v>0</v>
-      </c>
-      <c r="F17" s="22">
-        <v>0</v>
-      </c>
-      <c r="G17" s="22">
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
         <v>150</v>
       </c>
-      <c r="H17" s="22">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="23">
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="23">
         <v>200</v>
       </c>
-      <c r="K17" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="21" t="s">
+      <c r="K14" s="35"/>
+      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="22">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="22">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
+        <v>25</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
+        <v>110</v>
+      </c>
+      <c r="H15" s="22">
+        <v>95</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
+        <v>0</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="22">
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <v>10</v>
+      </c>
+      <c r="D16" s="18">
+        <v>93</v>
+      </c>
+      <c r="E16" s="17">
+        <v>40</v>
+      </c>
+      <c r="F16" s="18">
+        <v>40</v>
+      </c>
+      <c r="G16" s="18">
+        <v>40</v>
+      </c>
+      <c r="H16" s="18">
+        <v>40</v>
+      </c>
+      <c r="I16" s="18">
+        <v>40</v>
+      </c>
+      <c r="J16" s="18">
+        <v>40</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="18">
+        <v>40</v>
+      </c>
+      <c r="M16" s="18">
+        <v>40</v>
+      </c>
+      <c r="N16" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="18">
+        <v>5</v>
+      </c>
+      <c r="C17" s="18">
+        <v>20</v>
+      </c>
+      <c r="D17" s="18">
+        <v>38</v>
+      </c>
+      <c r="E17" s="18">
+        <v>40</v>
+      </c>
+      <c r="F17" s="18">
+        <v>12</v>
+      </c>
+      <c r="G17" s="18">
         <v>27</v>
       </c>
-      <c r="B18" s="22">
-        <v>0</v>
-      </c>
-      <c r="C18" s="22">
-        <v>6</v>
-      </c>
-      <c r="D18" s="22">
-        <v>0</v>
-      </c>
-      <c r="E18" s="22">
-        <v>6</v>
-      </c>
-      <c r="F18" s="22">
-        <v>6</v>
-      </c>
-      <c r="G18" s="22">
-        <v>6</v>
-      </c>
-      <c r="H18" s="22">
-        <v>6</v>
-      </c>
-      <c r="I18" s="22">
-        <v>6</v>
-      </c>
-      <c r="J18" s="22">
-        <v>6</v>
-      </c>
-      <c r="K18" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="22">
-        <v>0</v>
-      </c>
-      <c r="C19" s="22">
-        <v>25</v>
-      </c>
-      <c r="D19" s="22">
-        <v>0</v>
-      </c>
-      <c r="E19" s="22">
-        <v>0</v>
-      </c>
-      <c r="F19" s="22">
-        <v>0</v>
-      </c>
-      <c r="G19" s="22">
-        <v>110</v>
-      </c>
-      <c r="H19" s="22">
-        <v>95</v>
-      </c>
-      <c r="I19" s="22">
-        <v>0</v>
-      </c>
-      <c r="J19" s="22">
-        <v>0</v>
-      </c>
-      <c r="K19" s="22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="18">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>10</v>
-      </c>
-      <c r="D20" s="18">
-        <v>93</v>
-      </c>
-      <c r="E20" s="17">
+      <c r="H17" s="18">
         <v>40</v>
       </c>
-      <c r="F20" s="18">
-        <v>40</v>
-      </c>
-      <c r="G20" s="18">
-        <v>40</v>
-      </c>
-      <c r="H20" s="18">
-        <v>40</v>
-      </c>
-      <c r="I20" s="18">
-        <v>40</v>
-      </c>
-      <c r="J20" s="18">
-        <v>40</v>
-      </c>
-      <c r="K20" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="18">
-        <v>5</v>
-      </c>
-      <c r="C21" s="18">
-        <v>20</v>
-      </c>
-      <c r="D21" s="18">
-        <v>38</v>
-      </c>
-      <c r="E21" s="18">
-        <v>40</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="18">
+        <v>0</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="18">
-        <v>27</v>
-      </c>
-      <c r="H21" s="18">
-        <v>40</v>
-      </c>
-      <c r="I21" s="18">
-        <v>0</v>
-      </c>
-      <c r="J21" s="18">
-        <v>0</v>
-      </c>
-      <c r="K21" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="18">
-        <v>0</v>
-      </c>
-      <c r="C22" s="18">
-        <v>0</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0</v>
-      </c>
-      <c r="J22" s="18">
-        <v>0</v>
-      </c>
-      <c r="K22" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="18">
+      <c r="B18" s="18">
         <v>80</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C18" s="18">
         <f>245+65</f>
         <v>310</v>
       </c>
-      <c r="D23" s="18">
-        <v>0</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
         <v>66</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H18" s="18">
         <v>85</v>
       </c>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
-      <c r="J23" s="18">
+      <c r="I18" s="18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
         <v>100</v>
       </c>
-      <c r="K23" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="K18" s="35"/>
+      <c r="L18" s="18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="18">
+        <v>150</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
+      <c r="K19" s="35"/>
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="22">
+        <f>17+10+13</f>
+        <v>40</v>
+      </c>
+      <c r="C20" s="22">
+        <f>20+7+12+22+7+5</f>
+        <v>73</v>
+      </c>
+      <c r="D20" s="22">
+        <v>22</v>
+      </c>
+      <c r="E20" s="22">
+        <v>64</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0</v>
+      </c>
+      <c r="G20" s="22">
+        <f>100+66</f>
+        <v>166</v>
+      </c>
+      <c r="H20" s="22">
+        <v>20</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="22">
+        <v>65</v>
+      </c>
+      <c r="M20" s="22">
+        <v>30</v>
+      </c>
+      <c r="N20" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="22">
+        <v>0</v>
+      </c>
+      <c r="C21" s="22">
+        <f>720/2</f>
+        <v>360</v>
+      </c>
+      <c r="D21" s="22">
+        <f>310+41</f>
+        <v>351</v>
+      </c>
+      <c r="E21" s="22">
+        <f>310</f>
+        <v>310</v>
+      </c>
+      <c r="F21" s="22">
+        <v>27</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0</v>
+      </c>
+      <c r="H21" s="22">
+        <v>0</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
+        <v>0</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="22">
+        <v>0</v>
+      </c>
+      <c r="M21" s="22">
+        <v>0</v>
+      </c>
+      <c r="N21" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="22">
+        <v>200</v>
+      </c>
+      <c r="F22" s="22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="35"/>
+      <c r="L22" s="22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="22">
+        <v>0</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22">
+        <v>0</v>
+      </c>
+      <c r="F23" s="22">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0</v>
+      </c>
+      <c r="H23" s="22">
+        <v>28</v>
+      </c>
+      <c r="I23" s="22">
+        <f>20+66</f>
+        <v>86</v>
+      </c>
+      <c r="J23" s="22">
+        <v>100</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="22">
+        <v>0</v>
+      </c>
+      <c r="M23" s="22">
+        <v>0</v>
+      </c>
+      <c r="N23" s="22">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="18">
-        <v>10</v>
-      </c>
-      <c r="C24" s="18">
-        <v>0</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="18">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
-        <v>0</v>
-      </c>
-      <c r="G24" s="18">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0</v>
-      </c>
-      <c r="I24" s="18">
-        <v>0</v>
-      </c>
-      <c r="J24" s="18">
-        <v>0</v>
-      </c>
-      <c r="K24" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="18">
-        <v>7</v>
-      </c>
-      <c r="C25" s="18">
-        <v>7</v>
-      </c>
-      <c r="D25" s="18">
-        <v>14</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <v>7</v>
-      </c>
-      <c r="G25" s="18">
-        <v>7</v>
-      </c>
-      <c r="H25" s="18">
-        <v>7</v>
-      </c>
-      <c r="I25" s="18">
-        <v>7</v>
-      </c>
-      <c r="J25" s="18">
-        <v>7</v>
-      </c>
-      <c r="K25" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="18">
-        <v>150</v>
-      </c>
-      <c r="C26" s="18">
-        <v>0</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0</v>
-      </c>
-      <c r="E26" s="18">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>0</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0</v>
-      </c>
-      <c r="I26" s="18">
-        <v>0</v>
-      </c>
-      <c r="J26" s="18">
-        <v>0</v>
-      </c>
-      <c r="K26" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="22">
-        <f>17+10+13</f>
-        <v>40</v>
-      </c>
-      <c r="C27" s="22">
-        <f>20+7+12+22+7+5</f>
-        <v>73</v>
-      </c>
-      <c r="D27" s="22">
-        <v>22</v>
-      </c>
-      <c r="E27" s="22">
-        <v>64</v>
-      </c>
-      <c r="F27" s="22">
-        <v>0</v>
-      </c>
-      <c r="G27" s="22">
-        <f>100+66</f>
-        <v>166</v>
-      </c>
-      <c r="H27" s="22">
-        <v>20</v>
-      </c>
-      <c r="I27" s="22">
-        <v>0</v>
-      </c>
-      <c r="J27" s="22">
-        <v>30</v>
-      </c>
-      <c r="K27" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="22">
-        <v>0</v>
-      </c>
-      <c r="C28" s="22">
-        <f>720/2</f>
-        <v>360</v>
-      </c>
-      <c r="D28" s="22">
-        <f>310+41</f>
-        <v>351</v>
-      </c>
-      <c r="E28" s="22">
-        <f>310</f>
-        <v>310</v>
-      </c>
-      <c r="F28" s="22">
-        <v>27</v>
-      </c>
-      <c r="G28" s="22">
-        <v>0</v>
-      </c>
-      <c r="H28" s="22">
-        <v>0</v>
-      </c>
-      <c r="I28" s="22">
-        <v>0</v>
-      </c>
-      <c r="J28" s="22">
-        <v>0</v>
-      </c>
-      <c r="K28" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="22">
-        <v>0</v>
-      </c>
-      <c r="C29" s="22">
-        <v>0</v>
-      </c>
-      <c r="D29" s="22">
-        <v>0</v>
-      </c>
-      <c r="E29" s="22">
-        <v>200</v>
-      </c>
-      <c r="F29" s="22">
-        <v>0</v>
-      </c>
-      <c r="G29" s="22">
-        <v>0</v>
-      </c>
-      <c r="H29" s="22">
-        <v>0</v>
-      </c>
-      <c r="I29" s="22">
-        <v>0</v>
-      </c>
-      <c r="J29" s="22">
-        <v>0</v>
-      </c>
-      <c r="K29" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="22">
-        <v>0</v>
-      </c>
-      <c r="C30" s="22">
-        <v>0</v>
-      </c>
-      <c r="D30" s="22">
-        <v>0</v>
-      </c>
-      <c r="E30" s="22">
-        <v>0</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0</v>
-      </c>
-      <c r="G30" s="22">
-        <v>0</v>
-      </c>
-      <c r="H30" s="22">
-        <v>28</v>
-      </c>
-      <c r="I30" s="22">
-        <f>20+66</f>
-        <v>86</v>
-      </c>
-      <c r="J30" s="22">
-        <v>100</v>
-      </c>
-      <c r="K30" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="18">
-        <v>7</v>
-      </c>
-      <c r="C31" s="18">
-        <v>12</v>
-      </c>
-      <c r="D31" s="18">
-        <v>7</v>
-      </c>
-      <c r="E31" s="18">
-        <v>7</v>
-      </c>
-      <c r="F31" s="18">
-        <v>7</v>
-      </c>
-      <c r="G31" s="18">
-        <v>2</v>
-      </c>
-      <c r="H31" s="18">
-        <v>3</v>
-      </c>
-      <c r="I31" s="18">
-        <v>7</v>
-      </c>
-      <c r="J31" s="18">
-        <v>7</v>
-      </c>
-      <c r="K31" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="18">
         <f>22+3+3+7</f>
         <v>35</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C24" s="18">
         <v>3</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D24" s="18">
         <v>3</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E24" s="18">
         <v>3</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F24" s="18">
         <v>3</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G24" s="18">
         <v>3</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H24" s="18">
         <v>3</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I24" s="18">
         <v>3</v>
       </c>
-      <c r="J32" s="18">
-        <v>3</v>
-      </c>
-      <c r="K32" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="18">
+      <c r="J24" s="18">
+        <v>20</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="18">
+        <v>13</v>
+      </c>
+      <c r="M24" s="18">
+        <v>0</v>
+      </c>
+      <c r="N24" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="18">
         <f>23+10+15</f>
         <v>48</v>
       </c>
-      <c r="C33" s="18">
-        <v>0</v>
-      </c>
-      <c r="D33" s="17">
+      <c r="C25" s="18">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
         <f>75+100</f>
         <v>175</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E25" s="17">
         <f>100+3</f>
         <v>103</v>
       </c>
-      <c r="F33" s="18">
-        <v>0</v>
-      </c>
-      <c r="G33" s="18">
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
         <v>3.5</v>
       </c>
-      <c r="H33" s="18">
-        <v>0</v>
-      </c>
-      <c r="I33" s="18">
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18">
         <f>22+9</f>
         <v>31</v>
       </c>
-      <c r="J33" s="18">
-        <v>0</v>
-      </c>
-      <c r="K33" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="19">
-        <f t="shared" ref="B34:H34" si="0">SUM(B2:B33)</f>
-        <v>2354</v>
-      </c>
-      <c r="C34" s="19">
+      <c r="J25" s="18">
+        <v>10</v>
+      </c>
+      <c r="K25" s="35"/>
+      <c r="L25" s="18">
+        <v>0</v>
+      </c>
+      <c r="M25" s="18">
+        <v>0</v>
+      </c>
+      <c r="N25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="19">
+        <f t="shared" ref="B26:J26" si="0">SUM(B2:B25)</f>
+        <v>2330</v>
+      </c>
+      <c r="C26" s="19">
         <f t="shared" si="0"/>
-        <v>2363</v>
-      </c>
-      <c r="D34" s="19">
+        <v>2338</v>
+      </c>
+      <c r="D26" s="19">
         <f t="shared" si="0"/>
-        <v>4437.3333333333339</v>
-      </c>
-      <c r="E34" s="19">
+        <v>4416</v>
+      </c>
+      <c r="E26" s="19">
         <f t="shared" si="0"/>
-        <v>4611</v>
-      </c>
-      <c r="F34" s="19">
+        <v>4598</v>
+      </c>
+      <c r="F26" s="19">
         <f t="shared" si="0"/>
-        <v>2275</v>
-      </c>
-      <c r="G34" s="19">
+        <v>2255</v>
+      </c>
+      <c r="G26" s="19">
         <f t="shared" si="0"/>
-        <v>4460.5</v>
-      </c>
-      <c r="H34" s="19">
+        <v>4445.5</v>
+      </c>
+      <c r="H26" s="19">
         <f t="shared" si="0"/>
-        <v>2498</v>
-      </c>
-      <c r="I34" s="19">
-        <f>SUM(I2:I33)</f>
-        <v>2303</v>
-      </c>
-      <c r="J34" s="19">
-        <f>SUM(J2:J33)</f>
-        <v>4429</v>
-      </c>
-      <c r="K34" s="19">
-        <f>SUM(K2:K33)</f>
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="19">
+        <v>2482</v>
+      </c>
+      <c r="I26" s="19">
+        <f t="shared" si="0"/>
+        <v>2283</v>
+      </c>
+      <c r="J26" s="19">
+        <f t="shared" si="0"/>
+        <v>4420</v>
+      </c>
+      <c r="K26" s="35"/>
+      <c r="L26" s="19">
+        <f>SUM(L2:L25)</f>
+        <v>2417</v>
+      </c>
+      <c r="M26" s="19">
+        <f>SUM(M2:M25)</f>
+        <v>2301</v>
+      </c>
+      <c r="N26" s="19">
+        <f>SUM(N2:N25)</f>
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="19">
         <f>3541125/1500</f>
         <v>2360.75</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C27" s="19">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D27" s="19">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E27" s="19">
         <v>4622</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F27" s="19">
         <f>3437605/1500</f>
         <v>2291.7366666666667</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G27" s="19">
         <f>2352+2100</f>
         <v>4452</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H27" s="19">
         <f>3537605/1500</f>
         <v>2358.4033333333332</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I27" s="19">
         <f>3470000/1500</f>
         <v>2313.3333333333335</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J27" s="19">
         <f>(3570000/1500)+2100</f>
         <v>4480</v>
       </c>
-      <c r="K35" s="19">
-        <f>3470000/1500</f>
-        <v>2313.3333333333335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="19">
-        <f>(B35-B34)</f>
-        <v>6.75</v>
-      </c>
-      <c r="C36" s="19">
-        <f t="shared" ref="C36:G36" si="1">(C35-C34)</f>
-        <v>-4.5966666666668061</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="K27" s="35"/>
+      <c r="L27" s="19">
+        <f>(3333000+217000+13000)/1500</f>
+        <v>2375.3333333333335</v>
+      </c>
+      <c r="M27" s="19">
+        <f>(3333000+217000)/1500</f>
+        <v>2366.6666666666665</v>
+      </c>
+      <c r="N27" s="19">
+        <f>(3570000/1500)+2100</f>
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="19">
+        <f>(B27-B26)</f>
+        <v>30.75</v>
+      </c>
+      <c r="C28" s="19">
+        <f t="shared" ref="C28:G28" si="1">(C27-C26)</f>
+        <v>20.403333333333194</v>
+      </c>
+      <c r="D28" s="19">
         <f t="shared" si="1"/>
-        <v>14.66666666666606</v>
-      </c>
-      <c r="E36" s="19">
+        <v>36</v>
+      </c>
+      <c r="E28" s="19">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F36" s="19">
+        <v>24</v>
+      </c>
+      <c r="F28" s="19">
         <f t="shared" si="1"/>
-        <v>16.736666666666679</v>
-      </c>
-      <c r="G36" s="19">
+        <v>36.736666666666679</v>
+      </c>
+      <c r="G28" s="19">
         <f t="shared" si="1"/>
-        <v>-8.5</v>
-      </c>
-      <c r="H36" s="19">
-        <f t="shared" ref="H36:I36" si="2">(H35-H34)</f>
-        <v>-139.59666666666681</v>
-      </c>
-      <c r="I36" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="H28" s="19">
+        <f t="shared" ref="H28:I28" si="2">(H27-H26)</f>
+        <v>-123.59666666666681</v>
+      </c>
+      <c r="I28" s="19">
         <f t="shared" si="2"/>
-        <v>10.333333333333485</v>
-      </c>
-      <c r="J36" s="19">
-        <f t="shared" ref="J36:K36" si="3">(J35-J34)</f>
-        <v>51</v>
-      </c>
-      <c r="K36" s="19">
-        <f t="shared" si="3"/>
-        <v>-304.66666666666652</v>
+        <v>30.333333333333485</v>
+      </c>
+      <c r="J28" s="19">
+        <f t="shared" ref="J28" si="3">(J27-J26)</f>
+        <v>60</v>
+      </c>
+      <c r="K28" s="36"/>
+      <c r="L28" s="19">
+        <f>(L27-L26)</f>
+        <v>-41.666666666666515</v>
+      </c>
+      <c r="M28" s="19">
+        <f>(M27-M26)</f>
+        <v>65.666666666666515</v>
+      </c>
+      <c r="N28" s="19">
+        <f>(N27-N26)</f>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:K28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2643,84 +2584,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A3F363-4D9E-1E41-ACA2-FFCC22519FED}">
-  <dimension ref="A1:P30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="12" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="26" customFormat="1" ht="21">
-      <c r="A1" s="32">
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="37">
         <v>2018</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="D1" s="32">
+      <c r="B1" s="37"/>
+      <c r="D1" s="37">
         <v>2019</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="I1" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="I1" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>43132</v>
       </c>
@@ -2741,7 +2682,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="31" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J3" s="9">
         <v>51250</v>
@@ -2761,7 +2702,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>43160</v>
       </c>
@@ -2787,9 +2728,9 @@
       <c r="J4" s="29">
         <v>15000</v>
       </c>
-      <c r="K4" s="29">
-        <f>SUM(N3:P6)</f>
-        <v>15300</v>
+      <c r="K4" s="30">
+        <f>SUM(N3:P7)</f>
+        <v>18375</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="27">
@@ -2805,7 +2746,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>43191</v>
       </c>
@@ -2843,10 +2784,10 @@
         <v>400</v>
       </c>
       <c r="P5" s="9">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>43221</v>
       </c>
@@ -2877,17 +2818,17 @@
       <c r="M6" s="27">
         <v>43800</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="9">
         <v>3000</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="9">
         <v>400</v>
       </c>
       <c r="P6" s="9">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>43252</v>
       </c>
@@ -2917,17 +2858,17 @@
       <c r="M7" s="27">
         <v>43831</v>
       </c>
-      <c r="N7" s="25">
-        <v>1500</v>
-      </c>
-      <c r="O7" s="6">
-        <v>400</v>
-      </c>
-      <c r="P7" s="25">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="N7" s="9">
+        <v>1500</v>
+      </c>
+      <c r="O7" s="9">
+        <v>400</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>43282</v>
       </c>
@@ -2968,7 +2909,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>43313</v>
       </c>
@@ -3007,7 +2948,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>43344</v>
       </c>
@@ -3046,7 +2987,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>43374</v>
       </c>
@@ -3086,7 +3027,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>43405</v>
       </c>
@@ -3118,7 +3059,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>43435</v>
       </c>
@@ -3143,9 +3084,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8">
         <f>SUM(B3:B13)</f>
@@ -3169,7 +3110,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="27"/>
@@ -3189,7 +3130,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="27"/>
@@ -3209,7 +3150,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="27"/>
@@ -3231,7 +3172,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="27"/>
@@ -3251,7 +3192,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -3266,10 +3207,10 @@
       </c>
       <c r="P19" s="10">
         <f>SUM(P3:P18)</f>
-        <v>14295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>14670</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -3278,15 +3219,15 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10">
         <f>N19+P19+O19</f>
-        <v>53700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>54075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B21" s="6">
-        <v>5350</v>
+        <v>9046</v>
       </c>
       <c r="C21" s="6"/>
       <c r="E21" s="6"/>
@@ -3296,30 +3237,30 @@
       <c r="O21" s="15"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B22" s="6">
-        <v>1244000</v>
+        <v>1845000</v>
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B23" s="6">
-        <v>1260000</v>
+        <v>50000</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B24" s="6">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="C24" s="6"/>
       <c r="E24" s="6"/>
@@ -3329,12 +3270,12 @@
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B25" s="6">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="C25" s="6"/>
       <c r="E25" s="6"/>
@@ -3344,44 +3285,51 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="6">
+        <v>5870</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="6">
         <v>200000</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16">
-      <c r="A27" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="6">
-        <f>2725+895+1100</f>
-        <v>4720</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="6">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="B29" s="9">
-        <f>B21+B24+B27+(B22+B23+B25+B26+B28)/1515</f>
-        <v>13418.844884488448</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="6">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="9">
+        <f>B21+B24+B27+(B22+B23+B25+B26+B28+B29)/1515</f>
+        <v>18458.574257425742</v>
+      </c>
+      <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3395,75 +3343,75 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F365495B-CBBD-3644-A561-7677DF6020FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:L18"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" customWidth="1"/>
-    <col min="17" max="17" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="26" customFormat="1" ht="21">
-      <c r="A1" s="32">
+    <row r="1" spans="1:17" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="37">
         <v>2018</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="D1" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="I1" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="B1" s="37"/>
+      <c r="D1" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="I1" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>43132</v>
       </c>
@@ -3502,7 +3450,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>43160</v>
       </c>
@@ -3541,7 +3489,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>43191</v>
       </c>
@@ -3580,7 +3528,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>43221</v>
       </c>
@@ -3619,7 +3567,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>43252</v>
       </c>
@@ -3656,7 +3604,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>43282</v>
       </c>
@@ -3691,7 +3639,7 @@
       <c r="N8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>43313</v>
       </c>
@@ -3724,7 +3672,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>43344</v>
       </c>
@@ -3757,7 +3705,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>43374</v>
       </c>
@@ -3791,7 +3739,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>43405</v>
       </c>
@@ -3819,7 +3767,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>43435</v>
       </c>
@@ -3844,9 +3792,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8">
         <f>SUM(B3:B13)</f>
@@ -3870,13 +3818,13 @@
         <v>400</v>
       </c>
       <c r="P14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Q14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="27"/>
@@ -3896,13 +3844,13 @@
         <v>400</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="Q15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="27"/>
@@ -3922,10 +3870,10 @@
         <v>400</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="27"/>
@@ -3946,10 +3894,10 @@
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="27"/>
@@ -3970,7 +3918,7 @@
       </c>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -3988,7 +3936,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -4006,7 +3954,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
       <c r="I21" s="27">
         <v>44256</v>
@@ -4021,9 +3969,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C22" s="6"/>
       <c r="I22" s="27">
@@ -4039,9 +3987,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B23" s="6">
         <f>B14+SUM(E3:G10)</f>
@@ -4061,9 +4009,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B24" s="6">
         <f>SUM(J3:L4)</f>
@@ -4083,7 +4031,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="I25" s="27">
         <v>44378</v>
@@ -4098,9 +4046,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B26" s="6">
         <v>15000</v>
@@ -4118,7 +4066,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -4135,7 +4083,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16">
+    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="J28" s="13"/>
@@ -4157,7 +4105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R24"/>
   <sheetViews>
@@ -4165,82 +4113,82 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="33">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="38">
         <v>2018</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="D1" s="33">
+      <c r="B1" s="38"/>
+      <c r="D1" s="38">
         <v>2019</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="I1" s="33">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="I1" s="38">
         <v>2020</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="N1" s="33">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="N1" s="38">
         <v>2021</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43132</v>
       </c>
@@ -4286,7 +4234,7 @@
       </c>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43160</v>
       </c>
@@ -4332,7 +4280,7 @@
       </c>
       <c r="R4" s="14"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43191</v>
       </c>
@@ -4378,7 +4326,7 @@
       </c>
       <c r="R5" s="14"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43221</v>
       </c>
@@ -4424,7 +4372,7 @@
       </c>
       <c r="R6" s="14"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43252</v>
       </c>
@@ -4469,7 +4417,7 @@
       </c>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43282</v>
       </c>
@@ -4515,7 +4463,7 @@
       </c>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43313</v>
       </c>
@@ -4561,7 +4509,7 @@
       </c>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43344</v>
       </c>
@@ -4607,7 +4555,7 @@
       </c>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43374</v>
       </c>
@@ -4654,7 +4602,7 @@
       </c>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43405</v>
       </c>
@@ -4700,7 +4648,7 @@
       </c>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43435</v>
       </c>
@@ -4746,9 +4694,9 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8">
         <f>SUM(B3:B13)</f>
@@ -4793,7 +4741,7 @@
       </c>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
       <c r="E15" s="10">
         <f>SUM(E3:E14)</f>
@@ -4833,7 +4781,7 @@
       </c>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="10">
@@ -4855,24 +4803,24 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6">
         <f>B14+SUM(E3:G10)</f>
         <v>51250</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="6">
         <f>195000-B19</f>
@@ -4880,21 +4828,21 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>

--- a/My_Budget.xlsx
+++ b/My_Budget.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EXPENSE" sheetId="1" r:id="rId1"/>
@@ -1337,8 +1337,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,7 +3227,7 @@
         <v>52</v>
       </c>
       <c r="B21" s="6">
-        <v>9046</v>
+        <v>9554</v>
       </c>
       <c r="C21" s="6"/>
       <c r="E21" s="6"/>
@@ -3242,7 +3242,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="6">
-        <v>1845000</v>
+        <v>1088000</v>
       </c>
       <c r="C22" s="6"/>
     </row>
@@ -3251,7 +3251,7 @@
         <v>56</v>
       </c>
       <c r="B23" s="6">
-        <v>50000</v>
+        <v>130000</v>
       </c>
       <c r="C23" s="6"/>
     </row>
@@ -3275,7 +3275,7 @@
         <v>57</v>
       </c>
       <c r="B25" s="6">
-        <v>195000</v>
+        <v>0</v>
       </c>
       <c r="C25" s="6"/>
       <c r="E25" s="6"/>
@@ -3321,7 +3321,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <f>B21+B24+B27+(B22+B23+B25+B26+B28+B29)/1515</f>
-        <v>18458.574257425742</v>
+        <v>18390.996699669966</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>

--- a/My_Budget.xlsx
+++ b/My_Budget.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="EXPENSE" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0" shapeId="0">
+    <comment ref="D24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0">
+    <comment ref="E24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0">
+    <comment ref="G24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="0" shapeId="0">
+    <comment ref="I24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -572,7 +572,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>April</t>
   </si>
@@ -613,9 +613,6 @@
     <t>Gift</t>
   </si>
   <si>
-    <t>Office</t>
-  </si>
-  <si>
     <t>Clothes Shopping</t>
   </si>
   <si>
@@ -752,9 +749,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mom </t>
-  </si>
-  <si>
-    <t>Carpet</t>
   </si>
   <si>
     <t>January</t>
@@ -981,7 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1038,20 +1032,23 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1335,10 +1332,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,37 +1362,37 @@
         <v>2</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="34"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="23">
         <v>1400</v>
@@ -1426,7 +1423,7 @@
       <c r="J2" s="22">
         <v>3000</v>
       </c>
-      <c r="K2" s="35"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="22">
         <v>1500</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>1500</v>
       </c>
       <c r="N2" s="22">
-        <v>3000</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1468,7 +1465,7 @@
       <c r="J3" s="18">
         <v>31</v>
       </c>
-      <c r="K3" s="35"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="18">
         <v>22</v>
       </c>
@@ -1511,12 +1508,12 @@
       <c r="J4" s="18">
         <v>50</v>
       </c>
-      <c r="K4" s="35"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="18">
         <v>25</v>
       </c>
       <c r="M4" s="18">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N4" s="18">
         <v>50</v>
@@ -1525,7 +1522,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1538,7 +1535,7 @@
       <c r="J5" s="18">
         <v>66</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="17">
         <v>66</v>
       </c>
@@ -1583,7 +1580,7 @@
       <c r="J6" s="18">
         <v>250</v>
       </c>
-      <c r="K6" s="35"/>
+      <c r="K6" s="38"/>
       <c r="L6" s="18">
         <v>230</v>
       </c>
@@ -1627,7 +1624,7 @@
       <c r="J7" s="17">
         <v>80</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="17">
         <v>80</v>
       </c>
@@ -1669,12 +1666,12 @@
       <c r="J8" s="18">
         <v>30</v>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="18">
         <v>83</v>
       </c>
       <c r="M8" s="18">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N8" s="18">
         <v>60</v>
@@ -1682,7 +1679,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="18">
         <v>10</v>
@@ -1712,7 +1709,7 @@
       <c r="J9" s="17">
         <v>10</v>
       </c>
-      <c r="K9" s="35"/>
+      <c r="K9" s="38"/>
       <c r="L9" s="17">
         <v>10</v>
       </c>
@@ -1725,7 +1722,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="18">
         <v>0</v>
@@ -1755,7 +1752,7 @@
       <c r="J10" s="18">
         <v>0</v>
       </c>
-      <c r="K10" s="35"/>
+      <c r="K10" s="38"/>
       <c r="L10" s="18">
         <v>0</v>
       </c>
@@ -1768,7 +1765,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="18">
         <v>0</v>
@@ -1797,7 +1794,7 @@
       <c r="J11" s="18">
         <v>133</v>
       </c>
-      <c r="K11" s="35"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="18">
         <v>133</v>
       </c>
@@ -1841,7 +1838,7 @@
       <c r="J12" s="22">
         <v>150</v>
       </c>
-      <c r="K12" s="35"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="22">
         <v>150</v>
       </c>
@@ -1884,7 +1881,7 @@
       <c r="J13" s="22">
         <v>150</v>
       </c>
-      <c r="K13" s="35"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="22">
         <v>0</v>
       </c>
@@ -1897,7 +1894,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="22">
         <v>0</v>
@@ -1926,7 +1923,7 @@
       <c r="J14" s="23">
         <v>200</v>
       </c>
-      <c r="K14" s="35"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="22">
         <v>0</v>
       </c>
@@ -1939,7 +1936,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="22">
         <v>0</v>
@@ -1968,7 +1965,7 @@
       <c r="J15" s="22">
         <v>0</v>
       </c>
-      <c r="K15" s="35"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="22">
         <v>0</v>
       </c>
@@ -1981,7 +1978,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="18">
         <v>0</v>
@@ -2010,7 +2007,7 @@
       <c r="J16" s="18">
         <v>40</v>
       </c>
-      <c r="K16" s="35"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="18">
         <v>40</v>
       </c>
@@ -2023,7 +2020,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="18">
         <v>5</v>
@@ -2052,7 +2049,7 @@
       <c r="J17" s="18">
         <v>0</v>
       </c>
-      <c r="K17" s="35"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="18">
         <v>0</v>
       </c>
@@ -2095,7 +2092,7 @@
       <c r="J18" s="18">
         <v>100</v>
       </c>
-      <c r="K18" s="35"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="18">
         <v>0</v>
       </c>
@@ -2108,7 +2105,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="18">
         <v>150</v>
@@ -2137,7 +2134,7 @@
       <c r="J19" s="18">
         <v>0</v>
       </c>
-      <c r="K19" s="35"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="18">
         <v>0</v>
       </c>
@@ -2150,7 +2147,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="22">
         <f>17+10+13</f>
@@ -2182,7 +2179,7 @@
       <c r="J20" s="22">
         <v>0</v>
       </c>
-      <c r="K20" s="35"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="22">
         <v>65</v>
       </c>
@@ -2195,7 +2192,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="22">
         <v>0</v>
@@ -2227,7 +2224,7 @@
       <c r="J21" s="22">
         <v>0</v>
       </c>
-      <c r="K21" s="35"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="22">
         <v>0</v>
       </c>
@@ -2240,7 +2237,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="22">
         <v>0</v>
@@ -2269,7 +2266,7 @@
       <c r="J22" s="22">
         <v>0</v>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="22">
         <v>0</v>
       </c>
@@ -2282,7 +2279,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="22">
         <v>0</v>
@@ -2312,271 +2309,225 @@
       <c r="J23" s="22">
         <v>100</v>
       </c>
-      <c r="K23" s="35"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="22">
         <v>0</v>
       </c>
       <c r="M23" s="22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="22">
-        <v>234</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24" s="18">
-        <f>22+3+3+7</f>
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C24" s="18">
-        <v>3</v>
-      </c>
-      <c r="D24" s="18">
-        <v>3</v>
-      </c>
-      <c r="E24" s="18">
-        <v>3</v>
-      </c>
-      <c r="F24" s="18">
-        <v>3</v>
-      </c>
-      <c r="G24" s="18">
-        <v>3</v>
-      </c>
-      <c r="H24" s="18">
-        <v>3</v>
-      </c>
-      <c r="I24" s="18">
-        <v>3</v>
-      </c>
-      <c r="J24" s="18">
-        <v>20</v>
-      </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="18">
-        <v>13</v>
-      </c>
-      <c r="M24" s="18">
-        <v>0</v>
-      </c>
-      <c r="N24" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="18">
-        <f>23+10+15</f>
-        <v>48</v>
-      </c>
-      <c r="C25" s="18">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
         <f>75+100</f>
         <v>175</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E24" s="17">
         <f>100+3</f>
         <v>103</v>
       </c>
-      <c r="F25" s="18">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
         <v>3.5</v>
       </c>
-      <c r="H25" s="18">
-        <v>0</v>
-      </c>
-      <c r="I25" s="18">
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18">
         <f>22+9</f>
         <v>31</v>
       </c>
-      <c r="J25" s="18">
-        <v>10</v>
-      </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="18">
-        <v>0</v>
-      </c>
-      <c r="M25" s="18">
-        <v>0</v>
-      </c>
-      <c r="N25" s="18">
-        <v>0</v>
+      <c r="J24" s="18">
+        <v>30</v>
+      </c>
+      <c r="K24" s="38"/>
+      <c r="L24" s="18">
+        <v>0</v>
+      </c>
+      <c r="M24" s="18">
+        <f>35+27</f>
+        <v>62</v>
+      </c>
+      <c r="N24" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="19">
+        <f t="shared" ref="B25:J25" si="0">SUM(B2:B24)</f>
+        <v>2327</v>
+      </c>
+      <c r="C25" s="19">
+        <f t="shared" si="0"/>
+        <v>2335</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" si="0"/>
+        <v>4413</v>
+      </c>
+      <c r="E25" s="19">
+        <f t="shared" si="0"/>
+        <v>4595</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="0"/>
+        <v>2252</v>
+      </c>
+      <c r="G25" s="19">
+        <f t="shared" si="0"/>
+        <v>4442.5</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="0"/>
+        <v>2479</v>
+      </c>
+      <c r="I25" s="19">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+      <c r="J25" s="19">
+        <f t="shared" si="0"/>
+        <v>4420</v>
+      </c>
+      <c r="K25" s="38"/>
+      <c r="L25" s="19">
+        <f>SUM(L2:L24)</f>
+        <v>2404</v>
+      </c>
+      <c r="M25" s="19">
+        <f>SUM(M2:M24)</f>
+        <v>2444</v>
+      </c>
+      <c r="N25" s="19">
+        <f>SUM(N2:N24)</f>
+        <v>4342</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="19">
-        <f t="shared" ref="B26:J26" si="0">SUM(B2:B25)</f>
-        <v>2330</v>
+        <f>3541125/1500</f>
+        <v>2360.75</v>
       </c>
       <c r="C26" s="19">
-        <f t="shared" si="0"/>
-        <v>2338</v>
+        <f>3537605/1500</f>
+        <v>2358.4033333333332</v>
       </c>
       <c r="D26" s="19">
-        <f t="shared" si="0"/>
-        <v>4416</v>
+        <f>2352+2100</f>
+        <v>4452</v>
       </c>
       <c r="E26" s="19">
-        <f t="shared" si="0"/>
-        <v>4598</v>
+        <v>4622</v>
       </c>
       <c r="F26" s="19">
-        <f t="shared" si="0"/>
-        <v>2255</v>
+        <f>3437605/1500</f>
+        <v>2291.7366666666667</v>
       </c>
       <c r="G26" s="19">
-        <f t="shared" si="0"/>
-        <v>4445.5</v>
+        <f>2352+2100</f>
+        <v>4452</v>
       </c>
       <c r="H26" s="19">
-        <f t="shared" si="0"/>
-        <v>2482</v>
+        <f>3537605/1500</f>
+        <v>2358.4033333333332</v>
       </c>
       <c r="I26" s="19">
-        <f t="shared" si="0"/>
-        <v>2283</v>
+        <f>3470000/1500</f>
+        <v>2313.3333333333335</v>
       </c>
       <c r="J26" s="19">
-        <f t="shared" si="0"/>
-        <v>4420</v>
-      </c>
-      <c r="K26" s="35"/>
+        <f>(3570000/1500)+2100</f>
+        <v>4480</v>
+      </c>
+      <c r="K26" s="38"/>
       <c r="L26" s="19">
-        <f>SUM(L2:L25)</f>
-        <v>2417</v>
+        <f>(3333000+217000+13000)/1500</f>
+        <v>2375.3333333333335</v>
       </c>
       <c r="M26" s="19">
-        <f>SUM(M2:M25)</f>
-        <v>2301</v>
+        <f>(3543000+75000)/1500</f>
+        <v>2412</v>
       </c>
       <c r="N26" s="19">
-        <f>SUM(N2:N25)</f>
-        <v>4143</v>
+        <f>(3570000/1500)+2100</f>
+        <v>4480</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="19">
-        <f>3541125/1500</f>
-        <v>2360.75</v>
+        <f>(B26-B25)</f>
+        <v>33.75</v>
       </c>
       <c r="C27" s="19">
-        <f>3537605/1500</f>
-        <v>2358.4033333333332</v>
+        <f t="shared" ref="C27:G27" si="1">(C26-C25)</f>
+        <v>23.403333333333194</v>
       </c>
       <c r="D27" s="19">
-        <f>2352+2100</f>
-        <v>4452</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="E27" s="19">
-        <v>4622</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="F27" s="19">
-        <f>3437605/1500</f>
-        <v>2291.7366666666667</v>
+        <f t="shared" si="1"/>
+        <v>39.736666666666679</v>
       </c>
       <c r="G27" s="19">
-        <f>2352+2100</f>
-        <v>4452</v>
+        <f t="shared" si="1"/>
+        <v>9.5</v>
       </c>
       <c r="H27" s="19">
-        <f>3537605/1500</f>
-        <v>2358.4033333333332</v>
+        <f t="shared" ref="H27:I27" si="2">(H26-H25)</f>
+        <v>-120.59666666666681</v>
       </c>
       <c r="I27" s="19">
-        <f>3470000/1500</f>
-        <v>2313.3333333333335</v>
+        <f t="shared" si="2"/>
+        <v>33.333333333333485</v>
       </c>
       <c r="J27" s="19">
-        <f>(3570000/1500)+2100</f>
-        <v>4480</v>
-      </c>
-      <c r="K27" s="35"/>
+        <f t="shared" ref="J27" si="3">(J26-J25)</f>
+        <v>60</v>
+      </c>
+      <c r="K27" s="39"/>
       <c r="L27" s="19">
-        <f>(3333000+217000+13000)/1500</f>
-        <v>2375.3333333333335</v>
+        <f>(L26-L25)</f>
+        <v>-28.666666666666515</v>
       </c>
       <c r="M27" s="19">
-        <f>(3333000+217000)/1500</f>
-        <v>2366.6666666666665</v>
+        <f>(M26-M25)</f>
+        <v>-32</v>
       </c>
       <c r="N27" s="19">
-        <f>(3570000/1500)+2100</f>
-        <v>4480</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="19">
-        <f>(B27-B26)</f>
-        <v>30.75</v>
-      </c>
-      <c r="C28" s="19">
-        <f t="shared" ref="C28:G28" si="1">(C27-C26)</f>
-        <v>20.403333333333194</v>
-      </c>
-      <c r="D28" s="19">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="E28" s="19">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F28" s="19">
-        <f t="shared" si="1"/>
-        <v>36.736666666666679</v>
-      </c>
-      <c r="G28" s="19">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="H28" s="19">
-        <f t="shared" ref="H28:I28" si="2">(H27-H26)</f>
-        <v>-123.59666666666681</v>
-      </c>
-      <c r="I28" s="19">
-        <f t="shared" si="2"/>
-        <v>30.333333333333485</v>
-      </c>
-      <c r="J28" s="19">
-        <f t="shared" ref="J28" si="3">(J27-J26)</f>
-        <v>60</v>
-      </c>
-      <c r="K28" s="36"/>
-      <c r="L28" s="19">
-        <f>(L27-L26)</f>
-        <v>-41.666666666666515</v>
-      </c>
-      <c r="M28" s="19">
-        <f>(M27-M26)</f>
-        <v>65.666666666666515</v>
-      </c>
-      <c r="N28" s="19">
-        <f>(N27-N26)</f>
-        <v>337</v>
+        <f>(N26-N25)</f>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K1:K28"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2585,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,62 +2554,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="37">
+      <c r="A1" s="34">
         <v>2018</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="D1" s="37">
+      <c r="B1" s="34"/>
+      <c r="D1" s="34">
         <v>2019</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="I1" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="I1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="M2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2682,12 +2633,15 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="9">
         <v>51250</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="35">
+        <f>SUM(N3:P8)</f>
+        <v>21225</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="27">
         <v>43709</v>
@@ -2728,10 +2682,7 @@
       <c r="J4" s="29">
         <v>15000</v>
       </c>
-      <c r="K4" s="30">
-        <f>SUM(N3:P7)</f>
-        <v>18375</v>
-      </c>
+      <c r="K4" s="35"/>
       <c r="L4" s="5"/>
       <c r="M4" s="27">
         <v>43739</v>
@@ -2772,7 +2723,7 @@
       <c r="J5" s="29">
         <v>15000</v>
       </c>
-      <c r="K5" s="29"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="5"/>
       <c r="M5" s="27">
         <v>43770</v>
@@ -2813,7 +2764,7 @@
       <c r="J6" s="29">
         <v>15000</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="5"/>
       <c r="M6" s="27">
         <v>43800</v>
@@ -2853,7 +2804,7 @@
       <c r="J7" s="29">
         <v>15000</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="6"/>
       <c r="M7" s="27">
         <v>43831</v>
@@ -2894,19 +2845,19 @@
       <c r="J8" s="29">
         <v>15000</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="6"/>
       <c r="M8" s="27">
         <v>43862</v>
       </c>
-      <c r="N8" s="25">
-        <v>1500</v>
-      </c>
-      <c r="O8" s="6">
-        <v>400</v>
-      </c>
-      <c r="P8" s="25">
-        <v>800</v>
+      <c r="N8" s="9">
+        <v>1500</v>
+      </c>
+      <c r="O8" s="9">
+        <v>400</v>
+      </c>
+      <c r="P8" s="9">
+        <v>950</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2935,6 +2886,7 @@
       <c r="J9" s="29">
         <v>15000</v>
       </c>
+      <c r="K9" s="35"/>
       <c r="M9" s="27">
         <v>43891</v>
       </c>
@@ -2974,6 +2926,7 @@
       <c r="J10" s="29">
         <v>15000</v>
       </c>
+      <c r="K10" s="35"/>
       <c r="M10" s="27">
         <v>43922</v>
       </c>
@@ -3014,6 +2967,7 @@
       <c r="J11" s="29">
         <v>35000</v>
       </c>
+      <c r="K11" s="35"/>
       <c r="M11" s="27">
         <v>43952</v>
       </c>
@@ -3086,7 +3040,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="8">
         <f>SUM(B3:B13)</f>
@@ -3207,7 +3161,7 @@
       </c>
       <c r="P19" s="10">
         <f>SUM(P3:P18)</f>
-        <v>14670</v>
+        <v>14820</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -3219,12 +3173,12 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10">
         <f>N19+P19+O19</f>
-        <v>54075</v>
+        <v>54225</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="6">
         <v>9554</v>
@@ -3239,28 +3193,28 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="6">
-        <v>1088000</v>
+        <v>994492</v>
       </c>
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6">
-        <v>130000</v>
+        <v>2561000</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="6">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="C24" s="6"/>
       <c r="E24" s="6"/>
@@ -3272,7 +3226,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
@@ -3287,55 +3241,49 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="6">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="6">
-        <v>5870</v>
+        <f>5870+975</f>
+        <v>6845</v>
       </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B28" s="6">
         <v>200000</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="6">
-        <v>350000</v>
-      </c>
+      <c r="B29" s="9">
+        <f>B21+B24+B27+(B22+B23+B25+B26+B28)/1515</f>
+        <v>21209.885808580857</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="9">
-        <f>B21+B24+B27+(B22+B23+B25+B26+B28+B29)/1515</f>
-        <v>18390.996699669966</v>
-      </c>
-      <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="K3:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3361,54 +3309,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="37">
+      <c r="A1" s="34">
         <v>2018</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="D1" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="I1" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="D1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="I1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3794,7 +3742,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="8">
         <f>SUM(B3:B13)</f>
@@ -3818,10 +3766,10 @@
         <v>400</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3844,10 +3792,10 @@
         <v>400</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3870,7 +3818,7 @@
         <v>400</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3894,7 +3842,7 @@
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -3971,7 +3919,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="6"/>
       <c r="I22" s="27">
@@ -3989,7 +3937,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6">
         <f>B14+SUM(E3:G10)</f>
@@ -4011,7 +3959,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="6">
         <f>SUM(J3:L4)</f>
@@ -4048,7 +3996,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="6">
         <v>15000</v>
@@ -4119,72 +4067,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="38">
+      <c r="A1" s="36">
         <v>2018</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="D1" s="38">
+      <c r="B1" s="36"/>
+      <c r="D1" s="36">
         <v>2019</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="I1" s="38">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="36">
         <v>2020</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="N1" s="38">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="N1" s="36">
         <v>2021</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" s="14"/>
     </row>
@@ -4696,7 +4644,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="8">
         <f>SUM(B3:B13)</f>
@@ -4813,7 +4761,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6">
         <f>B14+SUM(E3:G10)</f>
